--- a/data/Comparison_IRR/063.xlsx
+++ b/data/Comparison_IRR/063.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w1maccs.sharepoint.com/sites/SLRforABM/Freigegebene Dokumente/General/Analysis/R-code_git_project/SLR_ABMs_Ecology/data/Comparison_IRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w1maccs.sharepoint.com/sites/SLRforABM/Freigegebene Dokumente/General/Content-analysis/ecology_coding_merge/Comparison_IRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_BFF340BE526DDB89206933491B467E8A6EF808DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE9701A-DAC9-4049-BBA6-7D14FDF05CAD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_062ECBB560DEA787DC745BB583E118AC3C2BC969" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C74D1F98-D7E0-4EEA-9FCB-0E50B8F0D830}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,169 +427,91 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={89CEDBBE-997B-48FF-B728-F80EF692A83F}</author>
+    <author>tc={15FDF5D3-1570-4A9F-A8DE-0F4082A7EE55}</author>
+    <author>tc={65DAA090-505F-4DB8-AA31-5BF668BB68E0}</author>
+    <author>tc={3207AF45-356C-4649-9990-871C69356A2D}</author>
+    <author>tc={3622D680-0A30-499B-906B-2BF57913057B}</author>
+    <author>tc={94F99B29-723C-431E-998A-25F002EC7647}</author>
+    <author>tc={47BE3548-A4AF-42F8-A1EA-7777EA2C674F}</author>
+    <author>tc={BC5E73D1-AFB5-4E00-BC8E-A44EB5AB24AE}</author>
     <author/>
+    <author>tc={7D9E6A4A-0C61-4D46-9508-4A015160DBB2}</author>
+    <author>tc={38FF74A6-39AF-4ED6-8506-7BD2421E77FE}</author>
   </authors>
   <commentList>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{89CEDBBE-997B-48FF-B728-F80EF692A83F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gbaM
-tc={ED347470-98A3-4CC8-A582-37B9D237E148}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     When does it count as "varying"? Use paper 105 as lower limit example? Here the keyword search uses "agent-based" and "mulit-agent", is that varying enough?
 Antwort:
     Yes, this is enough. Add that to the description.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="C35" authorId="1" shapeId="0" xr:uid="{15FDF5D3-1570-4A9F-A8DE-0F4082A7EE55}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gba8
-tc={0E315D38-F243-4863-9BA4-70DC164F6CE3}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     New in update from 02.08.22</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="C39" authorId="2" shapeId="0" xr:uid="{65DAA090-505F-4DB8-AA31-5BF668BB68E0}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gbcI
-tc={E1FECBFF-8484-4DBA-8576-733BD11CD38D}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Previously labeled "not indicated" becomes "no".
 Antwort:
     Formulation adjusted</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="C49" authorId="3" shapeId="0" xr:uid="{3207AF45-356C-4649-9990-871C69356A2D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gbag
-tc={DF7B7613-75FA-4C07-AE7F-5E951BDAA884}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Example adjusted</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="C50" authorId="4" shapeId="0" xr:uid="{3622D680-0A30-499B-906B-2BF57913057B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gbaU
-tc={9E4636DB-AD2C-4770-964C-474827742916}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     changed answer options</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="C53" authorId="5" shapeId="0" xr:uid="{94F99B29-723C-431E-998A-25F002EC7647}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gba0
-tc={1C2974DB-8A67-4961-BD63-E9DCAB73C288}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Melania had the issue that it was disclosed in two parts. Should we make it a multiple-choice question?
 Or ask "where has it been mainly disclosed"?
 Antwort:
     MAke it a multi-select questions. Decided together with Melania</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="C60" authorId="6" shapeId="0" xr:uid="{47BE3548-A4AF-42F8-A1EA-7777EA2C674F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gbaw
-tc={0C196FAE-E0DB-4595-A221-3F96F1288BB0}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     changed answer options</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="C61" authorId="7" shapeId="0" xr:uid="{BC5E73D1-AFB5-4E00-BC8E-A44EB5AB24AE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gbbA
-tc={596E03CE-8DB8-4410-A1CF-B7FD96628D90}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Deleted the question that was previously here (Q29) and replaced it what was previously Q20 but reformulated.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="F68" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="I68" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +546,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="F69" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -643,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="I69" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -659,26 +581,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="C71" authorId="9" shapeId="0" xr:uid="{7D9E6A4A-0C61-4D46-9508-4A015160DBB2}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gbbw
-tc={E24BA72D-B446-4D46-8857-565D35C2D4BE}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     formulation extended by challenges and recommendations.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="F71" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -697,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="I71" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -713,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F72" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -732,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I73" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -748,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="F78" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -767,26 +678,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="C86" authorId="10" shapeId="0" xr:uid="{38FF74A6-39AF-4ED6-8506-7BD2421E77FE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>======
-ID#AAAAhZ6gbaI
-tc={4B5A6A16-2044-4A5F-9E1C-47751A8469A3}    (2022-10-04 14:17:12)
-[Kommentarthread]
+        <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
 Kommentar:
     Extended the explanation to make clear what defines a structured comparison.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="F86" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1534,11 +1434,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1613,8 +1520,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1679,6 +1600,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1998,232 +1925,269 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2257,6 +2221,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Sebastian Achter" id="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" userId="Sebastian Achter" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2453,6 +2423,51 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C21" dT="2022-07-26T14:19:23.91" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{89CEDBBE-997B-48FF-B728-F80EF692A83F}">
+    <text>When does it count as "varying"? Use paper 105 as lower limit example? Here the keyword search uses "agent-based" and "mulit-agent", is that varying enough?</text>
+  </threadedComment>
+  <threadedComment ref="C21" dT="2022-07-29T06:26:38.19" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{851C5F20-D57D-4B5B-ACA4-8528080B7640}" parentId="{89CEDBBE-997B-48FF-B728-F80EF692A83F}">
+    <text>Yes, this is enough. Add that to the description.</text>
+  </threadedComment>
+  <threadedComment ref="C35" dT="2022-08-12T14:09:41.88" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{15FDF5D3-1570-4A9F-A8DE-0F4082A7EE55}">
+    <text>New in update from 02.08.22</text>
+  </threadedComment>
+  <threadedComment ref="C39" dT="2022-07-26T16:21:49.72" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{65DAA090-505F-4DB8-AA31-5BF668BB68E0}">
+    <text>Previously labeled "not indicated" becomes "no".</text>
+  </threadedComment>
+  <threadedComment ref="C39" dT="2022-07-26T16:42:35.75" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{FAE26CBC-E1EE-4D17-83F3-5977410BBBF8}" parentId="{65DAA090-505F-4DB8-AA31-5BF668BB68E0}">
+    <text>Formulation adjusted</text>
+  </threadedComment>
+  <threadedComment ref="C49" dT="2022-07-26T16:42:46.82" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{3207AF45-356C-4649-9990-871C69356A2D}">
+    <text>Example adjusted</text>
+  </threadedComment>
+  <threadedComment ref="C50" dT="2022-08-02T17:18:36.73" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{3622D680-0A30-499B-906B-2BF57913057B}">
+    <text>changed answer options</text>
+  </threadedComment>
+  <threadedComment ref="C53" dT="2022-07-26T16:45:55.25" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{94F99B29-723C-431E-998A-25F002EC7647}">
+    <text>Melania had the issue that it was disclosed in two parts. Should we make it a multiple-choice question?
+Or ask "where has it been mainly disclosed"?</text>
+  </threadedComment>
+  <threadedComment ref="C53" dT="2022-07-29T07:02:18.18" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{AC38685E-DAA0-4229-8520-1AF3C37609E2}" parentId="{94F99B29-723C-431E-998A-25F002EC7647}">
+    <text>MAke it a multi-select questions. Decided together with Melania</text>
+  </threadedComment>
+  <threadedComment ref="C60" dT="2022-08-02T17:18:24.47" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{47BE3548-A4AF-42F8-A1EA-7777EA2C674F}">
+    <text>changed answer options</text>
+  </threadedComment>
+  <threadedComment ref="C61" dT="2022-08-12T14:06:04.99" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{BC5E73D1-AFB5-4E00-BC8E-A44EB5AB24AE}">
+    <text>Deleted the question that was previously here (Q29) and replaced it what was previously Q20 but reformulated.</text>
+  </threadedComment>
+  <threadedComment ref="C71" dT="2022-08-22T12:52:40.15" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{7D9E6A4A-0C61-4D46-9508-4A015160DBB2}">
+    <text>formulation extended by challenges and recommendations.</text>
+  </threadedComment>
+  <threadedComment ref="C86" dT="2022-07-29T08:27:52.27" personId="{9A89D0F3-8A00-47D6-8F18-277EEAB99002}" id="{38FF74A6-39AF-4ED6-8506-7BD2421E77FE}">
+    <text>Extended the explanation to make clear what defines a structured comparison.</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12056,10 +12071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:S1000"/>
+  <dimension ref="B1:S1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -12084,7 +12099,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C1" s="8"/>
+      <c r="C1" s="104"/>
       <c r="F1" s="9"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -12092,7 +12107,7 @@
       <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C2" s="8"/>
+      <c r="C2" s="104"/>
       <c r="F2" s="10" t="s">
         <v>38</v>
       </c>
@@ -12113,7 +12128,7 @@
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C3" s="8"/>
+      <c r="C3" s="104"/>
       <c r="F3" s="9"/>
       <c r="H3" s="93"/>
       <c r="I3" s="94"/>
@@ -12130,7 +12145,7 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C4" s="8"/>
+      <c r="C4" s="104"/>
       <c r="F4" s="9"/>
       <c r="L4" s="99" t="s">
         <v>42</v>
@@ -12142,7 +12157,7 @@
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="105" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="12"/>
@@ -12183,7 +12198,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
+      <c r="C6" s="104"/>
       <c r="F6" s="9"/>
       <c r="G6" s="7" t="s">
         <v>50</v>
@@ -12197,7 +12212,7 @@
     </row>
     <row r="7" spans="2:19" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="106" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -12233,7 +12248,7 @@
     </row>
     <row r="8" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="107" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="23"/>
@@ -12263,8 +12278,8 @@
       <c r="B9" s="30">
         <v>1</v>
       </c>
-      <c r="C9" s="31" t="str">
-        <f t="shared" ref="C9:C10" si="0">TEXT(SUM(B$7:B9),"Q#")</f>
+      <c r="C9" s="108" t="str">
+        <f>TEXT(SUM(B$7:B9),"Q#")</f>
         <v>Q1</v>
       </c>
       <c r="D9" s="30"/>
@@ -12296,7 +12311,7 @@
       <c r="P9" s="36"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="83" t="str">
-        <f t="shared" ref="R9:R10" si="1">IF(L9=O9,"Same","Diff")</f>
+        <f t="shared" ref="R9:R10" si="0">IF(L9=O9,"Same","Diff")</f>
         <v>Diff</v>
       </c>
       <c r="S9" s="21"/>
@@ -12305,8 +12320,8 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="38" t="str">
-        <f t="shared" si="0"/>
+      <c r="C10" s="109" t="str">
+        <f>TEXT(SUM(B$7:B10),"Q#")</f>
         <v>Q2</v>
       </c>
       <c r="D10" s="37"/>
@@ -12340,14 +12355,14 @@
       <c r="P10" s="43"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Diff</v>
       </c>
       <c r="S10" s="21"/>
     </row>
     <row r="11" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="107" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="23"/>
@@ -12369,7 +12384,7 @@
     </row>
     <row r="12" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="44" t="s">
         <v>65</v>
       </c>
@@ -12393,7 +12408,7 @@
       <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="51" t="str">
+      <c r="C13" s="110" t="str">
         <f>TEXT(SUM(B$9:B13),"Q#")</f>
         <v>Q3</v>
       </c>
@@ -12419,9 +12434,9 @@
     </row>
     <row r="14" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$13,".1")</f>
-        <v>#NAME?</v>
+      <c r="C14" s="110" t="str">
+        <f>_xlfn.CONCAT($C$13,".1")</f>
+        <v>Q3.1</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>7</v>
@@ -12443,16 +12458,16 @@
       <c r="P14" s="22"/>
       <c r="Q14" s="84"/>
       <c r="R14" s="83" t="str">
-        <f t="shared" ref="R14:R18" si="2">IF(L14=O14,"Same","Diff")</f>
+        <f t="shared" ref="R14:R18" si="1">IF(L14=O14,"Same","Diff")</f>
         <v>Same</v>
       </c>
       <c r="S14" s="21"/>
     </row>
     <row r="15" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
-      <c r="C15" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$13,".2")</f>
-        <v>#NAME?</v>
+      <c r="C15" s="110" t="str">
+        <f>_xlfn.CONCAT($C$13,".2")</f>
+        <v>Q3.2</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>69</v>
@@ -12474,16 +12489,16 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="84"/>
       <c r="R15" s="83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Same</v>
       </c>
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
-      <c r="C16" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$13,".3")</f>
-        <v>#NAME?</v>
+      <c r="C16" s="110" t="str">
+        <f>_xlfn.CONCAT($C$13,".3")</f>
+        <v>Q3.3</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>16</v>
@@ -12505,16 +12520,16 @@
       <c r="P16" s="22"/>
       <c r="Q16" s="84"/>
       <c r="R16" s="83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Same</v>
       </c>
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="2:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
-      <c r="C17" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$13,".4")</f>
-        <v>#NAME?</v>
+      <c r="C17" s="110" t="str">
+        <f>_xlfn.CONCAT($C$13,".4")</f>
+        <v>Q3.4</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>32</v>
@@ -12540,16 +12555,16 @@
       </c>
       <c r="Q17" s="84"/>
       <c r="R17" s="83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Same</v>
       </c>
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="C18" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$13,".5")</f>
-        <v>#NAME?</v>
+      <c r="C18" s="110" t="str">
+        <f>_xlfn.CONCAT($C$13,".5")</f>
+        <v>Q3.5</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>71</v>
@@ -12571,14 +12586,14 @@
       <c r="P18" s="22"/>
       <c r="Q18" s="84"/>
       <c r="R18" s="83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Same</v>
       </c>
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="53"/>
       <c r="E19" s="54" t="s">
         <v>72</v>
@@ -12602,8 +12617,8 @@
       <c r="B20" s="30">
         <v>1</v>
       </c>
-      <c r="C20" s="31" t="str">
-        <f t="shared" ref="C20:C22" si="3">TEXT(SUM(B$7:B20),"Q#")</f>
+      <c r="C20" s="108" t="str">
+        <f>TEXT(SUM(B$7:B20),"Q#")</f>
         <v>Q4</v>
       </c>
       <c r="D20" s="30"/>
@@ -12635,7 +12650,7 @@
       <c r="P20" s="36"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="83" t="str">
-        <f t="shared" ref="R20:R22" si="4">IF(L20=O20,"Same","Diff")</f>
+        <f t="shared" ref="R20:R22" si="2">IF(L20=O20,"Same","Diff")</f>
         <v>Diff</v>
       </c>
       <c r="S20" s="21"/>
@@ -12644,8 +12659,8 @@
       <c r="B21" s="30">
         <v>1</v>
       </c>
-      <c r="C21" s="60" t="str">
-        <f t="shared" si="3"/>
+      <c r="C21" s="111" t="str">
+        <f>TEXT(SUM(B$7:B21),"Q#")</f>
         <v>Q5</v>
       </c>
       <c r="D21" s="30"/>
@@ -12677,7 +12692,7 @@
       <c r="P21" s="36"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Diff</v>
       </c>
       <c r="S21" s="21"/>
@@ -12686,8 +12701,8 @@
       <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="str">
-        <f t="shared" si="3"/>
+      <c r="C22" s="104" t="str">
+        <f>TEXT(SUM(B$7:B22),"Q#")</f>
         <v>Q6</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -12716,14 +12731,14 @@
       <c r="P22" s="22"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Diff</v>
       </c>
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="53"/>
       <c r="E23" s="54" t="s">
         <v>80</v>
@@ -12747,8 +12762,8 @@
       <c r="B24" s="30">
         <v>1</v>
       </c>
-      <c r="C24" s="31" t="str">
-        <f t="shared" ref="C24:C28" si="5">TEXT(SUM(B$7:B24),"Q#")</f>
+      <c r="C24" s="108" t="str">
+        <f>TEXT(SUM(B$7:B24),"Q#")</f>
         <v>Q7</v>
       </c>
       <c r="D24" s="30"/>
@@ -12778,7 +12793,7 @@
       <c r="P24" s="36"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="83" t="str">
-        <f t="shared" ref="R24:R27" si="6">IF(L24=O24,"Same","Diff")</f>
+        <f t="shared" ref="R24:R27" si="3">IF(L24=O24,"Same","Diff")</f>
         <v>Same</v>
       </c>
       <c r="S24" s="21"/>
@@ -12787,8 +12802,8 @@
       <c r="B25" s="30">
         <v>1</v>
       </c>
-      <c r="C25" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="C25" s="108" t="str">
+        <f>TEXT(SUM(B$7:B25),"Q#")</f>
         <v>Q8</v>
       </c>
       <c r="D25" s="30"/>
@@ -12820,7 +12835,7 @@
       <c r="P25" s="36"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>Same</v>
       </c>
       <c r="S25" s="21"/>
@@ -12829,8 +12844,8 @@
       <c r="B26" s="30">
         <v>1</v>
       </c>
-      <c r="C26" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="C26" s="108" t="str">
+        <f>TEXT(SUM(B$7:B26),"Q#")</f>
         <v>Q9</v>
       </c>
       <c r="D26" s="30"/>
@@ -12862,7 +12877,7 @@
       <c r="P26" s="36"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>Same</v>
       </c>
       <c r="S26" s="21"/>
@@ -12871,8 +12886,8 @@
       <c r="B27" s="30">
         <v>1</v>
       </c>
-      <c r="C27" s="31" t="str">
-        <f t="shared" si="5"/>
+      <c r="C27" s="108" t="str">
+        <f>TEXT(SUM(B$7:B27),"Q#")</f>
         <v>Q10</v>
       </c>
       <c r="D27" s="30"/>
@@ -12902,7 +12917,7 @@
       <c r="P27" s="36"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>Same</v>
       </c>
       <c r="S27" s="21"/>
@@ -12911,8 +12926,8 @@
       <c r="B28" s="62">
         <v>1</v>
       </c>
-      <c r="C28" s="63" t="str">
-        <f t="shared" si="5"/>
+      <c r="C28" s="112" t="str">
+        <f>TEXT(SUM(B$7:B28),"Q#")</f>
         <v>Q11</v>
       </c>
       <c r="D28" s="62"/>
@@ -12940,9 +12955,9 @@
     </row>
     <row r="29" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7"/>
-      <c r="C29" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$28,".1")</f>
-        <v>#NAME?</v>
+      <c r="C29" s="104" t="str">
+        <f>_xlfn.CONCAT($C$28,".1")</f>
+        <v>Q11.1</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -12969,16 +12984,16 @@
       <c r="P29" s="22"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="83" t="str">
-        <f t="shared" ref="R29:R35" si="7">IF(L29=O29,"Same","Diff")</f>
+        <f t="shared" ref="R29:R35" si="4">IF(L29=O29,"Same","Diff")</f>
         <v>Same</v>
       </c>
       <c r="S29" s="21"/>
     </row>
     <row r="30" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
-      <c r="C30" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$28,".2")</f>
-        <v>#NAME?</v>
+      <c r="C30" s="104" t="str">
+        <f>_xlfn.CONCAT($C$28,".2")</f>
+        <v>Q11.2</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -13005,16 +13020,16 @@
       <c r="P30" s="22"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Same</v>
       </c>
       <c r="S30" s="21"/>
     </row>
     <row r="31" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
-      <c r="C31" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$28,".3")</f>
-        <v>#NAME?</v>
+      <c r="C31" s="104" t="str">
+        <f>_xlfn.CONCAT($C$28,".3")</f>
+        <v>Q11.3</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -13041,16 +13056,16 @@
       <c r="P31" s="22"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Same</v>
       </c>
       <c r="S31" s="21"/>
     </row>
     <row r="32" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
-      <c r="C32" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$28,".4")</f>
-        <v>#NAME?</v>
+      <c r="C32" s="104" t="str">
+        <f>_xlfn.CONCAT($C$28,".4")</f>
+        <v>Q11.4</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -13077,16 +13092,16 @@
       <c r="P32" s="22"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Same</v>
       </c>
       <c r="S32" s="21"/>
     </row>
     <row r="33" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="30"/>
-      <c r="C33" s="31" t="e">
-        <f ca="1">_xludf.CONCAT($C$28,".5")</f>
-        <v>#NAME?</v>
+      <c r="C33" s="108" t="str">
+        <f>_xlfn.CONCAT($C$28,".5")</f>
+        <v>Q11.5</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
@@ -13113,7 +13128,7 @@
       <c r="P33" s="36"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Same</v>
       </c>
       <c r="S33" s="21" t="s">
@@ -13124,8 +13139,8 @@
       <c r="B34" s="30">
         <v>1</v>
       </c>
-      <c r="C34" s="31" t="str">
-        <f t="shared" ref="C34:C35" si="8">TEXT(SUM(B$7:B34),"Q#")</f>
+      <c r="C34" s="108" t="str">
+        <f>TEXT(SUM(B$7:B34),"Q#")</f>
         <v>Q12</v>
       </c>
       <c r="D34" s="30"/>
@@ -13155,7 +13170,7 @@
       <c r="P34" s="36"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Same</v>
       </c>
       <c r="S34" s="21"/>
@@ -13164,8 +13179,8 @@
       <c r="B35" s="7">
         <v>1</v>
       </c>
-      <c r="C35" s="71" t="str">
-        <f t="shared" si="8"/>
+      <c r="C35" s="113" t="str">
+        <f>TEXT(SUM(B$7:B35),"Q#")</f>
         <v>Q13</v>
       </c>
       <c r="D35" s="7"/>
@@ -13193,14 +13208,14 @@
       <c r="P35" s="22"/>
       <c r="Q35" s="84"/>
       <c r="R35" s="83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Same</v>
       </c>
       <c r="S35" s="21"/>
     </row>
     <row r="36" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
+      <c r="C36" s="104"/>
       <c r="D36" s="44" t="s">
         <v>99</v>
       </c>
@@ -13222,7 +13237,7 @@
     </row>
     <row r="37" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="104"/>
       <c r="D37" s="53"/>
       <c r="E37" s="54" t="s">
         <v>100</v>
@@ -13246,7 +13261,7 @@
       <c r="B38" s="30">
         <v>1</v>
       </c>
-      <c r="C38" s="31" t="str">
+      <c r="C38" s="108" t="str">
         <f>TEXT(SUM(B$9:B38),"Q#")</f>
         <v>Q14</v>
       </c>
@@ -13279,7 +13294,7 @@
       <c r="P38" s="36"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="83" t="str">
-        <f t="shared" ref="R38:R50" si="9">IF(L38=O38,"Same","Diff")</f>
+        <f t="shared" ref="R38:R50" si="5">IF(L38=O38,"Same","Diff")</f>
         <v>Same</v>
       </c>
       <c r="S38" s="21"/>
@@ -13288,8 +13303,8 @@
       <c r="B39" s="30">
         <v>1</v>
       </c>
-      <c r="C39" s="60" t="str">
-        <f t="shared" ref="C39:C50" si="10">TEXT(SUM(B$7:B39),"Q#")</f>
+      <c r="C39" s="111" t="str">
+        <f>TEXT(SUM(B$7:B39),"Q#")</f>
         <v>Q15</v>
       </c>
       <c r="D39" s="30"/>
@@ -13323,7 +13338,7 @@
       </c>
       <c r="Q39" s="84"/>
       <c r="R39" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S39" s="21"/>
@@ -13332,8 +13347,8 @@
       <c r="B40" s="30">
         <v>1</v>
       </c>
-      <c r="C40" s="60" t="str">
-        <f t="shared" si="10"/>
+      <c r="C40" s="111" t="str">
+        <f>TEXT(SUM(B$7:B40),"Q#")</f>
         <v>Q16</v>
       </c>
       <c r="D40" s="30"/>
@@ -13367,7 +13382,7 @@
       </c>
       <c r="Q40" s="84"/>
       <c r="R40" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S40" s="21"/>
@@ -13376,8 +13391,8 @@
       <c r="B41" s="30">
         <v>1</v>
       </c>
-      <c r="C41" s="60" t="str">
-        <f t="shared" si="10"/>
+      <c r="C41" s="111" t="str">
+        <f>TEXT(SUM(B$7:B41),"Q#")</f>
         <v>Q17</v>
       </c>
       <c r="D41" s="30"/>
@@ -13411,7 +13426,7 @@
       </c>
       <c r="Q41" s="84"/>
       <c r="R41" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S41" s="21"/>
@@ -13420,8 +13435,8 @@
       <c r="B42" s="30">
         <v>1</v>
       </c>
-      <c r="C42" s="60" t="str">
-        <f t="shared" si="10"/>
+      <c r="C42" s="111" t="str">
+        <f>TEXT(SUM(B$7:B42),"Q#")</f>
         <v>Q18</v>
       </c>
       <c r="D42" s="30"/>
@@ -13455,7 +13470,7 @@
       </c>
       <c r="Q42" s="84"/>
       <c r="R42" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S42" s="21"/>
@@ -13464,8 +13479,8 @@
       <c r="B43" s="30">
         <v>1</v>
       </c>
-      <c r="C43" s="60" t="str">
-        <f t="shared" si="10"/>
+      <c r="C43" s="111" t="str">
+        <f>TEXT(SUM(B$7:B43),"Q#")</f>
         <v>Q19</v>
       </c>
       <c r="D43" s="30"/>
@@ -13501,7 +13516,7 @@
       </c>
       <c r="Q43" s="84"/>
       <c r="R43" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S43" s="21"/>
@@ -13510,8 +13525,8 @@
       <c r="B44" s="30">
         <v>1</v>
       </c>
-      <c r="C44" s="60" t="str">
-        <f t="shared" si="10"/>
+      <c r="C44" s="111" t="str">
+        <f>TEXT(SUM(B$7:B44),"Q#")</f>
         <v>Q20</v>
       </c>
       <c r="D44" s="30"/>
@@ -13543,7 +13558,7 @@
       <c r="P44" s="36"/>
       <c r="Q44" s="84"/>
       <c r="R44" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S44" s="21"/>
@@ -13552,8 +13567,8 @@
       <c r="B45" s="30">
         <v>1</v>
       </c>
-      <c r="C45" s="72" t="str">
-        <f t="shared" si="10"/>
+      <c r="C45" s="114" t="str">
+        <f>TEXT(SUM(B$7:B45),"Q#")</f>
         <v>Q21</v>
       </c>
       <c r="D45" s="30"/>
@@ -13583,7 +13598,7 @@
       <c r="P45" s="36"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S45" s="21"/>
@@ -13592,8 +13607,8 @@
       <c r="B46" s="37">
         <v>1</v>
       </c>
-      <c r="C46" s="72" t="str">
-        <f t="shared" si="10"/>
+      <c r="C46" s="114" t="str">
+        <f>TEXT(SUM(B$7:B46),"Q#")</f>
         <v>Q22</v>
       </c>
       <c r="D46" s="37"/>
@@ -13625,7 +13640,7 @@
       <c r="P46" s="43"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S46" s="21"/>
@@ -13634,8 +13649,8 @@
       <c r="B47" s="37">
         <v>1</v>
       </c>
-      <c r="C47" s="72" t="str">
-        <f t="shared" si="10"/>
+      <c r="C47" s="114" t="str">
+        <f>TEXT(SUM(B$7:B47),"Q#")</f>
         <v>Q23</v>
       </c>
       <c r="D47" s="37"/>
@@ -13669,7 +13684,7 @@
       <c r="P47" s="43"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S47" s="21"/>
@@ -13678,8 +13693,8 @@
       <c r="B48" s="37">
         <v>1</v>
       </c>
-      <c r="C48" s="72" t="str">
-        <f t="shared" si="10"/>
+      <c r="C48" s="114" t="str">
+        <f>TEXT(SUM(B$7:B48),"Q#")</f>
         <v>Q24</v>
       </c>
       <c r="D48" s="37"/>
@@ -13709,7 +13724,7 @@
       <c r="P48" s="43"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S48" s="21"/>
@@ -13718,8 +13733,8 @@
       <c r="B49" s="37">
         <v>1</v>
       </c>
-      <c r="C49" s="38" t="str">
-        <f t="shared" si="10"/>
+      <c r="C49" s="109" t="str">
+        <f>TEXT(SUM(B$7:B49),"Q#")</f>
         <v>Q25</v>
       </c>
       <c r="D49" s="37"/>
@@ -13751,7 +13766,7 @@
       <c r="P49" s="43"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S49" s="21" t="s">
@@ -13762,8 +13777,8 @@
       <c r="B50" s="7">
         <v>1</v>
       </c>
-      <c r="C50" s="51" t="str">
-        <f t="shared" si="10"/>
+      <c r="C50" s="110" t="str">
+        <f>TEXT(SUM(B$7:B50),"Q#")</f>
         <v>Q26</v>
       </c>
       <c r="F50" s="9" t="s">
@@ -13794,14 +13809,14 @@
       <c r="P50" s="22"/>
       <c r="Q50" s="84"/>
       <c r="R50" s="83" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Same</v>
       </c>
       <c r="S50" s="21"/>
     </row>
     <row r="51" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
+      <c r="C51" s="104"/>
       <c r="D51" s="44" t="s">
         <v>132</v>
       </c>
@@ -13823,7 +13838,7 @@
     </row>
     <row r="52" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
+      <c r="C52" s="104"/>
       <c r="D52" s="53"/>
       <c r="E52" s="54" t="s">
         <v>133</v>
@@ -13847,7 +13862,7 @@
       <c r="B53" s="30">
         <v>1</v>
       </c>
-      <c r="C53" s="51" t="str">
+      <c r="C53" s="115" t="str">
         <f>TEXT(SUM(B$7:B53),"Q#")</f>
         <v>Q27</v>
       </c>
@@ -13878,9 +13893,9 @@
     </row>
     <row r="54" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="30"/>
-      <c r="C54" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$53,".1")</f>
-        <v>#NAME?</v>
+      <c r="C54" s="116" t="str">
+        <f>_xlfn.CONCAT($C$53,".1")</f>
+        <v>Q27.1</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -13905,16 +13920,16 @@
       <c r="P54" s="22"/>
       <c r="Q54" s="84"/>
       <c r="R54" s="83" t="str">
-        <f t="shared" ref="R54:R61" si="11">IF(L54=O54,"Same","Diff")</f>
+        <f t="shared" ref="R54:R61" si="6">IF(L54=O54,"Same","Diff")</f>
         <v>Same</v>
       </c>
       <c r="S54" s="21"/>
     </row>
     <row r="55" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
-      <c r="C55" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$53,".2")</f>
-        <v>#NAME?</v>
+      <c r="C55" s="116" t="str">
+        <f>_xlfn.CONCAT($C$53,".2")</f>
+        <v>Q27.2</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -13939,16 +13954,16 @@
       <c r="P55" s="22"/>
       <c r="Q55" s="84"/>
       <c r="R55" s="83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>Same</v>
       </c>
       <c r="S55" s="21"/>
     </row>
     <row r="56" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
-      <c r="C56" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$53,".3")</f>
-        <v>#NAME?</v>
+      <c r="C56" s="115" t="str">
+        <f>_xlfn.CONCAT($C$53,".3")</f>
+        <v>Q27.3</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -13973,16 +13988,16 @@
       <c r="P56" s="22"/>
       <c r="Q56" s="84"/>
       <c r="R56" s="83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>Same</v>
       </c>
       <c r="S56" s="21"/>
     </row>
     <row r="57" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
-      <c r="C57" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$53,".4")</f>
-        <v>#NAME?</v>
+      <c r="C57" s="115" t="str">
+        <f>_xlfn.CONCAT($C$53,".4")</f>
+        <v>Q27.4</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -14007,16 +14022,16 @@
       <c r="P57" s="22"/>
       <c r="Q57" s="84"/>
       <c r="R57" s="83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>Same</v>
       </c>
       <c r="S57" s="21"/>
     </row>
     <row r="58" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
-      <c r="C58" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$53,".5")</f>
-        <v>#NAME?</v>
+      <c r="C58" s="115" t="str">
+        <f>_xlfn.CONCAT($C$53,".5")</f>
+        <v>Q27.5</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -14041,16 +14056,16 @@
       <c r="P58" s="22"/>
       <c r="Q58" s="84"/>
       <c r="R58" s="83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>Same</v>
       </c>
       <c r="S58" s="21"/>
     </row>
     <row r="59" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
-      <c r="C59" s="60" t="e">
-        <f ca="1">_xludf.CONCAT($C$53,".6")</f>
-        <v>#NAME?</v>
+      <c r="C59" s="111" t="str">
+        <f>_xlfn.CONCAT($C$53,".6")</f>
+        <v>Q27.6</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
@@ -14075,7 +14090,7 @@
       <c r="P59" s="36"/>
       <c r="Q59" s="84"/>
       <c r="R59" s="83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>Same</v>
       </c>
       <c r="S59" s="21"/>
@@ -14084,8 +14099,8 @@
       <c r="B60" s="30">
         <v>1</v>
       </c>
-      <c r="C60" s="60" t="str">
-        <f t="shared" ref="C60:C61" si="12">TEXT(SUM(B$7:B60),"Q#")</f>
+      <c r="C60" s="111" t="str">
+        <f>TEXT(SUM(B$7:B60),"Q#")</f>
         <v>Q28</v>
       </c>
       <c r="D60" s="30"/>
@@ -14117,7 +14132,7 @@
       <c r="P60" s="36"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>Same</v>
       </c>
       <c r="S60" s="21"/>
@@ -14126,8 +14141,8 @@
       <c r="B61" s="7">
         <v>1</v>
       </c>
-      <c r="C61" s="51" t="str">
-        <f t="shared" si="12"/>
+      <c r="C61" s="110" t="str">
+        <f>TEXT(SUM(B$7:B61),"Q#")</f>
         <v>Q29</v>
       </c>
       <c r="F61" s="9" t="s">
@@ -14156,14 +14171,14 @@
       <c r="P61" s="22"/>
       <c r="Q61" s="84"/>
       <c r="R61" s="83" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>Same</v>
       </c>
       <c r="S61" s="21"/>
     </row>
     <row r="62" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
+      <c r="C62" s="104"/>
       <c r="D62" s="53"/>
       <c r="E62" s="54" t="s">
         <v>141</v>
@@ -14187,8 +14202,8 @@
       <c r="B63" s="30">
         <v>1</v>
       </c>
-      <c r="C63" s="60" t="str">
-        <f t="shared" ref="C63:C65" si="13">TEXT(SUM(B$7:B63),"Q#")</f>
+      <c r="C63" s="111" t="str">
+        <f>TEXT(SUM(B$7:B63),"Q#")</f>
         <v>Q30</v>
       </c>
       <c r="D63" s="30"/>
@@ -14222,7 +14237,7 @@
       </c>
       <c r="Q63" s="7"/>
       <c r="R63" s="83" t="str">
-        <f t="shared" ref="R63:R65" si="14">IF(L63=O63,"Same","Diff")</f>
+        <f t="shared" ref="R63:R65" si="7">IF(L63=O63,"Same","Diff")</f>
         <v>Same</v>
       </c>
       <c r="S63" s="21"/>
@@ -14231,8 +14246,8 @@
       <c r="B64" s="30">
         <v>1</v>
       </c>
-      <c r="C64" s="31" t="str">
-        <f t="shared" si="13"/>
+      <c r="C64" s="108" t="str">
+        <f>TEXT(SUM(B$7:B64),"Q#")</f>
         <v>Q31</v>
       </c>
       <c r="D64" s="30"/>
@@ -14264,7 +14279,7 @@
       <c r="P64" s="36"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="83" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>Same</v>
       </c>
       <c r="S64" s="21"/>
@@ -14273,8 +14288,8 @@
       <c r="B65" s="30">
         <v>1</v>
       </c>
-      <c r="C65" s="31" t="str">
-        <f t="shared" si="13"/>
+      <c r="C65" s="108" t="str">
+        <f>TEXT(SUM(B$7:B65),"Q#")</f>
         <v>Q32</v>
       </c>
       <c r="D65" s="30"/>
@@ -14304,14 +14319,14 @@
       <c r="P65" s="36"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="83" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>Same</v>
       </c>
       <c r="S65" s="21"/>
     </row>
     <row r="66" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="23"/>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="107" t="s">
         <v>149</v>
       </c>
       <c r="D66" s="23"/>
@@ -14335,7 +14350,7 @@
       <c r="B67" s="7">
         <v>1</v>
       </c>
-      <c r="C67" s="8" t="str">
+      <c r="C67" s="104" t="str">
         <f>TEXT(SUM(B$9:B67),"Q#")</f>
         <v>Q33</v>
       </c>
@@ -14366,9 +14381,9 @@
       <c r="Q67" s="7"/>
     </row>
     <row r="68" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$67,".1")</f>
-        <v>#NAME?</v>
+      <c r="C68" s="104" t="str">
+        <f>_xlfn.CONCAT($C$67,".1")</f>
+        <v>Q33.1</v>
       </c>
       <c r="F68" s="69" t="s">
         <v>153</v>
@@ -14393,15 +14408,15 @@
       <c r="P68" s="22"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="83" t="str">
-        <f t="shared" ref="R68:R75" si="15">IF(L68=O68,"Same","Diff")</f>
+        <f t="shared" ref="R68:R75" si="8">IF(L68=O68,"Same","Diff")</f>
         <v>Diff</v>
       </c>
       <c r="S68" s="21"/>
     </row>
     <row r="69" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$67,".2")</f>
-        <v>#NAME?</v>
+      <c r="C69" s="104" t="str">
+        <f>_xlfn.CONCAT($C$67,".2")</f>
+        <v>Q33.2</v>
       </c>
       <c r="F69" s="69" t="s">
         <v>155</v>
@@ -14426,15 +14441,15 @@
       <c r="P69" s="22"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Same</v>
       </c>
       <c r="S69" s="21"/>
     </row>
     <row r="70" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$67,".3")</f>
-        <v>#NAME?</v>
+      <c r="C70" s="104" t="str">
+        <f>_xlfn.CONCAT($C$67,".3")</f>
+        <v>Q33.3</v>
       </c>
       <c r="F70" s="69" t="s">
         <v>156</v>
@@ -14459,15 +14474,15 @@
       <c r="P70" s="22"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Same</v>
       </c>
       <c r="S70" s="21"/>
     </row>
     <row r="71" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$67,".4")</f>
-        <v>#NAME?</v>
+      <c r="C71" s="110" t="str">
+        <f>_xlfn.CONCAT($C$67,".4")</f>
+        <v>Q33.4</v>
       </c>
       <c r="F71" s="69" t="s">
         <v>158</v>
@@ -14492,15 +14507,15 @@
       <c r="P71" s="22"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Diff</v>
       </c>
       <c r="S71" s="21"/>
     </row>
     <row r="72" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$67,".5")</f>
-        <v>#NAME?</v>
+      <c r="C72" s="104" t="str">
+        <f>_xlfn.CONCAT($C$67,".5")</f>
+        <v>Q33.5</v>
       </c>
       <c r="F72" s="69" t="s">
         <v>159</v>
@@ -14525,15 +14540,15 @@
       <c r="P72" s="22"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Same</v>
       </c>
       <c r="S72" s="21"/>
     </row>
     <row r="73" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$67,".6")</f>
-        <v>#NAME?</v>
+      <c r="C73" s="104" t="str">
+        <f>_xlfn.CONCAT($C$67,".6")</f>
+        <v>Q33.6</v>
       </c>
       <c r="F73" s="69" t="s">
         <v>161</v>
@@ -14558,15 +14573,15 @@
       <c r="P73" s="22"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Same</v>
       </c>
       <c r="S73" s="21"/>
     </row>
     <row r="74" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$67,".7")</f>
-        <v>#NAME?</v>
+      <c r="C74" s="104" t="str">
+        <f>_xlfn.CONCAT($C$67,".7")</f>
+        <v>Q33.7</v>
       </c>
       <c r="F74" s="69" t="s">
         <v>163</v>
@@ -14593,16 +14608,16 @@
       <c r="P74" s="22"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Same</v>
       </c>
       <c r="S74" s="21"/>
     </row>
     <row r="75" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="30"/>
-      <c r="C75" s="31" t="e">
-        <f ca="1">_xludf.CONCAT($C$67,".8")</f>
-        <v>#NAME?</v>
+      <c r="C75" s="108" t="str">
+        <f>_xlfn.CONCAT($C$67,".8")</f>
+        <v>Q33.8</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30"/>
@@ -14631,7 +14646,7 @@
       <c r="P75" s="36"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="83" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Same</v>
       </c>
       <c r="S75" s="21" t="s">
@@ -14642,7 +14657,7 @@
       <c r="B76" s="7">
         <v>1</v>
       </c>
-      <c r="C76" s="8" t="str">
+      <c r="C76" s="104" t="str">
         <f>TEXT(SUM(B$9:B76),"Q#")</f>
         <v>Q34</v>
       </c>
@@ -14669,9 +14684,9 @@
       <c r="Q76" s="7"/>
     </row>
     <row r="77" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$76,".1")</f>
-        <v>#NAME?</v>
+      <c r="C77" s="104" t="str">
+        <f>_xlfn.CONCAT($C$76,".1")</f>
+        <v>Q34.1</v>
       </c>
       <c r="F77" s="69" t="s">
         <v>171</v>
@@ -14696,15 +14711,15 @@
       <c r="P77" s="22"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="83" t="str">
-        <f t="shared" ref="R77:R81" si="16">IF(L77=O77,"Same","Diff")</f>
+        <f t="shared" ref="R77:R81" si="9">IF(L77=O77,"Same","Diff")</f>
         <v>Same</v>
       </c>
       <c r="S77" s="21"/>
     </row>
     <row r="78" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$76,".2")</f>
-        <v>#NAME?</v>
+      <c r="C78" s="104" t="str">
+        <f>_xlfn.CONCAT($C$76,".2")</f>
+        <v>Q34.2</v>
       </c>
       <c r="F78" s="69" t="s">
         <v>173</v>
@@ -14727,15 +14742,15 @@
       <c r="P78" s="22"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>Same</v>
       </c>
       <c r="S78" s="21"/>
     </row>
     <row r="79" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$76,".3")</f>
-        <v>#NAME?</v>
+      <c r="C79" s="104" t="str">
+        <f>_xlfn.CONCAT($C$76,".3")</f>
+        <v>Q34.3</v>
       </c>
       <c r="F79" s="69" t="s">
         <v>174</v>
@@ -14758,16 +14773,16 @@
       <c r="P79" s="22"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>Same</v>
       </c>
       <c r="S79" s="21"/>
     </row>
     <row r="80" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="30"/>
-      <c r="C80" s="31" t="e">
-        <f ca="1">_xludf.CONCAT($C$76,".4")</f>
-        <v>#NAME?</v>
+      <c r="C80" s="108" t="str">
+        <f>_xlfn.CONCAT($C$76,".4")</f>
+        <v>Q34.4</v>
       </c>
       <c r="D80" s="30"/>
       <c r="E80" s="30"/>
@@ -14794,7 +14809,7 @@
       <c r="P80" s="36"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>Same</v>
       </c>
       <c r="S80" s="21" t="s">
@@ -14805,8 +14820,8 @@
       <c r="B81" s="30">
         <v>1</v>
       </c>
-      <c r="C81" s="31" t="str">
-        <f t="shared" ref="C81:C82" si="17">TEXT(SUM(B$7:B81),"Q#")</f>
+      <c r="C81" s="108" t="str">
+        <f>TEXT(SUM(B$7:B81),"Q#")</f>
         <v>Q35</v>
       </c>
       <c r="D81" s="30"/>
@@ -14838,7 +14853,7 @@
       <c r="P81" s="36"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>Same</v>
       </c>
       <c r="S81" s="21" t="s">
@@ -14849,8 +14864,8 @@
       <c r="B82" s="30">
         <v>1</v>
       </c>
-      <c r="C82" s="63" t="str">
-        <f t="shared" si="17"/>
+      <c r="C82" s="112" t="str">
+        <f>TEXT(SUM(B$7:B82),"Q#")</f>
         <v>Q36</v>
       </c>
       <c r="D82" s="62"/>
@@ -14877,9 +14892,9 @@
       <c r="Q82" s="7"/>
     </row>
     <row r="83" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$82,".1")</f>
-        <v>#NAME?</v>
+      <c r="C83" s="104" t="str">
+        <f>_xlfn.CONCAT($C$82,".1")</f>
+        <v>Q36.1</v>
       </c>
       <c r="F83" s="69" t="s">
         <v>179</v>
@@ -14904,15 +14919,15 @@
       <c r="P83" s="22"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="83" t="str">
-        <f t="shared" ref="R83:R91" si="18">IF(L83=O83,"Same","Diff")</f>
+        <f t="shared" ref="R83:R91" si="10">IF(L83=O83,"Same","Diff")</f>
         <v>Same</v>
       </c>
       <c r="S83" s="21"/>
     </row>
     <row r="84" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$82,".2")</f>
-        <v>#NAME?</v>
+      <c r="C84" s="104" t="str">
+        <f>_xlfn.CONCAT($C$82,".2")</f>
+        <v>Q36.2</v>
       </c>
       <c r="F84" s="69" t="s">
         <v>181</v>
@@ -14937,15 +14952,15 @@
       <c r="P84" s="22"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>Same</v>
       </c>
       <c r="S84" s="21"/>
     </row>
     <row r="85" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$82,".3")</f>
-        <v>#NAME?</v>
+      <c r="C85" s="104" t="str">
+        <f>_xlfn.CONCAT($C$82,".3")</f>
+        <v>Q36.3</v>
       </c>
       <c r="F85" s="69" t="s">
         <v>183</v>
@@ -14970,15 +14985,15 @@
       <c r="P85" s="22"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>Same</v>
       </c>
       <c r="S85" s="21"/>
     </row>
     <row r="86" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="51" t="e">
-        <f ca="1">_xludf.CONCAT($C$82,".4")</f>
-        <v>#NAME?</v>
+      <c r="C86" s="110" t="str">
+        <f>_xlfn.CONCAT($C$82,".4")</f>
+        <v>Q36.4</v>
       </c>
       <c r="F86" s="69" t="s">
         <v>185</v>
@@ -15013,15 +15028,15 @@
         <v>50</v>
       </c>
       <c r="R86" s="83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>Same</v>
       </c>
       <c r="S86" s="21"/>
     </row>
     <row r="87" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="8" t="e">
-        <f ca="1">_xludf.CONCAT($C$82,".5")</f>
-        <v>#NAME?</v>
+      <c r="C87" s="104" t="str">
+        <f>_xlfn.CONCAT($C$82,".5")</f>
+        <v>Q36.5</v>
       </c>
       <c r="F87" s="69" t="s">
         <v>187</v>
@@ -15056,16 +15071,16 @@
         <v>50</v>
       </c>
       <c r="R87" s="83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>Same</v>
       </c>
       <c r="S87" s="21"/>
     </row>
     <row r="88" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="30"/>
-      <c r="C88" s="31" t="e">
-        <f ca="1">_xludf.CONCAT($C$82,".6")</f>
-        <v>#NAME?</v>
+      <c r="C88" s="108" t="str">
+        <f>_xlfn.CONCAT($C$82,".6")</f>
+        <v>Q36.6</v>
       </c>
       <c r="D88" s="30"/>
       <c r="E88" s="30"/>
@@ -15094,7 +15109,7 @@
       <c r="P88" s="36"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>Same</v>
       </c>
       <c r="S88" s="21" t="s">
@@ -15105,8 +15120,8 @@
       <c r="B89" s="30">
         <v>1</v>
       </c>
-      <c r="C89" s="31" t="str">
-        <f t="shared" ref="C89:C91" si="19">TEXT(SUM(B$7:B89),"Q#")</f>
+      <c r="C89" s="108" t="str">
+        <f>TEXT(SUM(B$7:B89),"Q#")</f>
         <v>Q37</v>
       </c>
       <c r="D89" s="30"/>
@@ -15138,7 +15153,7 @@
       <c r="P89" s="36"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>Same</v>
       </c>
       <c r="S89" s="21" t="s">
@@ -15149,8 +15164,8 @@
       <c r="B90" s="30">
         <v>1</v>
       </c>
-      <c r="C90" s="31" t="str">
-        <f t="shared" si="19"/>
+      <c r="C90" s="108" t="str">
+        <f>TEXT(SUM(B$7:B90),"Q#")</f>
         <v>Q38</v>
       </c>
       <c r="D90" s="30"/>
@@ -15186,7 +15201,7 @@
       </c>
       <c r="Q90" s="7"/>
       <c r="R90" s="83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>Same</v>
       </c>
       <c r="S90" s="21"/>
@@ -15195,8 +15210,8 @@
       <c r="B91" s="30">
         <v>1</v>
       </c>
-      <c r="C91" s="31" t="str">
-        <f t="shared" si="19"/>
+      <c r="C91" s="108" t="str">
+        <f>TEXT(SUM(B$7:B91),"Q#")</f>
         <v>Q39</v>
       </c>
       <c r="D91" s="30"/>
@@ -15230,7 +15245,7 @@
       <c r="P91" s="36"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="10"/>
         <v>Diff</v>
       </c>
       <c r="S91" s="21" t="s">
@@ -15239,7 +15254,7 @@
     </row>
     <row r="92" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="23"/>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="107" t="s">
         <v>200</v>
       </c>
       <c r="D92" s="23"/>
@@ -15263,8 +15278,8 @@
       <c r="B93" s="7">
         <v>1</v>
       </c>
-      <c r="C93" s="31" t="str">
-        <f t="shared" ref="C93:C97" si="20">TEXT(SUM(B$7:B93),"Q#")</f>
+      <c r="C93" s="108" t="str">
+        <f>TEXT(SUM(B$7:B93),"Q#")</f>
         <v>Q40</v>
       </c>
       <c r="D93" s="30"/>
@@ -15294,7 +15309,7 @@
       <c r="P93" s="81"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="83" t="str">
-        <f t="shared" ref="R93:R97" si="21">IF(L93=O93,"Same","Diff")</f>
+        <f t="shared" ref="R93:R97" si="11">IF(L93=O93,"Same","Diff")</f>
         <v>Same</v>
       </c>
       <c r="S93" s="21"/>
@@ -15303,8 +15318,8 @@
       <c r="B94" s="7">
         <v>1</v>
       </c>
-      <c r="C94" s="31" t="str">
-        <f t="shared" si="20"/>
+      <c r="C94" s="108" t="str">
+        <f>TEXT(SUM(B$7:B94),"Q#")</f>
         <v>Q41</v>
       </c>
       <c r="D94" s="30"/>
@@ -15334,7 +15349,7 @@
       <c r="P94" s="81"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>Same</v>
       </c>
       <c r="S94" s="21"/>
@@ -15343,8 +15358,8 @@
       <c r="B95" s="7">
         <v>1</v>
       </c>
-      <c r="C95" s="31" t="str">
-        <f t="shared" si="20"/>
+      <c r="C95" s="108" t="str">
+        <f>TEXT(SUM(B$7:B95),"Q#")</f>
         <v>Q42</v>
       </c>
       <c r="D95" s="30"/>
@@ -15374,7 +15389,7 @@
       <c r="P95" s="81"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>Same</v>
       </c>
       <c r="S95" s="21"/>
@@ -15383,8 +15398,8 @@
       <c r="B96" s="7">
         <v>1</v>
       </c>
-      <c r="C96" s="31" t="str">
-        <f t="shared" si="20"/>
+      <c r="C96" s="108" t="str">
+        <f>TEXT(SUM(B$7:B96),"Q#")</f>
         <v>Q43</v>
       </c>
       <c r="D96" s="30"/>
@@ -15414,7 +15429,7 @@
       <c r="P96" s="81"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>Same</v>
       </c>
       <c r="S96" s="21"/>
@@ -15423,8 +15438,8 @@
       <c r="B97" s="7">
         <v>1</v>
       </c>
-      <c r="C97" s="31" t="str">
-        <f t="shared" si="20"/>
+      <c r="C97" s="108" t="str">
+        <f>TEXT(SUM(B$7:B97),"Q#")</f>
         <v>Q44</v>
       </c>
       <c r="D97" s="30"/>
@@ -15454,13 +15469,13 @@
       <c r="P97" s="81"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="83" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>Diff</v>
       </c>
       <c r="S97" s="21"/>
     </row>
     <row r="98" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="8"/>
+      <c r="C98" s="104"/>
       <c r="F98" s="9"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
@@ -15468,7 +15483,7 @@
       <c r="Q98" s="7"/>
     </row>
     <row r="99" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="8"/>
+      <c r="C99" s="104"/>
       <c r="F99" s="9"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
@@ -15476,7 +15491,7 @@
       <c r="Q99" s="7"/>
     </row>
     <row r="100" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="8"/>
+      <c r="C100" s="104"/>
       <c r="F100" s="9"/>
       <c r="N100" s="7"/>
       <c r="O100" s="7"/>
@@ -15484,7 +15499,7 @@
       <c r="Q100" s="7"/>
     </row>
     <row r="101" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="8"/>
+      <c r="C101" s="104"/>
       <c r="F101" s="9"/>
       <c r="N101" s="7"/>
       <c r="O101" s="7"/>
@@ -15492,7 +15507,7 @@
       <c r="Q101" s="7"/>
     </row>
     <row r="102" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="8"/>
+      <c r="C102" s="104"/>
       <c r="F102" s="9"/>
       <c r="N102" s="7"/>
       <c r="O102" s="7"/>
@@ -15500,7 +15515,7 @@
       <c r="Q102" s="7"/>
     </row>
     <row r="103" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="8"/>
+      <c r="C103" s="104"/>
       <c r="F103" s="9"/>
       <c r="N103" s="7"/>
       <c r="O103" s="7"/>
@@ -15508,7 +15523,7 @@
       <c r="Q103" s="7"/>
     </row>
     <row r="104" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="8"/>
+      <c r="C104" s="104"/>
       <c r="F104" s="9"/>
       <c r="N104" s="7"/>
       <c r="O104" s="7"/>
@@ -15516,7 +15531,7 @@
       <c r="Q104" s="7"/>
     </row>
     <row r="105" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="8"/>
+      <c r="C105" s="104"/>
       <c r="F105" s="9"/>
       <c r="N105" s="7"/>
       <c r="O105" s="7"/>
@@ -15524,7 +15539,7 @@
       <c r="Q105" s="7"/>
     </row>
     <row r="106" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="8"/>
+      <c r="C106" s="104"/>
       <c r="F106" s="9"/>
       <c r="N106" s="7"/>
       <c r="O106" s="7"/>
@@ -15532,7 +15547,7 @@
       <c r="Q106" s="7"/>
     </row>
     <row r="107" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="8"/>
+      <c r="C107" s="104"/>
       <c r="F107" s="9"/>
       <c r="N107" s="7"/>
       <c r="O107" s="7"/>
@@ -15540,7 +15555,7 @@
       <c r="Q107" s="7"/>
     </row>
     <row r="108" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="8"/>
+      <c r="C108" s="104"/>
       <c r="F108" s="9"/>
       <c r="N108" s="7"/>
       <c r="O108" s="7"/>
@@ -15548,7 +15563,7 @@
       <c r="Q108" s="7"/>
     </row>
     <row r="109" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="8"/>
+      <c r="C109" s="104"/>
       <c r="F109" s="9"/>
       <c r="N109" s="7"/>
       <c r="O109" s="7"/>
@@ -15556,7 +15571,7 @@
       <c r="Q109" s="7"/>
     </row>
     <row r="110" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="8"/>
+      <c r="C110" s="104"/>
       <c r="F110" s="9"/>
       <c r="N110" s="7"/>
       <c r="O110" s="7"/>
@@ -15564,7 +15579,7 @@
       <c r="Q110" s="7"/>
     </row>
     <row r="111" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="8"/>
+      <c r="C111" s="104"/>
       <c r="F111" s="9"/>
       <c r="N111" s="7"/>
       <c r="O111" s="7"/>
@@ -15572,7 +15587,7 @@
       <c r="Q111" s="7"/>
     </row>
     <row r="112" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="8"/>
+      <c r="C112" s="104"/>
       <c r="F112" s="9"/>
       <c r="N112" s="7"/>
       <c r="O112" s="7"/>
@@ -15580,7 +15595,7 @@
       <c r="Q112" s="7"/>
     </row>
     <row r="113" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="8"/>
+      <c r="C113" s="104"/>
       <c r="F113" s="9"/>
       <c r="N113" s="7"/>
       <c r="O113" s="7"/>
@@ -15588,7 +15603,7 @@
       <c r="Q113" s="7"/>
     </row>
     <row r="114" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="8"/>
+      <c r="C114" s="104"/>
       <c r="F114" s="9"/>
       <c r="N114" s="7"/>
       <c r="O114" s="7"/>
@@ -15596,7 +15611,7 @@
       <c r="Q114" s="7"/>
     </row>
     <row r="115" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="8"/>
+      <c r="C115" s="104"/>
       <c r="F115" s="9"/>
       <c r="N115" s="7"/>
       <c r="O115" s="7"/>
@@ -15604,7 +15619,7 @@
       <c r="Q115" s="7"/>
     </row>
     <row r="116" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="8"/>
+      <c r="C116" s="104"/>
       <c r="F116" s="9"/>
       <c r="N116" s="7"/>
       <c r="O116" s="7"/>
@@ -15612,7 +15627,7 @@
       <c r="Q116" s="7"/>
     </row>
     <row r="117" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="8"/>
+      <c r="C117" s="104"/>
       <c r="F117" s="9"/>
       <c r="N117" s="7"/>
       <c r="O117" s="7"/>
@@ -15620,7 +15635,7 @@
       <c r="Q117" s="7"/>
     </row>
     <row r="118" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="8"/>
+      <c r="C118" s="104"/>
       <c r="F118" s="9"/>
       <c r="N118" s="7"/>
       <c r="O118" s="7"/>
@@ -15628,7 +15643,7 @@
       <c r="Q118" s="7"/>
     </row>
     <row r="119" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="8"/>
+      <c r="C119" s="104"/>
       <c r="F119" s="9"/>
       <c r="N119" s="7"/>
       <c r="O119" s="7"/>
@@ -15636,7 +15651,7 @@
       <c r="Q119" s="7"/>
     </row>
     <row r="120" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="8"/>
+      <c r="C120" s="104"/>
       <c r="F120" s="9"/>
       <c r="N120" s="7"/>
       <c r="O120" s="7"/>
@@ -15644,7 +15659,7 @@
       <c r="Q120" s="7"/>
     </row>
     <row r="121" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="8"/>
+      <c r="C121" s="104"/>
       <c r="F121" s="9"/>
       <c r="N121" s="7"/>
       <c r="O121" s="7"/>
@@ -15652,7 +15667,7 @@
       <c r="Q121" s="7"/>
     </row>
     <row r="122" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="8"/>
+      <c r="C122" s="104"/>
       <c r="F122" s="9"/>
       <c r="N122" s="7"/>
       <c r="O122" s="7"/>
@@ -15660,7 +15675,7 @@
       <c r="Q122" s="7"/>
     </row>
     <row r="123" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="8"/>
+      <c r="C123" s="104"/>
       <c r="F123" s="9"/>
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
@@ -15668,7 +15683,7 @@
       <c r="Q123" s="7"/>
     </row>
     <row r="124" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="8"/>
+      <c r="C124" s="104"/>
       <c r="F124" s="9"/>
       <c r="N124" s="7"/>
       <c r="O124" s="7"/>
@@ -15676,7 +15691,7 @@
       <c r="Q124" s="7"/>
     </row>
     <row r="125" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="8"/>
+      <c r="C125" s="104"/>
       <c r="F125" s="9"/>
       <c r="N125" s="7"/>
       <c r="O125" s="7"/>
@@ -15684,7 +15699,7 @@
       <c r="Q125" s="7"/>
     </row>
     <row r="126" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="8"/>
+      <c r="C126" s="104"/>
       <c r="F126" s="9"/>
       <c r="N126" s="7"/>
       <c r="O126" s="7"/>
@@ -15692,7 +15707,7 @@
       <c r="Q126" s="7"/>
     </row>
     <row r="127" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="8"/>
+      <c r="C127" s="104"/>
       <c r="F127" s="9"/>
       <c r="N127" s="7"/>
       <c r="O127" s="7"/>
@@ -15700,7 +15715,7 @@
       <c r="Q127" s="7"/>
     </row>
     <row r="128" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="8"/>
+      <c r="C128" s="104"/>
       <c r="F128" s="9"/>
       <c r="N128" s="7"/>
       <c r="O128" s="7"/>
@@ -15708,7 +15723,7 @@
       <c r="Q128" s="7"/>
     </row>
     <row r="129" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="8"/>
+      <c r="C129" s="104"/>
       <c r="F129" s="9"/>
       <c r="N129" s="7"/>
       <c r="O129" s="7"/>
@@ -15716,7 +15731,7 @@
       <c r="Q129" s="7"/>
     </row>
     <row r="130" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="8"/>
+      <c r="C130" s="104"/>
       <c r="F130" s="9"/>
       <c r="N130" s="7"/>
       <c r="O130" s="7"/>
@@ -15724,7 +15739,7 @@
       <c r="Q130" s="7"/>
     </row>
     <row r="131" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="8"/>
+      <c r="C131" s="104"/>
       <c r="F131" s="9"/>
       <c r="N131" s="7"/>
       <c r="O131" s="7"/>
@@ -15732,7 +15747,7 @@
       <c r="Q131" s="7"/>
     </row>
     <row r="132" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="8"/>
+      <c r="C132" s="104"/>
       <c r="F132" s="9"/>
       <c r="N132" s="7"/>
       <c r="O132" s="7"/>
@@ -15740,7 +15755,7 @@
       <c r="Q132" s="7"/>
     </row>
     <row r="133" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="8"/>
+      <c r="C133" s="104"/>
       <c r="F133" s="9"/>
       <c r="N133" s="7"/>
       <c r="O133" s="7"/>
@@ -15748,7 +15763,7 @@
       <c r="Q133" s="7"/>
     </row>
     <row r="134" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="8"/>
+      <c r="C134" s="104"/>
       <c r="F134" s="9"/>
       <c r="N134" s="7"/>
       <c r="O134" s="7"/>
@@ -15756,7 +15771,7 @@
       <c r="Q134" s="7"/>
     </row>
     <row r="135" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="8"/>
+      <c r="C135" s="104"/>
       <c r="F135" s="9"/>
       <c r="N135" s="7"/>
       <c r="O135" s="7"/>
@@ -15764,7 +15779,7 @@
       <c r="Q135" s="7"/>
     </row>
     <row r="136" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="8"/>
+      <c r="C136" s="104"/>
       <c r="F136" s="9"/>
       <c r="N136" s="7"/>
       <c r="O136" s="7"/>
@@ -15772,7 +15787,7 @@
       <c r="Q136" s="7"/>
     </row>
     <row r="137" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C137" s="8"/>
+      <c r="C137" s="104"/>
       <c r="F137" s="9"/>
       <c r="N137" s="7"/>
       <c r="O137" s="7"/>
@@ -15780,7 +15795,7 @@
       <c r="Q137" s="7"/>
     </row>
     <row r="138" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="8"/>
+      <c r="C138" s="104"/>
       <c r="F138" s="9"/>
       <c r="N138" s="7"/>
       <c r="O138" s="7"/>
@@ -15788,7 +15803,7 @@
       <c r="Q138" s="7"/>
     </row>
     <row r="139" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="8"/>
+      <c r="C139" s="104"/>
       <c r="F139" s="9"/>
       <c r="N139" s="7"/>
       <c r="O139" s="7"/>
@@ -15796,7 +15811,7 @@
       <c r="Q139" s="7"/>
     </row>
     <row r="140" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="8"/>
+      <c r="C140" s="104"/>
       <c r="F140" s="9"/>
       <c r="N140" s="7"/>
       <c r="O140" s="7"/>
@@ -15804,7 +15819,7 @@
       <c r="Q140" s="7"/>
     </row>
     <row r="141" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="8"/>
+      <c r="C141" s="104"/>
       <c r="F141" s="9"/>
       <c r="N141" s="7"/>
       <c r="O141" s="7"/>
@@ -15812,7 +15827,7 @@
       <c r="Q141" s="7"/>
     </row>
     <row r="142" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="8"/>
+      <c r="C142" s="104"/>
       <c r="F142" s="9"/>
       <c r="N142" s="7"/>
       <c r="O142" s="7"/>
@@ -15820,7 +15835,7 @@
       <c r="Q142" s="7"/>
     </row>
     <row r="143" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="8"/>
+      <c r="C143" s="104"/>
       <c r="F143" s="9"/>
       <c r="N143" s="7"/>
       <c r="O143" s="7"/>
@@ -15828,7 +15843,7 @@
       <c r="Q143" s="7"/>
     </row>
     <row r="144" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="8"/>
+      <c r="C144" s="104"/>
       <c r="F144" s="9"/>
       <c r="N144" s="7"/>
       <c r="O144" s="7"/>
@@ -15836,7 +15851,7 @@
       <c r="Q144" s="7"/>
     </row>
     <row r="145" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="8"/>
+      <c r="C145" s="104"/>
       <c r="F145" s="9"/>
       <c r="N145" s="7"/>
       <c r="O145" s="7"/>
@@ -15844,7 +15859,7 @@
       <c r="Q145" s="7"/>
     </row>
     <row r="146" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="8"/>
+      <c r="C146" s="104"/>
       <c r="F146" s="9"/>
       <c r="N146" s="7"/>
       <c r="O146" s="7"/>
@@ -15852,7 +15867,7 @@
       <c r="Q146" s="7"/>
     </row>
     <row r="147" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="8"/>
+      <c r="C147" s="104"/>
       <c r="F147" s="9"/>
       <c r="N147" s="7"/>
       <c r="O147" s="7"/>
@@ -15860,7 +15875,7 @@
       <c r="Q147" s="7"/>
     </row>
     <row r="148" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C148" s="8"/>
+      <c r="C148" s="104"/>
       <c r="F148" s="9"/>
       <c r="N148" s="7"/>
       <c r="O148" s="7"/>
@@ -15868,7 +15883,7 @@
       <c r="Q148" s="7"/>
     </row>
     <row r="149" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="8"/>
+      <c r="C149" s="104"/>
       <c r="F149" s="9"/>
       <c r="N149" s="7"/>
       <c r="O149" s="7"/>
@@ -15876,7 +15891,7 @@
       <c r="Q149" s="7"/>
     </row>
     <row r="150" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="8"/>
+      <c r="C150" s="104"/>
       <c r="F150" s="9"/>
       <c r="N150" s="7"/>
       <c r="O150" s="7"/>
@@ -15884,7 +15899,7 @@
       <c r="Q150" s="7"/>
     </row>
     <row r="151" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C151" s="8"/>
+      <c r="C151" s="104"/>
       <c r="F151" s="9"/>
       <c r="N151" s="7"/>
       <c r="O151" s="7"/>
@@ -15892,7 +15907,7 @@
       <c r="Q151" s="7"/>
     </row>
     <row r="152" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C152" s="8"/>
+      <c r="C152" s="104"/>
       <c r="F152" s="9"/>
       <c r="N152" s="7"/>
       <c r="O152" s="7"/>
@@ -15900,7 +15915,7 @@
       <c r="Q152" s="7"/>
     </row>
     <row r="153" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="8"/>
+      <c r="C153" s="104"/>
       <c r="F153" s="9"/>
       <c r="N153" s="7"/>
       <c r="O153" s="7"/>
@@ -15908,7 +15923,7 @@
       <c r="Q153" s="7"/>
     </row>
     <row r="154" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C154" s="8"/>
+      <c r="C154" s="104"/>
       <c r="F154" s="9"/>
       <c r="N154" s="7"/>
       <c r="O154" s="7"/>
@@ -15916,7 +15931,7 @@
       <c r="Q154" s="7"/>
     </row>
     <row r="155" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C155" s="8"/>
+      <c r="C155" s="104"/>
       <c r="F155" s="9"/>
       <c r="N155" s="7"/>
       <c r="O155" s="7"/>
@@ -15924,7 +15939,7 @@
       <c r="Q155" s="7"/>
     </row>
     <row r="156" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C156" s="8"/>
+      <c r="C156" s="104"/>
       <c r="F156" s="9"/>
       <c r="N156" s="7"/>
       <c r="O156" s="7"/>
@@ -15932,7 +15947,7 @@
       <c r="Q156" s="7"/>
     </row>
     <row r="157" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C157" s="8"/>
+      <c r="C157" s="104"/>
       <c r="F157" s="9"/>
       <c r="N157" s="7"/>
       <c r="O157" s="7"/>
@@ -15940,7 +15955,7 @@
       <c r="Q157" s="7"/>
     </row>
     <row r="158" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C158" s="8"/>
+      <c r="C158" s="104"/>
       <c r="F158" s="9"/>
       <c r="N158" s="7"/>
       <c r="O158" s="7"/>
@@ -15948,7 +15963,7 @@
       <c r="Q158" s="7"/>
     </row>
     <row r="159" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C159" s="8"/>
+      <c r="C159" s="104"/>
       <c r="F159" s="9"/>
       <c r="N159" s="7"/>
       <c r="O159" s="7"/>
@@ -15956,7 +15971,7 @@
       <c r="Q159" s="7"/>
     </row>
     <row r="160" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C160" s="8"/>
+      <c r="C160" s="104"/>
       <c r="F160" s="9"/>
       <c r="N160" s="7"/>
       <c r="O160" s="7"/>
@@ -15964,7 +15979,7 @@
       <c r="Q160" s="7"/>
     </row>
     <row r="161" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C161" s="8"/>
+      <c r="C161" s="104"/>
       <c r="F161" s="9"/>
       <c r="N161" s="7"/>
       <c r="O161" s="7"/>
@@ -15972,7 +15987,7 @@
       <c r="Q161" s="7"/>
     </row>
     <row r="162" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C162" s="8"/>
+      <c r="C162" s="104"/>
       <c r="F162" s="9"/>
       <c r="N162" s="7"/>
       <c r="O162" s="7"/>
@@ -15980,7 +15995,7 @@
       <c r="Q162" s="7"/>
     </row>
     <row r="163" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C163" s="8"/>
+      <c r="C163" s="104"/>
       <c r="F163" s="9"/>
       <c r="N163" s="7"/>
       <c r="O163" s="7"/>
@@ -15988,7 +16003,7 @@
       <c r="Q163" s="7"/>
     </row>
     <row r="164" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C164" s="8"/>
+      <c r="C164" s="104"/>
       <c r="F164" s="9"/>
       <c r="N164" s="7"/>
       <c r="O164" s="7"/>
@@ -15996,7 +16011,7 @@
       <c r="Q164" s="7"/>
     </row>
     <row r="165" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C165" s="8"/>
+      <c r="C165" s="104"/>
       <c r="F165" s="9"/>
       <c r="N165" s="7"/>
       <c r="O165" s="7"/>
@@ -16004,7 +16019,7 @@
       <c r="Q165" s="7"/>
     </row>
     <row r="166" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="8"/>
+      <c r="C166" s="104"/>
       <c r="F166" s="9"/>
       <c r="N166" s="7"/>
       <c r="O166" s="7"/>
@@ -16012,7 +16027,7 @@
       <c r="Q166" s="7"/>
     </row>
     <row r="167" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C167" s="8"/>
+      <c r="C167" s="104"/>
       <c r="F167" s="9"/>
       <c r="N167" s="7"/>
       <c r="O167" s="7"/>
@@ -16020,7 +16035,7 @@
       <c r="Q167" s="7"/>
     </row>
     <row r="168" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C168" s="8"/>
+      <c r="C168" s="104"/>
       <c r="F168" s="9"/>
       <c r="N168" s="7"/>
       <c r="O168" s="7"/>
@@ -16028,7 +16043,7 @@
       <c r="Q168" s="7"/>
     </row>
     <row r="169" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="8"/>
+      <c r="C169" s="104"/>
       <c r="F169" s="9"/>
       <c r="N169" s="7"/>
       <c r="O169" s="7"/>
@@ -16036,7 +16051,7 @@
       <c r="Q169" s="7"/>
     </row>
     <row r="170" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C170" s="8"/>
+      <c r="C170" s="104"/>
       <c r="F170" s="9"/>
       <c r="N170" s="7"/>
       <c r="O170" s="7"/>
@@ -16044,7 +16059,7 @@
       <c r="Q170" s="7"/>
     </row>
     <row r="171" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" s="8"/>
+      <c r="C171" s="104"/>
       <c r="F171" s="9"/>
       <c r="N171" s="7"/>
       <c r="O171" s="7"/>
@@ -16052,7 +16067,7 @@
       <c r="Q171" s="7"/>
     </row>
     <row r="172" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C172" s="8"/>
+      <c r="C172" s="104"/>
       <c r="F172" s="9"/>
       <c r="N172" s="7"/>
       <c r="O172" s="7"/>
@@ -16060,7 +16075,7 @@
       <c r="Q172" s="7"/>
     </row>
     <row r="173" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C173" s="8"/>
+      <c r="C173" s="104"/>
       <c r="F173" s="9"/>
       <c r="N173" s="7"/>
       <c r="O173" s="7"/>
@@ -16068,7 +16083,7 @@
       <c r="Q173" s="7"/>
     </row>
     <row r="174" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" s="8"/>
+      <c r="C174" s="104"/>
       <c r="F174" s="9"/>
       <c r="N174" s="7"/>
       <c r="O174" s="7"/>
@@ -16076,7 +16091,7 @@
       <c r="Q174" s="7"/>
     </row>
     <row r="175" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C175" s="8"/>
+      <c r="C175" s="104"/>
       <c r="F175" s="9"/>
       <c r="N175" s="7"/>
       <c r="O175" s="7"/>
@@ -16084,7 +16099,7 @@
       <c r="Q175" s="7"/>
     </row>
     <row r="176" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C176" s="8"/>
+      <c r="C176" s="104"/>
       <c r="F176" s="9"/>
       <c r="N176" s="7"/>
       <c r="O176" s="7"/>
@@ -16092,7 +16107,7 @@
       <c r="Q176" s="7"/>
     </row>
     <row r="177" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C177" s="8"/>
+      <c r="C177" s="104"/>
       <c r="F177" s="9"/>
       <c r="N177" s="7"/>
       <c r="O177" s="7"/>
@@ -16100,7 +16115,7 @@
       <c r="Q177" s="7"/>
     </row>
     <row r="178" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C178" s="8"/>
+      <c r="C178" s="104"/>
       <c r="F178" s="9"/>
       <c r="N178" s="7"/>
       <c r="O178" s="7"/>
@@ -16108,7 +16123,7 @@
       <c r="Q178" s="7"/>
     </row>
     <row r="179" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="8"/>
+      <c r="C179" s="104"/>
       <c r="F179" s="9"/>
       <c r="N179" s="7"/>
       <c r="O179" s="7"/>
@@ -16116,7 +16131,7 @@
       <c r="Q179" s="7"/>
     </row>
     <row r="180" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C180" s="8"/>
+      <c r="C180" s="104"/>
       <c r="F180" s="9"/>
       <c r="N180" s="7"/>
       <c r="O180" s="7"/>
@@ -16124,7 +16139,7 @@
       <c r="Q180" s="7"/>
     </row>
     <row r="181" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="8"/>
+      <c r="C181" s="104"/>
       <c r="F181" s="9"/>
       <c r="N181" s="7"/>
       <c r="O181" s="7"/>
@@ -16132,7 +16147,7 @@
       <c r="Q181" s="7"/>
     </row>
     <row r="182" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C182" s="8"/>
+      <c r="C182" s="104"/>
       <c r="F182" s="9"/>
       <c r="N182" s="7"/>
       <c r="O182" s="7"/>
@@ -16140,7 +16155,7 @@
       <c r="Q182" s="7"/>
     </row>
     <row r="183" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="8"/>
+      <c r="C183" s="104"/>
       <c r="F183" s="9"/>
       <c r="N183" s="7"/>
       <c r="O183" s="7"/>
@@ -16148,7 +16163,7 @@
       <c r="Q183" s="7"/>
     </row>
     <row r="184" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C184" s="8"/>
+      <c r="C184" s="104"/>
       <c r="F184" s="9"/>
       <c r="N184" s="7"/>
       <c r="O184" s="7"/>
@@ -16156,7 +16171,7 @@
       <c r="Q184" s="7"/>
     </row>
     <row r="185" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C185" s="8"/>
+      <c r="C185" s="104"/>
       <c r="F185" s="9"/>
       <c r="N185" s="7"/>
       <c r="O185" s="7"/>
@@ -16164,7 +16179,7 @@
       <c r="Q185" s="7"/>
     </row>
     <row r="186" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C186" s="8"/>
+      <c r="C186" s="104"/>
       <c r="F186" s="9"/>
       <c r="N186" s="7"/>
       <c r="O186" s="7"/>
@@ -16172,7 +16187,7 @@
       <c r="Q186" s="7"/>
     </row>
     <row r="187" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C187" s="8"/>
+      <c r="C187" s="104"/>
       <c r="F187" s="9"/>
       <c r="N187" s="7"/>
       <c r="O187" s="7"/>
@@ -16180,7 +16195,7 @@
       <c r="Q187" s="7"/>
     </row>
     <row r="188" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C188" s="8"/>
+      <c r="C188" s="104"/>
       <c r="F188" s="9"/>
       <c r="N188" s="7"/>
       <c r="O188" s="7"/>
@@ -16188,7 +16203,7 @@
       <c r="Q188" s="7"/>
     </row>
     <row r="189" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C189" s="8"/>
+      <c r="C189" s="104"/>
       <c r="F189" s="9"/>
       <c r="N189" s="7"/>
       <c r="O189" s="7"/>
@@ -16196,7 +16211,7 @@
       <c r="Q189" s="7"/>
     </row>
     <row r="190" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C190" s="8"/>
+      <c r="C190" s="104"/>
       <c r="F190" s="9"/>
       <c r="N190" s="7"/>
       <c r="O190" s="7"/>
@@ -16204,7 +16219,7 @@
       <c r="Q190" s="7"/>
     </row>
     <row r="191" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C191" s="8"/>
+      <c r="C191" s="104"/>
       <c r="F191" s="9"/>
       <c r="N191" s="7"/>
       <c r="O191" s="7"/>
@@ -16212,7 +16227,7 @@
       <c r="Q191" s="7"/>
     </row>
     <row r="192" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C192" s="8"/>
+      <c r="C192" s="104"/>
       <c r="F192" s="9"/>
       <c r="N192" s="7"/>
       <c r="O192" s="7"/>
@@ -16220,7 +16235,7 @@
       <c r="Q192" s="7"/>
     </row>
     <row r="193" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C193" s="8"/>
+      <c r="C193" s="104"/>
       <c r="F193" s="9"/>
       <c r="N193" s="7"/>
       <c r="O193" s="7"/>
@@ -16228,7 +16243,7 @@
       <c r="Q193" s="7"/>
     </row>
     <row r="194" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C194" s="8"/>
+      <c r="C194" s="104"/>
       <c r="F194" s="9"/>
       <c r="N194" s="7"/>
       <c r="O194" s="7"/>
@@ -16236,7 +16251,7 @@
       <c r="Q194" s="7"/>
     </row>
     <row r="195" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C195" s="8"/>
+      <c r="C195" s="104"/>
       <c r="F195" s="9"/>
       <c r="N195" s="7"/>
       <c r="O195" s="7"/>
@@ -16244,7 +16259,7 @@
       <c r="Q195" s="7"/>
     </row>
     <row r="196" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C196" s="8"/>
+      <c r="C196" s="104"/>
       <c r="F196" s="9"/>
       <c r="N196" s="7"/>
       <c r="O196" s="7"/>
@@ -16252,7 +16267,7 @@
       <c r="Q196" s="7"/>
     </row>
     <row r="197" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C197" s="8"/>
+      <c r="C197" s="104"/>
       <c r="F197" s="9"/>
       <c r="N197" s="7"/>
       <c r="O197" s="7"/>
@@ -16260,7 +16275,7 @@
       <c r="Q197" s="7"/>
     </row>
     <row r="198" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C198" s="8"/>
+      <c r="C198" s="104"/>
       <c r="F198" s="9"/>
       <c r="N198" s="7"/>
       <c r="O198" s="7"/>
@@ -16268,7 +16283,7 @@
       <c r="Q198" s="7"/>
     </row>
     <row r="199" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C199" s="8"/>
+      <c r="C199" s="104"/>
       <c r="F199" s="9"/>
       <c r="N199" s="7"/>
       <c r="O199" s="7"/>
@@ -16276,7 +16291,7 @@
       <c r="Q199" s="7"/>
     </row>
     <row r="200" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C200" s="8"/>
+      <c r="C200" s="104"/>
       <c r="F200" s="9"/>
       <c r="N200" s="7"/>
       <c r="O200" s="7"/>
@@ -16284,7 +16299,7 @@
       <c r="Q200" s="7"/>
     </row>
     <row r="201" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C201" s="8"/>
+      <c r="C201" s="104"/>
       <c r="F201" s="9"/>
       <c r="N201" s="7"/>
       <c r="O201" s="7"/>
@@ -16292,7 +16307,7 @@
       <c r="Q201" s="7"/>
     </row>
     <row r="202" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C202" s="8"/>
+      <c r="C202" s="104"/>
       <c r="F202" s="9"/>
       <c r="N202" s="7"/>
       <c r="O202" s="7"/>
@@ -16300,7 +16315,7 @@
       <c r="Q202" s="7"/>
     </row>
     <row r="203" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C203" s="8"/>
+      <c r="C203" s="104"/>
       <c r="F203" s="9"/>
       <c r="N203" s="7"/>
       <c r="O203" s="7"/>
@@ -16308,7 +16323,7 @@
       <c r="Q203" s="7"/>
     </row>
     <row r="204" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C204" s="8"/>
+      <c r="C204" s="104"/>
       <c r="F204" s="9"/>
       <c r="N204" s="7"/>
       <c r="O204" s="7"/>
@@ -16316,7 +16331,7 @@
       <c r="Q204" s="7"/>
     </row>
     <row r="205" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C205" s="8"/>
+      <c r="C205" s="104"/>
       <c r="F205" s="9"/>
       <c r="N205" s="7"/>
       <c r="O205" s="7"/>
@@ -16324,7 +16339,7 @@
       <c r="Q205" s="7"/>
     </row>
     <row r="206" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C206" s="8"/>
+      <c r="C206" s="104"/>
       <c r="F206" s="9"/>
       <c r="N206" s="7"/>
       <c r="O206" s="7"/>
@@ -16332,7 +16347,7 @@
       <c r="Q206" s="7"/>
     </row>
     <row r="207" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C207" s="8"/>
+      <c r="C207" s="104"/>
       <c r="F207" s="9"/>
       <c r="N207" s="7"/>
       <c r="O207" s="7"/>
@@ -16340,7 +16355,7 @@
       <c r="Q207" s="7"/>
     </row>
     <row r="208" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C208" s="8"/>
+      <c r="C208" s="104"/>
       <c r="F208" s="9"/>
       <c r="N208" s="7"/>
       <c r="O208" s="7"/>
@@ -16348,7 +16363,7 @@
       <c r="Q208" s="7"/>
     </row>
     <row r="209" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C209" s="8"/>
+      <c r="C209" s="104"/>
       <c r="F209" s="9"/>
       <c r="N209" s="7"/>
       <c r="O209" s="7"/>
@@ -16356,7 +16371,7 @@
       <c r="Q209" s="7"/>
     </row>
     <row r="210" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C210" s="8"/>
+      <c r="C210" s="104"/>
       <c r="F210" s="9"/>
       <c r="N210" s="7"/>
       <c r="O210" s="7"/>
@@ -16364,7 +16379,7 @@
       <c r="Q210" s="7"/>
     </row>
     <row r="211" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C211" s="8"/>
+      <c r="C211" s="104"/>
       <c r="F211" s="9"/>
       <c r="N211" s="7"/>
       <c r="O211" s="7"/>
@@ -16372,7 +16387,7 @@
       <c r="Q211" s="7"/>
     </row>
     <row r="212" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C212" s="8"/>
+      <c r="C212" s="104"/>
       <c r="F212" s="9"/>
       <c r="N212" s="7"/>
       <c r="O212" s="7"/>
@@ -16380,7 +16395,7 @@
       <c r="Q212" s="7"/>
     </row>
     <row r="213" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C213" s="8"/>
+      <c r="C213" s="104"/>
       <c r="F213" s="9"/>
       <c r="N213" s="7"/>
       <c r="O213" s="7"/>
@@ -16388,7 +16403,7 @@
       <c r="Q213" s="7"/>
     </row>
     <row r="214" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C214" s="8"/>
+      <c r="C214" s="104"/>
       <c r="F214" s="9"/>
       <c r="N214" s="7"/>
       <c r="O214" s="7"/>
@@ -16396,7 +16411,7 @@
       <c r="Q214" s="7"/>
     </row>
     <row r="215" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C215" s="8"/>
+      <c r="C215" s="104"/>
       <c r="F215" s="9"/>
       <c r="N215" s="7"/>
       <c r="O215" s="7"/>
@@ -16404,7 +16419,7 @@
       <c r="Q215" s="7"/>
     </row>
     <row r="216" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="8"/>
+      <c r="C216" s="104"/>
       <c r="F216" s="9"/>
       <c r="N216" s="7"/>
       <c r="O216" s="7"/>
@@ -16412,7 +16427,7 @@
       <c r="Q216" s="7"/>
     </row>
     <row r="217" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C217" s="8"/>
+      <c r="C217" s="104"/>
       <c r="F217" s="9"/>
       <c r="N217" s="7"/>
       <c r="O217" s="7"/>
@@ -16420,7 +16435,7 @@
       <c r="Q217" s="7"/>
     </row>
     <row r="218" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C218" s="8"/>
+      <c r="C218" s="104"/>
       <c r="F218" s="9"/>
       <c r="N218" s="7"/>
       <c r="O218" s="7"/>
@@ -16428,7 +16443,7 @@
       <c r="Q218" s="7"/>
     </row>
     <row r="219" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C219" s="8"/>
+      <c r="C219" s="104"/>
       <c r="F219" s="9"/>
       <c r="N219" s="7"/>
       <c r="O219" s="7"/>
@@ -16436,7 +16451,7 @@
       <c r="Q219" s="7"/>
     </row>
     <row r="220" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C220" s="8"/>
+      <c r="C220" s="104"/>
       <c r="F220" s="9"/>
       <c r="N220" s="7"/>
       <c r="O220" s="7"/>
@@ -16444,7 +16459,7 @@
       <c r="Q220" s="7"/>
     </row>
     <row r="221" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C221" s="8"/>
+      <c r="C221" s="104"/>
       <c r="F221" s="9"/>
       <c r="N221" s="7"/>
       <c r="O221" s="7"/>
@@ -16452,7 +16467,7 @@
       <c r="Q221" s="7"/>
     </row>
     <row r="222" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C222" s="8"/>
+      <c r="C222" s="104"/>
       <c r="F222" s="9"/>
       <c r="N222" s="7"/>
       <c r="O222" s="7"/>
@@ -16460,7 +16475,7 @@
       <c r="Q222" s="7"/>
     </row>
     <row r="223" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C223" s="8"/>
+      <c r="C223" s="104"/>
       <c r="F223" s="9"/>
       <c r="N223" s="7"/>
       <c r="O223" s="7"/>
@@ -16468,7 +16483,7 @@
       <c r="Q223" s="7"/>
     </row>
     <row r="224" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C224" s="8"/>
+      <c r="C224" s="104"/>
       <c r="F224" s="9"/>
       <c r="N224" s="7"/>
       <c r="O224" s="7"/>
@@ -16476,7 +16491,7 @@
       <c r="Q224" s="7"/>
     </row>
     <row r="225" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C225" s="8"/>
+      <c r="C225" s="104"/>
       <c r="F225" s="9"/>
       <c r="N225" s="7"/>
       <c r="O225" s="7"/>
@@ -16484,7 +16499,7 @@
       <c r="Q225" s="7"/>
     </row>
     <row r="226" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C226" s="8"/>
+      <c r="C226" s="104"/>
       <c r="F226" s="9"/>
       <c r="N226" s="7"/>
       <c r="O226" s="7"/>
@@ -16492,7 +16507,7 @@
       <c r="Q226" s="7"/>
     </row>
     <row r="227" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C227" s="8"/>
+      <c r="C227" s="104"/>
       <c r="F227" s="9"/>
       <c r="N227" s="7"/>
       <c r="O227" s="7"/>
@@ -16500,7 +16515,7 @@
       <c r="Q227" s="7"/>
     </row>
     <row r="228" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C228" s="8"/>
+      <c r="C228" s="104"/>
       <c r="F228" s="9"/>
       <c r="N228" s="7"/>
       <c r="O228" s="7"/>
@@ -16508,7 +16523,7 @@
       <c r="Q228" s="7"/>
     </row>
     <row r="229" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C229" s="8"/>
+      <c r="C229" s="104"/>
       <c r="F229" s="9"/>
       <c r="N229" s="7"/>
       <c r="O229" s="7"/>
@@ -16516,7 +16531,7 @@
       <c r="Q229" s="7"/>
     </row>
     <row r="230" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C230" s="8"/>
+      <c r="C230" s="104"/>
       <c r="F230" s="9"/>
       <c r="N230" s="7"/>
       <c r="O230" s="7"/>
@@ -16524,7 +16539,7 @@
       <c r="Q230" s="7"/>
     </row>
     <row r="231" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C231" s="8"/>
+      <c r="C231" s="104"/>
       <c r="F231" s="9"/>
       <c r="N231" s="7"/>
       <c r="O231" s="7"/>
@@ -16532,7 +16547,7 @@
       <c r="Q231" s="7"/>
     </row>
     <row r="232" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C232" s="8"/>
+      <c r="C232" s="104"/>
       <c r="F232" s="9"/>
       <c r="N232" s="7"/>
       <c r="O232" s="7"/>
@@ -16540,7 +16555,7 @@
       <c r="Q232" s="7"/>
     </row>
     <row r="233" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C233" s="8"/>
+      <c r="C233" s="104"/>
       <c r="F233" s="9"/>
       <c r="N233" s="7"/>
       <c r="O233" s="7"/>
@@ -16548,7 +16563,7 @@
       <c r="Q233" s="7"/>
     </row>
     <row r="234" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C234" s="8"/>
+      <c r="C234" s="104"/>
       <c r="F234" s="9"/>
       <c r="N234" s="7"/>
       <c r="O234" s="7"/>
@@ -16556,7 +16571,7 @@
       <c r="Q234" s="7"/>
     </row>
     <row r="235" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C235" s="8"/>
+      <c r="C235" s="104"/>
       <c r="F235" s="9"/>
       <c r="N235" s="7"/>
       <c r="O235" s="7"/>
@@ -16564,7 +16579,7 @@
       <c r="Q235" s="7"/>
     </row>
     <row r="236" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C236" s="8"/>
+      <c r="C236" s="104"/>
       <c r="F236" s="9"/>
       <c r="N236" s="7"/>
       <c r="O236" s="7"/>
@@ -16572,7 +16587,7 @@
       <c r="Q236" s="7"/>
     </row>
     <row r="237" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C237" s="8"/>
+      <c r="C237" s="104"/>
       <c r="F237" s="9"/>
       <c r="N237" s="7"/>
       <c r="O237" s="7"/>
@@ -16580,7 +16595,7 @@
       <c r="Q237" s="7"/>
     </row>
     <row r="238" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C238" s="8"/>
+      <c r="C238" s="104"/>
       <c r="F238" s="9"/>
       <c r="N238" s="7"/>
       <c r="O238" s="7"/>
@@ -16588,7 +16603,7 @@
       <c r="Q238" s="7"/>
     </row>
     <row r="239" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C239" s="8"/>
+      <c r="C239" s="104"/>
       <c r="F239" s="9"/>
       <c r="N239" s="7"/>
       <c r="O239" s="7"/>
@@ -16596,7 +16611,7 @@
       <c r="Q239" s="7"/>
     </row>
     <row r="240" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C240" s="8"/>
+      <c r="C240" s="104"/>
       <c r="F240" s="9"/>
       <c r="N240" s="7"/>
       <c r="O240" s="7"/>
@@ -16604,7 +16619,7 @@
       <c r="Q240" s="7"/>
     </row>
     <row r="241" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C241" s="8"/>
+      <c r="C241" s="104"/>
       <c r="F241" s="9"/>
       <c r="N241" s="7"/>
       <c r="O241" s="7"/>
@@ -16612,7 +16627,7 @@
       <c r="Q241" s="7"/>
     </row>
     <row r="242" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C242" s="8"/>
+      <c r="C242" s="104"/>
       <c r="F242" s="9"/>
       <c r="N242" s="7"/>
       <c r="O242" s="7"/>
@@ -16620,7 +16635,7 @@
       <c r="Q242" s="7"/>
     </row>
     <row r="243" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C243" s="8"/>
+      <c r="C243" s="104"/>
       <c r="F243" s="9"/>
       <c r="N243" s="7"/>
       <c r="O243" s="7"/>
@@ -16628,7 +16643,7 @@
       <c r="Q243" s="7"/>
     </row>
     <row r="244" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C244" s="8"/>
+      <c r="C244" s="104"/>
       <c r="F244" s="9"/>
       <c r="N244" s="7"/>
       <c r="O244" s="7"/>
@@ -16636,7 +16651,7 @@
       <c r="Q244" s="7"/>
     </row>
     <row r="245" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C245" s="8"/>
+      <c r="C245" s="104"/>
       <c r="F245" s="9"/>
       <c r="N245" s="7"/>
       <c r="O245" s="7"/>
@@ -16644,7 +16659,7 @@
       <c r="Q245" s="7"/>
     </row>
     <row r="246" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C246" s="8"/>
+      <c r="C246" s="104"/>
       <c r="F246" s="9"/>
       <c r="N246" s="7"/>
       <c r="O246" s="7"/>
@@ -16652,7 +16667,7 @@
       <c r="Q246" s="7"/>
     </row>
     <row r="247" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C247" s="8"/>
+      <c r="C247" s="104"/>
       <c r="F247" s="9"/>
       <c r="N247" s="7"/>
       <c r="O247" s="7"/>
@@ -16660,7 +16675,7 @@
       <c r="Q247" s="7"/>
     </row>
     <row r="248" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C248" s="8"/>
+      <c r="C248" s="104"/>
       <c r="F248" s="9"/>
       <c r="N248" s="7"/>
       <c r="O248" s="7"/>
@@ -16668,7 +16683,7 @@
       <c r="Q248" s="7"/>
     </row>
     <row r="249" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C249" s="8"/>
+      <c r="C249" s="104"/>
       <c r="F249" s="9"/>
       <c r="N249" s="7"/>
       <c r="O249" s="7"/>
@@ -16676,7 +16691,7 @@
       <c r="Q249" s="7"/>
     </row>
     <row r="250" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C250" s="8"/>
+      <c r="C250" s="104"/>
       <c r="F250" s="9"/>
       <c r="N250" s="7"/>
       <c r="O250" s="7"/>
@@ -16684,7 +16699,7 @@
       <c r="Q250" s="7"/>
     </row>
     <row r="251" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C251" s="8"/>
+      <c r="C251" s="104"/>
       <c r="F251" s="9"/>
       <c r="N251" s="7"/>
       <c r="O251" s="7"/>
@@ -16692,7 +16707,7 @@
       <c r="Q251" s="7"/>
     </row>
     <row r="252" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C252" s="8"/>
+      <c r="C252" s="104"/>
       <c r="F252" s="9"/>
       <c r="N252" s="7"/>
       <c r="O252" s="7"/>
@@ -16700,7 +16715,7 @@
       <c r="Q252" s="7"/>
     </row>
     <row r="253" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C253" s="8"/>
+      <c r="C253" s="104"/>
       <c r="F253" s="9"/>
       <c r="N253" s="7"/>
       <c r="O253" s="7"/>
@@ -16708,7 +16723,7 @@
       <c r="Q253" s="7"/>
     </row>
     <row r="254" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C254" s="8"/>
+      <c r="C254" s="104"/>
       <c r="F254" s="9"/>
       <c r="N254" s="7"/>
       <c r="O254" s="7"/>
@@ -16716,7 +16731,7 @@
       <c r="Q254" s="7"/>
     </row>
     <row r="255" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C255" s="8"/>
+      <c r="C255" s="104"/>
       <c r="F255" s="9"/>
       <c r="N255" s="7"/>
       <c r="O255" s="7"/>
@@ -16724,7 +16739,7 @@
       <c r="Q255" s="7"/>
     </row>
     <row r="256" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C256" s="8"/>
+      <c r="C256" s="104"/>
       <c r="F256" s="9"/>
       <c r="N256" s="7"/>
       <c r="O256" s="7"/>
@@ -16732,7 +16747,7 @@
       <c r="Q256" s="7"/>
     </row>
     <row r="257" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C257" s="8"/>
+      <c r="C257" s="104"/>
       <c r="F257" s="9"/>
       <c r="N257" s="7"/>
       <c r="O257" s="7"/>
@@ -16740,7 +16755,7 @@
       <c r="Q257" s="7"/>
     </row>
     <row r="258" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C258" s="8"/>
+      <c r="C258" s="104"/>
       <c r="F258" s="9"/>
       <c r="N258" s="7"/>
       <c r="O258" s="7"/>
@@ -16748,7 +16763,7 @@
       <c r="Q258" s="7"/>
     </row>
     <row r="259" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C259" s="8"/>
+      <c r="C259" s="104"/>
       <c r="F259" s="9"/>
       <c r="N259" s="7"/>
       <c r="O259" s="7"/>
@@ -16756,7 +16771,7 @@
       <c r="Q259" s="7"/>
     </row>
     <row r="260" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C260" s="8"/>
+      <c r="C260" s="104"/>
       <c r="F260" s="9"/>
       <c r="N260" s="7"/>
       <c r="O260" s="7"/>
@@ -16764,7 +16779,7 @@
       <c r="Q260" s="7"/>
     </row>
     <row r="261" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C261" s="8"/>
+      <c r="C261" s="104"/>
       <c r="F261" s="9"/>
       <c r="N261" s="7"/>
       <c r="O261" s="7"/>
@@ -16772,7 +16787,7 @@
       <c r="Q261" s="7"/>
     </row>
     <row r="262" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C262" s="8"/>
+      <c r="C262" s="104"/>
       <c r="F262" s="9"/>
       <c r="N262" s="7"/>
       <c r="O262" s="7"/>
@@ -16780,7 +16795,7 @@
       <c r="Q262" s="7"/>
     </row>
     <row r="263" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C263" s="8"/>
+      <c r="C263" s="104"/>
       <c r="F263" s="9"/>
       <c r="N263" s="7"/>
       <c r="O263" s="7"/>
@@ -16788,7 +16803,7 @@
       <c r="Q263" s="7"/>
     </row>
     <row r="264" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C264" s="8"/>
+      <c r="C264" s="104"/>
       <c r="F264" s="9"/>
       <c r="N264" s="7"/>
       <c r="O264" s="7"/>
@@ -16796,7 +16811,7 @@
       <c r="Q264" s="7"/>
     </row>
     <row r="265" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C265" s="8"/>
+      <c r="C265" s="104"/>
       <c r="F265" s="9"/>
       <c r="N265" s="7"/>
       <c r="O265" s="7"/>
@@ -16804,7 +16819,7 @@
       <c r="Q265" s="7"/>
     </row>
     <row r="266" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C266" s="8"/>
+      <c r="C266" s="104"/>
       <c r="F266" s="9"/>
       <c r="N266" s="7"/>
       <c r="O266" s="7"/>
@@ -16812,7 +16827,7 @@
       <c r="Q266" s="7"/>
     </row>
     <row r="267" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C267" s="8"/>
+      <c r="C267" s="104"/>
       <c r="F267" s="9"/>
       <c r="N267" s="7"/>
       <c r="O267" s="7"/>
@@ -16820,7 +16835,7 @@
       <c r="Q267" s="7"/>
     </row>
     <row r="268" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="8"/>
+      <c r="C268" s="104"/>
       <c r="F268" s="9"/>
       <c r="N268" s="7"/>
       <c r="O268" s="7"/>
@@ -16828,7 +16843,7 @@
       <c r="Q268" s="7"/>
     </row>
     <row r="269" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C269" s="8"/>
+      <c r="C269" s="104"/>
       <c r="F269" s="9"/>
       <c r="N269" s="7"/>
       <c r="O269" s="7"/>
@@ -16836,7 +16851,7 @@
       <c r="Q269" s="7"/>
     </row>
     <row r="270" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C270" s="8"/>
+      <c r="C270" s="104"/>
       <c r="F270" s="9"/>
       <c r="N270" s="7"/>
       <c r="O270" s="7"/>
@@ -16844,7 +16859,7 @@
       <c r="Q270" s="7"/>
     </row>
     <row r="271" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C271" s="8"/>
+      <c r="C271" s="104"/>
       <c r="F271" s="9"/>
       <c r="N271" s="7"/>
       <c r="O271" s="7"/>
@@ -16852,7 +16867,7 @@
       <c r="Q271" s="7"/>
     </row>
     <row r="272" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C272" s="8"/>
+      <c r="C272" s="104"/>
       <c r="F272" s="9"/>
       <c r="N272" s="7"/>
       <c r="O272" s="7"/>
@@ -16860,7 +16875,7 @@
       <c r="Q272" s="7"/>
     </row>
     <row r="273" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C273" s="8"/>
+      <c r="C273" s="104"/>
       <c r="F273" s="9"/>
       <c r="N273" s="7"/>
       <c r="O273" s="7"/>
@@ -16868,7 +16883,7 @@
       <c r="Q273" s="7"/>
     </row>
     <row r="274" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C274" s="8"/>
+      <c r="C274" s="104"/>
       <c r="F274" s="9"/>
       <c r="N274" s="7"/>
       <c r="O274" s="7"/>
@@ -16876,7 +16891,7 @@
       <c r="Q274" s="7"/>
     </row>
     <row r="275" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C275" s="8"/>
+      <c r="C275" s="104"/>
       <c r="F275" s="9"/>
       <c r="N275" s="7"/>
       <c r="O275" s="7"/>
@@ -16884,7 +16899,7 @@
       <c r="Q275" s="7"/>
     </row>
     <row r="276" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C276" s="8"/>
+      <c r="C276" s="104"/>
       <c r="F276" s="9"/>
       <c r="N276" s="7"/>
       <c r="O276" s="7"/>
@@ -16892,7 +16907,7 @@
       <c r="Q276" s="7"/>
     </row>
     <row r="277" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C277" s="8"/>
+      <c r="C277" s="104"/>
       <c r="F277" s="9"/>
       <c r="N277" s="7"/>
       <c r="O277" s="7"/>
@@ -16900,7 +16915,7 @@
       <c r="Q277" s="7"/>
     </row>
     <row r="278" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C278" s="8"/>
+      <c r="C278" s="104"/>
       <c r="F278" s="9"/>
       <c r="N278" s="7"/>
       <c r="O278" s="7"/>
@@ -16908,7 +16923,7 @@
       <c r="Q278" s="7"/>
     </row>
     <row r="279" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C279" s="8"/>
+      <c r="C279" s="104"/>
       <c r="F279" s="9"/>
       <c r="N279" s="7"/>
       <c r="O279" s="7"/>
@@ -16916,7 +16931,7 @@
       <c r="Q279" s="7"/>
     </row>
     <row r="280" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C280" s="8"/>
+      <c r="C280" s="104"/>
       <c r="F280" s="9"/>
       <c r="N280" s="7"/>
       <c r="O280" s="7"/>
@@ -16924,7 +16939,7 @@
       <c r="Q280" s="7"/>
     </row>
     <row r="281" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C281" s="8"/>
+      <c r="C281" s="104"/>
       <c r="F281" s="9"/>
       <c r="N281" s="7"/>
       <c r="O281" s="7"/>
@@ -16932,7 +16947,7 @@
       <c r="Q281" s="7"/>
     </row>
     <row r="282" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C282" s="8"/>
+      <c r="C282" s="104"/>
       <c r="F282" s="9"/>
       <c r="N282" s="7"/>
       <c r="O282" s="7"/>
@@ -16940,7 +16955,7 @@
       <c r="Q282" s="7"/>
     </row>
     <row r="283" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C283" s="8"/>
+      <c r="C283" s="104"/>
       <c r="F283" s="9"/>
       <c r="N283" s="7"/>
       <c r="O283" s="7"/>
@@ -16948,7 +16963,7 @@
       <c r="Q283" s="7"/>
     </row>
     <row r="284" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C284" s="8"/>
+      <c r="C284" s="104"/>
       <c r="F284" s="9"/>
       <c r="N284" s="7"/>
       <c r="O284" s="7"/>
@@ -16956,7 +16971,7 @@
       <c r="Q284" s="7"/>
     </row>
     <row r="285" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C285" s="8"/>
+      <c r="C285" s="104"/>
       <c r="F285" s="9"/>
       <c r="N285" s="7"/>
       <c r="O285" s="7"/>
@@ -16964,7 +16979,7 @@
       <c r="Q285" s="7"/>
     </row>
     <row r="286" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C286" s="8"/>
+      <c r="C286" s="104"/>
       <c r="F286" s="9"/>
       <c r="N286" s="7"/>
       <c r="O286" s="7"/>
@@ -16972,7 +16987,7 @@
       <c r="Q286" s="7"/>
     </row>
     <row r="287" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C287" s="8"/>
+      <c r="C287" s="104"/>
       <c r="F287" s="9"/>
       <c r="N287" s="7"/>
       <c r="O287" s="7"/>
@@ -16980,7 +16995,7 @@
       <c r="Q287" s="7"/>
     </row>
     <row r="288" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C288" s="8"/>
+      <c r="C288" s="104"/>
       <c r="F288" s="9"/>
       <c r="N288" s="7"/>
       <c r="O288" s="7"/>
@@ -16988,7 +17003,7 @@
       <c r="Q288" s="7"/>
     </row>
     <row r="289" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C289" s="8"/>
+      <c r="C289" s="104"/>
       <c r="F289" s="9"/>
       <c r="N289" s="7"/>
       <c r="O289" s="7"/>
@@ -16996,7 +17011,7 @@
       <c r="Q289" s="7"/>
     </row>
     <row r="290" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C290" s="8"/>
+      <c r="C290" s="104"/>
       <c r="F290" s="9"/>
       <c r="N290" s="7"/>
       <c r="O290" s="7"/>
@@ -17004,7 +17019,7 @@
       <c r="Q290" s="7"/>
     </row>
     <row r="291" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C291" s="8"/>
+      <c r="C291" s="104"/>
       <c r="F291" s="9"/>
       <c r="N291" s="7"/>
       <c r="O291" s="7"/>
@@ -17012,7 +17027,7 @@
       <c r="Q291" s="7"/>
     </row>
     <row r="292" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C292" s="8"/>
+      <c r="C292" s="104"/>
       <c r="F292" s="9"/>
       <c r="N292" s="7"/>
       <c r="O292" s="7"/>
@@ -17020,7 +17035,7 @@
       <c r="Q292" s="7"/>
     </row>
     <row r="293" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C293" s="8"/>
+      <c r="C293" s="104"/>
       <c r="F293" s="9"/>
       <c r="N293" s="7"/>
       <c r="O293" s="7"/>
@@ -17028,7 +17043,7 @@
       <c r="Q293" s="7"/>
     </row>
     <row r="294" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C294" s="8"/>
+      <c r="C294" s="104"/>
       <c r="F294" s="9"/>
       <c r="N294" s="7"/>
       <c r="O294" s="7"/>
@@ -17036,7 +17051,7 @@
       <c r="Q294" s="7"/>
     </row>
     <row r="295" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C295" s="8"/>
+      <c r="C295" s="104"/>
       <c r="F295" s="9"/>
       <c r="N295" s="7"/>
       <c r="O295" s="7"/>
@@ -17044,7 +17059,7 @@
       <c r="Q295" s="7"/>
     </row>
     <row r="296" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C296" s="8"/>
+      <c r="C296" s="104"/>
       <c r="F296" s="9"/>
       <c r="N296" s="7"/>
       <c r="O296" s="7"/>
@@ -17052,7 +17067,7 @@
       <c r="Q296" s="7"/>
     </row>
     <row r="297" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C297" s="8"/>
+      <c r="C297" s="104"/>
       <c r="F297" s="9"/>
       <c r="N297" s="7"/>
       <c r="O297" s="7"/>
@@ -17060,3519 +17075,4246 @@
       <c r="Q297" s="7"/>
     </row>
     <row r="298" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="104"/>
       <c r="O298" s="7"/>
       <c r="P298" s="7"/>
       <c r="Q298" s="7"/>
     </row>
     <row r="299" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="104"/>
       <c r="O299" s="7"/>
       <c r="P299" s="7"/>
       <c r="Q299" s="7"/>
     </row>
     <row r="300" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="104"/>
       <c r="O300" s="7"/>
       <c r="P300" s="7"/>
       <c r="Q300" s="7"/>
     </row>
     <row r="301" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="104"/>
       <c r="O301" s="7"/>
       <c r="P301" s="7"/>
       <c r="Q301" s="7"/>
     </row>
     <row r="302" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="104"/>
       <c r="O302" s="7"/>
       <c r="P302" s="7"/>
       <c r="Q302" s="7"/>
     </row>
     <row r="303" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="104"/>
       <c r="O303" s="7"/>
       <c r="P303" s="7"/>
       <c r="Q303" s="7"/>
     </row>
     <row r="304" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="104"/>
       <c r="O304" s="7"/>
       <c r="P304" s="7"/>
       <c r="Q304" s="7"/>
     </row>
-    <row r="305" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="104"/>
       <c r="O305" s="7"/>
       <c r="P305" s="7"/>
       <c r="Q305" s="7"/>
     </row>
-    <row r="306" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="104"/>
       <c r="O306" s="7"/>
       <c r="P306" s="7"/>
       <c r="Q306" s="7"/>
     </row>
-    <row r="307" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="104"/>
       <c r="O307" s="7"/>
       <c r="P307" s="7"/>
       <c r="Q307" s="7"/>
     </row>
-    <row r="308" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="104"/>
       <c r="O308" s="7"/>
       <c r="P308" s="7"/>
       <c r="Q308" s="7"/>
     </row>
-    <row r="309" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="104"/>
       <c r="O309" s="7"/>
       <c r="P309" s="7"/>
       <c r="Q309" s="7"/>
     </row>
-    <row r="310" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="104"/>
       <c r="O310" s="7"/>
       <c r="P310" s="7"/>
       <c r="Q310" s="7"/>
     </row>
-    <row r="311" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C311" s="104"/>
       <c r="O311" s="7"/>
       <c r="P311" s="7"/>
       <c r="Q311" s="7"/>
     </row>
-    <row r="312" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C312" s="104"/>
       <c r="O312" s="7"/>
       <c r="P312" s="7"/>
       <c r="Q312" s="7"/>
     </row>
-    <row r="313" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C313" s="104"/>
       <c r="O313" s="7"/>
       <c r="P313" s="7"/>
       <c r="Q313" s="7"/>
     </row>
-    <row r="314" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C314" s="104"/>
       <c r="O314" s="7"/>
       <c r="P314" s="7"/>
       <c r="Q314" s="7"/>
     </row>
-    <row r="315" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C315" s="104"/>
       <c r="O315" s="7"/>
       <c r="P315" s="7"/>
       <c r="Q315" s="7"/>
     </row>
-    <row r="316" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="104"/>
       <c r="O316" s="7"/>
       <c r="P316" s="7"/>
       <c r="Q316" s="7"/>
     </row>
-    <row r="317" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C317" s="104"/>
       <c r="O317" s="7"/>
       <c r="P317" s="7"/>
       <c r="Q317" s="7"/>
     </row>
-    <row r="318" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C318" s="104"/>
       <c r="O318" s="7"/>
       <c r="P318" s="7"/>
       <c r="Q318" s="7"/>
     </row>
-    <row r="319" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C319" s="104"/>
       <c r="O319" s="7"/>
       <c r="P319" s="7"/>
       <c r="Q319" s="7"/>
     </row>
-    <row r="320" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C320" s="104"/>
       <c r="O320" s="7"/>
       <c r="P320" s="7"/>
       <c r="Q320" s="7"/>
     </row>
-    <row r="321" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C321" s="104"/>
       <c r="O321" s="7"/>
       <c r="P321" s="7"/>
       <c r="Q321" s="7"/>
     </row>
-    <row r="322" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C322" s="104"/>
       <c r="O322" s="7"/>
       <c r="P322" s="7"/>
       <c r="Q322" s="7"/>
     </row>
-    <row r="323" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C323" s="104"/>
       <c r="O323" s="7"/>
       <c r="P323" s="7"/>
       <c r="Q323" s="7"/>
     </row>
-    <row r="324" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C324" s="104"/>
       <c r="O324" s="7"/>
       <c r="P324" s="7"/>
       <c r="Q324" s="7"/>
     </row>
-    <row r="325" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C325" s="104"/>
       <c r="O325" s="7"/>
       <c r="P325" s="7"/>
       <c r="Q325" s="7"/>
     </row>
-    <row r="326" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C326" s="104"/>
       <c r="O326" s="7"/>
       <c r="P326" s="7"/>
       <c r="Q326" s="7"/>
     </row>
-    <row r="327" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C327" s="104"/>
       <c r="O327" s="7"/>
       <c r="P327" s="7"/>
       <c r="Q327" s="7"/>
     </row>
-    <row r="328" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C328" s="104"/>
       <c r="O328" s="7"/>
       <c r="P328" s="7"/>
       <c r="Q328" s="7"/>
     </row>
-    <row r="329" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C329" s="104"/>
       <c r="O329" s="7"/>
       <c r="P329" s="7"/>
       <c r="Q329" s="7"/>
     </row>
-    <row r="330" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C330" s="104"/>
       <c r="O330" s="7"/>
       <c r="P330" s="7"/>
       <c r="Q330" s="7"/>
     </row>
-    <row r="331" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C331" s="104"/>
       <c r="O331" s="7"/>
       <c r="P331" s="7"/>
       <c r="Q331" s="7"/>
     </row>
-    <row r="332" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C332" s="104"/>
       <c r="O332" s="7"/>
       <c r="P332" s="7"/>
       <c r="Q332" s="7"/>
     </row>
-    <row r="333" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C333" s="104"/>
       <c r="O333" s="7"/>
       <c r="P333" s="7"/>
       <c r="Q333" s="7"/>
     </row>
-    <row r="334" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C334" s="104"/>
       <c r="O334" s="7"/>
       <c r="P334" s="7"/>
       <c r="Q334" s="7"/>
     </row>
-    <row r="335" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C335" s="104"/>
       <c r="O335" s="7"/>
       <c r="P335" s="7"/>
       <c r="Q335" s="7"/>
     </row>
-    <row r="336" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C336" s="104"/>
       <c r="O336" s="7"/>
       <c r="P336" s="7"/>
       <c r="Q336" s="7"/>
     </row>
-    <row r="337" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C337" s="104"/>
       <c r="O337" s="7"/>
       <c r="P337" s="7"/>
       <c r="Q337" s="7"/>
     </row>
-    <row r="338" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C338" s="104"/>
       <c r="O338" s="7"/>
       <c r="P338" s="7"/>
       <c r="Q338" s="7"/>
     </row>
-    <row r="339" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C339" s="104"/>
       <c r="O339" s="7"/>
       <c r="P339" s="7"/>
       <c r="Q339" s="7"/>
     </row>
-    <row r="340" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C340" s="104"/>
       <c r="O340" s="7"/>
       <c r="P340" s="7"/>
       <c r="Q340" s="7"/>
     </row>
-    <row r="341" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C341" s="104"/>
       <c r="O341" s="7"/>
       <c r="P341" s="7"/>
       <c r="Q341" s="7"/>
     </row>
-    <row r="342" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C342" s="104"/>
       <c r="O342" s="7"/>
       <c r="P342" s="7"/>
       <c r="Q342" s="7"/>
     </row>
-    <row r="343" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C343" s="104"/>
       <c r="O343" s="7"/>
       <c r="P343" s="7"/>
       <c r="Q343" s="7"/>
     </row>
-    <row r="344" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C344" s="104"/>
       <c r="O344" s="7"/>
       <c r="P344" s="7"/>
       <c r="Q344" s="7"/>
     </row>
-    <row r="345" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C345" s="104"/>
       <c r="O345" s="7"/>
       <c r="P345" s="7"/>
       <c r="Q345" s="7"/>
     </row>
-    <row r="346" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C346" s="104"/>
       <c r="O346" s="7"/>
       <c r="P346" s="7"/>
       <c r="Q346" s="7"/>
     </row>
-    <row r="347" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C347" s="104"/>
       <c r="O347" s="7"/>
       <c r="P347" s="7"/>
       <c r="Q347" s="7"/>
     </row>
-    <row r="348" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C348" s="104"/>
       <c r="O348" s="7"/>
       <c r="P348" s="7"/>
       <c r="Q348" s="7"/>
     </row>
-    <row r="349" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C349" s="104"/>
       <c r="O349" s="7"/>
       <c r="P349" s="7"/>
       <c r="Q349" s="7"/>
     </row>
-    <row r="350" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C350" s="104"/>
       <c r="O350" s="7"/>
       <c r="P350" s="7"/>
       <c r="Q350" s="7"/>
     </row>
-    <row r="351" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C351" s="104"/>
       <c r="O351" s="7"/>
       <c r="P351" s="7"/>
       <c r="Q351" s="7"/>
     </row>
-    <row r="352" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C352" s="104"/>
       <c r="O352" s="7"/>
       <c r="P352" s="7"/>
       <c r="Q352" s="7"/>
     </row>
-    <row r="353" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C353" s="104"/>
       <c r="O353" s="7"/>
       <c r="P353" s="7"/>
       <c r="Q353" s="7"/>
     </row>
-    <row r="354" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C354" s="104"/>
       <c r="O354" s="7"/>
       <c r="P354" s="7"/>
       <c r="Q354" s="7"/>
     </row>
-    <row r="355" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C355" s="104"/>
       <c r="O355" s="7"/>
       <c r="P355" s="7"/>
       <c r="Q355" s="7"/>
     </row>
-    <row r="356" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C356" s="104"/>
       <c r="O356" s="7"/>
       <c r="P356" s="7"/>
       <c r="Q356" s="7"/>
     </row>
-    <row r="357" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C357" s="104"/>
       <c r="O357" s="7"/>
       <c r="P357" s="7"/>
       <c r="Q357" s="7"/>
     </row>
-    <row r="358" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C358" s="104"/>
       <c r="O358" s="7"/>
       <c r="P358" s="7"/>
       <c r="Q358" s="7"/>
     </row>
-    <row r="359" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C359" s="104"/>
       <c r="O359" s="7"/>
       <c r="P359" s="7"/>
       <c r="Q359" s="7"/>
     </row>
-    <row r="360" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C360" s="104"/>
       <c r="O360" s="7"/>
       <c r="P360" s="7"/>
       <c r="Q360" s="7"/>
     </row>
-    <row r="361" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C361" s="104"/>
       <c r="O361" s="7"/>
       <c r="P361" s="7"/>
       <c r="Q361" s="7"/>
     </row>
-    <row r="362" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C362" s="104"/>
       <c r="O362" s="7"/>
       <c r="P362" s="7"/>
       <c r="Q362" s="7"/>
     </row>
-    <row r="363" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C363" s="104"/>
       <c r="O363" s="7"/>
       <c r="P363" s="7"/>
       <c r="Q363" s="7"/>
     </row>
-    <row r="364" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C364" s="104"/>
       <c r="O364" s="7"/>
       <c r="P364" s="7"/>
       <c r="Q364" s="7"/>
     </row>
-    <row r="365" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C365" s="104"/>
       <c r="O365" s="7"/>
       <c r="P365" s="7"/>
       <c r="Q365" s="7"/>
     </row>
-    <row r="366" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C366" s="104"/>
       <c r="O366" s="7"/>
       <c r="P366" s="7"/>
       <c r="Q366" s="7"/>
     </row>
-    <row r="367" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C367" s="104"/>
       <c r="O367" s="7"/>
       <c r="P367" s="7"/>
       <c r="Q367" s="7"/>
     </row>
-    <row r="368" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C368" s="104"/>
       <c r="O368" s="7"/>
       <c r="P368" s="7"/>
       <c r="Q368" s="7"/>
     </row>
-    <row r="369" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C369" s="104"/>
       <c r="O369" s="7"/>
       <c r="P369" s="7"/>
       <c r="Q369" s="7"/>
     </row>
-    <row r="370" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370" s="104"/>
       <c r="O370" s="7"/>
       <c r="P370" s="7"/>
       <c r="Q370" s="7"/>
     </row>
-    <row r="371" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371" s="104"/>
       <c r="O371" s="7"/>
       <c r="P371" s="7"/>
       <c r="Q371" s="7"/>
     </row>
-    <row r="372" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372" s="104"/>
       <c r="O372" s="7"/>
       <c r="P372" s="7"/>
       <c r="Q372" s="7"/>
     </row>
-    <row r="373" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C373" s="104"/>
       <c r="O373" s="7"/>
       <c r="P373" s="7"/>
       <c r="Q373" s="7"/>
     </row>
-    <row r="374" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C374" s="104"/>
       <c r="O374" s="7"/>
       <c r="P374" s="7"/>
       <c r="Q374" s="7"/>
     </row>
-    <row r="375" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C375" s="104"/>
       <c r="O375" s="7"/>
       <c r="P375" s="7"/>
       <c r="Q375" s="7"/>
     </row>
-    <row r="376" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C376" s="104"/>
       <c r="O376" s="7"/>
       <c r="P376" s="7"/>
       <c r="Q376" s="7"/>
     </row>
-    <row r="377" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C377" s="104"/>
       <c r="O377" s="7"/>
       <c r="P377" s="7"/>
       <c r="Q377" s="7"/>
     </row>
-    <row r="378" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C378" s="104"/>
       <c r="O378" s="7"/>
       <c r="P378" s="7"/>
       <c r="Q378" s="7"/>
     </row>
-    <row r="379" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C379" s="104"/>
       <c r="O379" s="7"/>
       <c r="P379" s="7"/>
       <c r="Q379" s="7"/>
     </row>
-    <row r="380" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C380" s="104"/>
       <c r="O380" s="7"/>
       <c r="P380" s="7"/>
       <c r="Q380" s="7"/>
     </row>
-    <row r="381" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C381" s="104"/>
       <c r="O381" s="7"/>
       <c r="P381" s="7"/>
       <c r="Q381" s="7"/>
     </row>
-    <row r="382" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C382" s="104"/>
       <c r="O382" s="7"/>
       <c r="P382" s="7"/>
       <c r="Q382" s="7"/>
     </row>
-    <row r="383" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C383" s="104"/>
       <c r="O383" s="7"/>
       <c r="P383" s="7"/>
       <c r="Q383" s="7"/>
     </row>
-    <row r="384" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C384" s="104"/>
       <c r="O384" s="7"/>
       <c r="P384" s="7"/>
       <c r="Q384" s="7"/>
     </row>
-    <row r="385" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C385" s="104"/>
       <c r="O385" s="7"/>
       <c r="P385" s="7"/>
       <c r="Q385" s="7"/>
     </row>
-    <row r="386" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C386" s="104"/>
       <c r="O386" s="7"/>
       <c r="P386" s="7"/>
       <c r="Q386" s="7"/>
     </row>
-    <row r="387" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C387" s="104"/>
       <c r="O387" s="7"/>
       <c r="P387" s="7"/>
       <c r="Q387" s="7"/>
     </row>
-    <row r="388" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C388" s="104"/>
       <c r="O388" s="7"/>
       <c r="P388" s="7"/>
       <c r="Q388" s="7"/>
     </row>
-    <row r="389" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C389" s="104"/>
       <c r="O389" s="7"/>
       <c r="P389" s="7"/>
       <c r="Q389" s="7"/>
     </row>
-    <row r="390" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C390" s="104"/>
       <c r="O390" s="7"/>
       <c r="P390" s="7"/>
       <c r="Q390" s="7"/>
     </row>
-    <row r="391" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C391" s="104"/>
       <c r="O391" s="7"/>
       <c r="P391" s="7"/>
       <c r="Q391" s="7"/>
     </row>
-    <row r="392" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C392" s="104"/>
       <c r="O392" s="7"/>
       <c r="P392" s="7"/>
       <c r="Q392" s="7"/>
     </row>
-    <row r="393" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C393" s="104"/>
       <c r="O393" s="7"/>
       <c r="P393" s="7"/>
       <c r="Q393" s="7"/>
     </row>
-    <row r="394" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C394" s="104"/>
       <c r="O394" s="7"/>
       <c r="P394" s="7"/>
       <c r="Q394" s="7"/>
     </row>
-    <row r="395" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C395" s="104"/>
       <c r="O395" s="7"/>
       <c r="P395" s="7"/>
       <c r="Q395" s="7"/>
     </row>
-    <row r="396" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C396" s="104"/>
       <c r="O396" s="7"/>
       <c r="P396" s="7"/>
       <c r="Q396" s="7"/>
     </row>
-    <row r="397" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C397" s="104"/>
       <c r="O397" s="7"/>
       <c r="P397" s="7"/>
       <c r="Q397" s="7"/>
     </row>
-    <row r="398" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C398" s="104"/>
       <c r="O398" s="7"/>
       <c r="P398" s="7"/>
       <c r="Q398" s="7"/>
     </row>
-    <row r="399" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C399" s="104"/>
       <c r="O399" s="7"/>
       <c r="P399" s="7"/>
       <c r="Q399" s="7"/>
     </row>
-    <row r="400" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C400" s="104"/>
       <c r="O400" s="7"/>
       <c r="P400" s="7"/>
       <c r="Q400" s="7"/>
     </row>
-    <row r="401" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C401" s="104"/>
       <c r="O401" s="7"/>
       <c r="P401" s="7"/>
       <c r="Q401" s="7"/>
     </row>
-    <row r="402" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C402" s="104"/>
       <c r="O402" s="7"/>
       <c r="P402" s="7"/>
       <c r="Q402" s="7"/>
     </row>
-    <row r="403" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C403" s="104"/>
       <c r="O403" s="7"/>
       <c r="P403" s="7"/>
       <c r="Q403" s="7"/>
     </row>
-    <row r="404" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C404" s="104"/>
       <c r="O404" s="7"/>
       <c r="P404" s="7"/>
       <c r="Q404" s="7"/>
     </row>
-    <row r="405" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C405" s="104"/>
       <c r="O405" s="7"/>
       <c r="P405" s="7"/>
       <c r="Q405" s="7"/>
     </row>
-    <row r="406" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C406" s="104"/>
       <c r="O406" s="7"/>
       <c r="P406" s="7"/>
       <c r="Q406" s="7"/>
     </row>
-    <row r="407" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C407" s="104"/>
       <c r="O407" s="7"/>
       <c r="P407" s="7"/>
       <c r="Q407" s="7"/>
     </row>
-    <row r="408" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C408" s="104"/>
       <c r="O408" s="7"/>
       <c r="P408" s="7"/>
       <c r="Q408" s="7"/>
     </row>
-    <row r="409" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C409" s="104"/>
       <c r="O409" s="7"/>
       <c r="P409" s="7"/>
       <c r="Q409" s="7"/>
     </row>
-    <row r="410" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C410" s="104"/>
       <c r="O410" s="7"/>
       <c r="P410" s="7"/>
       <c r="Q410" s="7"/>
     </row>
-    <row r="411" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C411" s="104"/>
       <c r="O411" s="7"/>
       <c r="P411" s="7"/>
       <c r="Q411" s="7"/>
     </row>
-    <row r="412" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C412" s="104"/>
       <c r="O412" s="7"/>
       <c r="P412" s="7"/>
       <c r="Q412" s="7"/>
     </row>
-    <row r="413" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C413" s="104"/>
       <c r="O413" s="7"/>
       <c r="P413" s="7"/>
       <c r="Q413" s="7"/>
     </row>
-    <row r="414" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C414" s="104"/>
       <c r="O414" s="7"/>
       <c r="P414" s="7"/>
       <c r="Q414" s="7"/>
     </row>
-    <row r="415" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C415" s="104"/>
       <c r="O415" s="7"/>
       <c r="P415" s="7"/>
       <c r="Q415" s="7"/>
     </row>
-    <row r="416" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C416" s="104"/>
       <c r="O416" s="7"/>
       <c r="P416" s="7"/>
       <c r="Q416" s="7"/>
     </row>
-    <row r="417" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C417" s="104"/>
       <c r="O417" s="7"/>
       <c r="P417" s="7"/>
       <c r="Q417" s="7"/>
     </row>
-    <row r="418" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="104"/>
       <c r="O418" s="7"/>
       <c r="P418" s="7"/>
       <c r="Q418" s="7"/>
     </row>
-    <row r="419" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="104"/>
       <c r="O419" s="7"/>
       <c r="P419" s="7"/>
       <c r="Q419" s="7"/>
     </row>
-    <row r="420" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C420" s="104"/>
       <c r="O420" s="7"/>
       <c r="P420" s="7"/>
       <c r="Q420" s="7"/>
     </row>
-    <row r="421" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C421" s="104"/>
       <c r="O421" s="7"/>
       <c r="P421" s="7"/>
       <c r="Q421" s="7"/>
     </row>
-    <row r="422" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="104"/>
       <c r="O422" s="7"/>
       <c r="P422" s="7"/>
       <c r="Q422" s="7"/>
     </row>
-    <row r="423" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C423" s="104"/>
       <c r="O423" s="7"/>
       <c r="P423" s="7"/>
       <c r="Q423" s="7"/>
     </row>
-    <row r="424" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="104"/>
       <c r="O424" s="7"/>
       <c r="P424" s="7"/>
       <c r="Q424" s="7"/>
     </row>
-    <row r="425" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C425" s="104"/>
       <c r="O425" s="7"/>
       <c r="P425" s="7"/>
       <c r="Q425" s="7"/>
     </row>
-    <row r="426" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C426" s="104"/>
       <c r="O426" s="7"/>
       <c r="P426" s="7"/>
       <c r="Q426" s="7"/>
     </row>
-    <row r="427" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C427" s="104"/>
       <c r="O427" s="7"/>
       <c r="P427" s="7"/>
       <c r="Q427" s="7"/>
     </row>
-    <row r="428" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C428" s="104"/>
       <c r="O428" s="7"/>
       <c r="P428" s="7"/>
       <c r="Q428" s="7"/>
     </row>
-    <row r="429" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C429" s="104"/>
       <c r="O429" s="7"/>
       <c r="P429" s="7"/>
       <c r="Q429" s="7"/>
     </row>
-    <row r="430" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C430" s="104"/>
       <c r="O430" s="7"/>
       <c r="P430" s="7"/>
       <c r="Q430" s="7"/>
     </row>
-    <row r="431" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C431" s="104"/>
       <c r="O431" s="7"/>
       <c r="P431" s="7"/>
       <c r="Q431" s="7"/>
     </row>
-    <row r="432" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C432" s="104"/>
       <c r="O432" s="7"/>
       <c r="P432" s="7"/>
       <c r="Q432" s="7"/>
     </row>
-    <row r="433" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C433" s="104"/>
       <c r="O433" s="7"/>
       <c r="P433" s="7"/>
       <c r="Q433" s="7"/>
     </row>
-    <row r="434" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C434" s="104"/>
       <c r="O434" s="7"/>
       <c r="P434" s="7"/>
       <c r="Q434" s="7"/>
     </row>
-    <row r="435" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C435" s="104"/>
       <c r="O435" s="7"/>
       <c r="P435" s="7"/>
       <c r="Q435" s="7"/>
     </row>
-    <row r="436" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C436" s="104"/>
       <c r="O436" s="7"/>
       <c r="P436" s="7"/>
       <c r="Q436" s="7"/>
     </row>
-    <row r="437" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C437" s="104"/>
       <c r="O437" s="7"/>
       <c r="P437" s="7"/>
       <c r="Q437" s="7"/>
     </row>
-    <row r="438" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C438" s="104"/>
       <c r="O438" s="7"/>
       <c r="P438" s="7"/>
       <c r="Q438" s="7"/>
     </row>
-    <row r="439" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C439" s="104"/>
       <c r="O439" s="7"/>
       <c r="P439" s="7"/>
       <c r="Q439" s="7"/>
     </row>
-    <row r="440" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C440" s="104"/>
       <c r="O440" s="7"/>
       <c r="P440" s="7"/>
       <c r="Q440" s="7"/>
     </row>
-    <row r="441" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C441" s="104"/>
       <c r="O441" s="7"/>
       <c r="P441" s="7"/>
       <c r="Q441" s="7"/>
     </row>
-    <row r="442" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C442" s="104"/>
       <c r="O442" s="7"/>
       <c r="P442" s="7"/>
       <c r="Q442" s="7"/>
     </row>
-    <row r="443" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C443" s="104"/>
       <c r="O443" s="7"/>
       <c r="P443" s="7"/>
       <c r="Q443" s="7"/>
     </row>
-    <row r="444" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C444" s="104"/>
       <c r="O444" s="7"/>
       <c r="P444" s="7"/>
       <c r="Q444" s="7"/>
     </row>
-    <row r="445" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C445" s="104"/>
       <c r="O445" s="7"/>
       <c r="P445" s="7"/>
       <c r="Q445" s="7"/>
     </row>
-    <row r="446" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C446" s="104"/>
       <c r="O446" s="7"/>
       <c r="P446" s="7"/>
       <c r="Q446" s="7"/>
     </row>
-    <row r="447" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C447" s="104"/>
       <c r="O447" s="7"/>
       <c r="P447" s="7"/>
       <c r="Q447" s="7"/>
     </row>
-    <row r="448" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C448" s="104"/>
       <c r="O448" s="7"/>
       <c r="P448" s="7"/>
       <c r="Q448" s="7"/>
     </row>
-    <row r="449" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C449" s="104"/>
       <c r="O449" s="7"/>
       <c r="P449" s="7"/>
       <c r="Q449" s="7"/>
     </row>
-    <row r="450" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C450" s="104"/>
       <c r="O450" s="7"/>
       <c r="P450" s="7"/>
       <c r="Q450" s="7"/>
     </row>
-    <row r="451" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C451" s="104"/>
       <c r="O451" s="7"/>
       <c r="P451" s="7"/>
       <c r="Q451" s="7"/>
     </row>
-    <row r="452" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C452" s="104"/>
       <c r="O452" s="7"/>
       <c r="P452" s="7"/>
       <c r="Q452" s="7"/>
     </row>
-    <row r="453" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C453" s="104"/>
       <c r="O453" s="7"/>
       <c r="P453" s="7"/>
       <c r="Q453" s="7"/>
     </row>
-    <row r="454" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C454" s="104"/>
       <c r="O454" s="7"/>
       <c r="P454" s="7"/>
       <c r="Q454" s="7"/>
     </row>
-    <row r="455" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C455" s="104"/>
       <c r="O455" s="7"/>
       <c r="P455" s="7"/>
       <c r="Q455" s="7"/>
     </row>
-    <row r="456" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C456" s="104"/>
       <c r="O456" s="7"/>
       <c r="P456" s="7"/>
       <c r="Q456" s="7"/>
     </row>
-    <row r="457" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C457" s="104"/>
       <c r="O457" s="7"/>
       <c r="P457" s="7"/>
       <c r="Q457" s="7"/>
     </row>
-    <row r="458" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C458" s="104"/>
       <c r="O458" s="7"/>
       <c r="P458" s="7"/>
       <c r="Q458" s="7"/>
     </row>
-    <row r="459" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C459" s="104"/>
       <c r="O459" s="7"/>
       <c r="P459" s="7"/>
       <c r="Q459" s="7"/>
     </row>
-    <row r="460" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C460" s="104"/>
       <c r="O460" s="7"/>
       <c r="P460" s="7"/>
       <c r="Q460" s="7"/>
     </row>
-    <row r="461" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C461" s="104"/>
       <c r="O461" s="7"/>
       <c r="P461" s="7"/>
       <c r="Q461" s="7"/>
     </row>
-    <row r="462" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C462" s="104"/>
       <c r="O462" s="7"/>
       <c r="P462" s="7"/>
       <c r="Q462" s="7"/>
     </row>
-    <row r="463" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C463" s="104"/>
       <c r="O463" s="7"/>
       <c r="P463" s="7"/>
       <c r="Q463" s="7"/>
     </row>
-    <row r="464" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C464" s="104"/>
       <c r="O464" s="7"/>
       <c r="P464" s="7"/>
       <c r="Q464" s="7"/>
     </row>
-    <row r="465" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C465" s="104"/>
       <c r="O465" s="7"/>
       <c r="P465" s="7"/>
       <c r="Q465" s="7"/>
     </row>
-    <row r="466" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C466" s="104"/>
       <c r="O466" s="7"/>
       <c r="P466" s="7"/>
       <c r="Q466" s="7"/>
     </row>
-    <row r="467" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C467" s="104"/>
       <c r="O467" s="7"/>
       <c r="P467" s="7"/>
       <c r="Q467" s="7"/>
     </row>
-    <row r="468" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C468" s="104"/>
       <c r="O468" s="7"/>
       <c r="P468" s="7"/>
       <c r="Q468" s="7"/>
     </row>
-    <row r="469" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C469" s="104"/>
       <c r="O469" s="7"/>
       <c r="P469" s="7"/>
       <c r="Q469" s="7"/>
     </row>
-    <row r="470" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C470" s="104"/>
       <c r="O470" s="7"/>
       <c r="P470" s="7"/>
       <c r="Q470" s="7"/>
     </row>
-    <row r="471" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C471" s="104"/>
       <c r="O471" s="7"/>
       <c r="P471" s="7"/>
       <c r="Q471" s="7"/>
     </row>
-    <row r="472" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C472" s="104"/>
       <c r="O472" s="7"/>
       <c r="P472" s="7"/>
       <c r="Q472" s="7"/>
     </row>
-    <row r="473" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C473" s="104"/>
       <c r="O473" s="7"/>
       <c r="P473" s="7"/>
       <c r="Q473" s="7"/>
     </row>
-    <row r="474" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C474" s="104"/>
       <c r="O474" s="7"/>
       <c r="P474" s="7"/>
       <c r="Q474" s="7"/>
     </row>
-    <row r="475" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C475" s="104"/>
       <c r="O475" s="7"/>
       <c r="P475" s="7"/>
       <c r="Q475" s="7"/>
     </row>
-    <row r="476" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C476" s="104"/>
       <c r="O476" s="7"/>
       <c r="P476" s="7"/>
       <c r="Q476" s="7"/>
     </row>
-    <row r="477" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C477" s="104"/>
       <c r="O477" s="7"/>
       <c r="P477" s="7"/>
       <c r="Q477" s="7"/>
     </row>
-    <row r="478" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C478" s="104"/>
       <c r="O478" s="7"/>
       <c r="P478" s="7"/>
       <c r="Q478" s="7"/>
     </row>
-    <row r="479" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C479" s="104"/>
       <c r="O479" s="7"/>
       <c r="P479" s="7"/>
       <c r="Q479" s="7"/>
     </row>
-    <row r="480" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C480" s="104"/>
       <c r="O480" s="7"/>
       <c r="P480" s="7"/>
       <c r="Q480" s="7"/>
     </row>
-    <row r="481" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C481" s="104"/>
       <c r="O481" s="7"/>
       <c r="P481" s="7"/>
       <c r="Q481" s="7"/>
     </row>
-    <row r="482" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C482" s="104"/>
       <c r="O482" s="7"/>
       <c r="P482" s="7"/>
       <c r="Q482" s="7"/>
     </row>
-    <row r="483" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C483" s="104"/>
       <c r="O483" s="7"/>
       <c r="P483" s="7"/>
       <c r="Q483" s="7"/>
     </row>
-    <row r="484" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C484" s="104"/>
       <c r="O484" s="7"/>
       <c r="P484" s="7"/>
       <c r="Q484" s="7"/>
     </row>
-    <row r="485" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C485" s="104"/>
       <c r="O485" s="7"/>
       <c r="P485" s="7"/>
       <c r="Q485" s="7"/>
     </row>
-    <row r="486" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C486" s="104"/>
       <c r="O486" s="7"/>
       <c r="P486" s="7"/>
       <c r="Q486" s="7"/>
     </row>
-    <row r="487" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C487" s="104"/>
       <c r="O487" s="7"/>
       <c r="P487" s="7"/>
       <c r="Q487" s="7"/>
     </row>
-    <row r="488" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C488" s="104"/>
       <c r="O488" s="7"/>
       <c r="P488" s="7"/>
       <c r="Q488" s="7"/>
     </row>
-    <row r="489" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C489" s="104"/>
       <c r="O489" s="7"/>
       <c r="P489" s="7"/>
       <c r="Q489" s="7"/>
     </row>
-    <row r="490" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C490" s="104"/>
       <c r="O490" s="7"/>
       <c r="P490" s="7"/>
       <c r="Q490" s="7"/>
     </row>
-    <row r="491" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C491" s="104"/>
       <c r="O491" s="7"/>
       <c r="P491" s="7"/>
       <c r="Q491" s="7"/>
     </row>
-    <row r="492" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C492" s="104"/>
       <c r="O492" s="7"/>
       <c r="P492" s="7"/>
       <c r="Q492" s="7"/>
     </row>
-    <row r="493" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C493" s="104"/>
       <c r="O493" s="7"/>
       <c r="P493" s="7"/>
       <c r="Q493" s="7"/>
     </row>
-    <row r="494" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C494" s="104"/>
       <c r="O494" s="7"/>
       <c r="P494" s="7"/>
       <c r="Q494" s="7"/>
     </row>
-    <row r="495" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C495" s="104"/>
       <c r="O495" s="7"/>
       <c r="P495" s="7"/>
       <c r="Q495" s="7"/>
     </row>
-    <row r="496" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C496" s="104"/>
       <c r="O496" s="7"/>
       <c r="P496" s="7"/>
       <c r="Q496" s="7"/>
     </row>
-    <row r="497" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C497" s="104"/>
       <c r="O497" s="7"/>
       <c r="P497" s="7"/>
       <c r="Q497" s="7"/>
     </row>
-    <row r="498" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C498" s="104"/>
       <c r="O498" s="7"/>
       <c r="P498" s="7"/>
       <c r="Q498" s="7"/>
     </row>
-    <row r="499" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C499" s="104"/>
       <c r="O499" s="7"/>
       <c r="P499" s="7"/>
       <c r="Q499" s="7"/>
     </row>
-    <row r="500" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C500" s="104"/>
       <c r="O500" s="7"/>
       <c r="P500" s="7"/>
       <c r="Q500" s="7"/>
     </row>
-    <row r="501" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C501" s="104"/>
       <c r="O501" s="7"/>
       <c r="P501" s="7"/>
       <c r="Q501" s="7"/>
     </row>
-    <row r="502" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C502" s="104"/>
       <c r="O502" s="7"/>
       <c r="P502" s="7"/>
       <c r="Q502" s="7"/>
     </row>
-    <row r="503" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C503" s="104"/>
       <c r="O503" s="7"/>
       <c r="P503" s="7"/>
       <c r="Q503" s="7"/>
     </row>
-    <row r="504" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C504" s="104"/>
       <c r="O504" s="7"/>
       <c r="P504" s="7"/>
       <c r="Q504" s="7"/>
     </row>
-    <row r="505" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C505" s="104"/>
       <c r="O505" s="7"/>
       <c r="P505" s="7"/>
       <c r="Q505" s="7"/>
     </row>
-    <row r="506" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C506" s="104"/>
       <c r="O506" s="7"/>
       <c r="P506" s="7"/>
       <c r="Q506" s="7"/>
     </row>
-    <row r="507" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C507" s="104"/>
       <c r="O507" s="7"/>
       <c r="P507" s="7"/>
       <c r="Q507" s="7"/>
     </row>
-    <row r="508" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C508" s="104"/>
       <c r="O508" s="7"/>
       <c r="P508" s="7"/>
       <c r="Q508" s="7"/>
     </row>
-    <row r="509" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C509" s="104"/>
       <c r="O509" s="7"/>
       <c r="P509" s="7"/>
       <c r="Q509" s="7"/>
     </row>
-    <row r="510" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C510" s="104"/>
       <c r="O510" s="7"/>
       <c r="P510" s="7"/>
       <c r="Q510" s="7"/>
     </row>
-    <row r="511" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C511" s="104"/>
       <c r="O511" s="7"/>
       <c r="P511" s="7"/>
       <c r="Q511" s="7"/>
     </row>
-    <row r="512" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C512" s="104"/>
       <c r="O512" s="7"/>
       <c r="P512" s="7"/>
       <c r="Q512" s="7"/>
     </row>
-    <row r="513" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C513" s="104"/>
       <c r="O513" s="7"/>
       <c r="P513" s="7"/>
       <c r="Q513" s="7"/>
     </row>
-    <row r="514" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C514" s="104"/>
       <c r="O514" s="7"/>
       <c r="P514" s="7"/>
       <c r="Q514" s="7"/>
     </row>
-    <row r="515" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C515" s="104"/>
       <c r="O515" s="7"/>
       <c r="P515" s="7"/>
       <c r="Q515" s="7"/>
     </row>
-    <row r="516" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C516" s="104"/>
       <c r="O516" s="7"/>
       <c r="P516" s="7"/>
       <c r="Q516" s="7"/>
     </row>
-    <row r="517" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C517" s="104"/>
       <c r="O517" s="7"/>
       <c r="P517" s="7"/>
       <c r="Q517" s="7"/>
     </row>
-    <row r="518" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C518" s="104"/>
       <c r="O518" s="7"/>
       <c r="P518" s="7"/>
       <c r="Q518" s="7"/>
     </row>
-    <row r="519" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C519" s="104"/>
       <c r="O519" s="7"/>
       <c r="P519" s="7"/>
       <c r="Q519" s="7"/>
     </row>
-    <row r="520" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C520" s="104"/>
       <c r="O520" s="7"/>
       <c r="P520" s="7"/>
       <c r="Q520" s="7"/>
     </row>
-    <row r="521" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C521" s="104"/>
       <c r="O521" s="7"/>
       <c r="P521" s="7"/>
       <c r="Q521" s="7"/>
     </row>
-    <row r="522" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C522" s="104"/>
       <c r="O522" s="7"/>
       <c r="P522" s="7"/>
       <c r="Q522" s="7"/>
     </row>
-    <row r="523" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C523" s="104"/>
       <c r="O523" s="7"/>
       <c r="P523" s="7"/>
       <c r="Q523" s="7"/>
     </row>
-    <row r="524" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C524" s="104"/>
       <c r="O524" s="7"/>
       <c r="P524" s="7"/>
       <c r="Q524" s="7"/>
     </row>
-    <row r="525" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C525" s="104"/>
       <c r="O525" s="7"/>
       <c r="P525" s="7"/>
       <c r="Q525" s="7"/>
     </row>
-    <row r="526" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C526" s="104"/>
       <c r="O526" s="7"/>
       <c r="P526" s="7"/>
       <c r="Q526" s="7"/>
     </row>
-    <row r="527" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C527" s="104"/>
       <c r="O527" s="7"/>
       <c r="P527" s="7"/>
       <c r="Q527" s="7"/>
     </row>
-    <row r="528" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C528" s="104"/>
       <c r="O528" s="7"/>
       <c r="P528" s="7"/>
       <c r="Q528" s="7"/>
     </row>
-    <row r="529" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C529" s="104"/>
       <c r="O529" s="7"/>
       <c r="P529" s="7"/>
       <c r="Q529" s="7"/>
     </row>
-    <row r="530" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C530" s="104"/>
       <c r="O530" s="7"/>
       <c r="P530" s="7"/>
       <c r="Q530" s="7"/>
     </row>
-    <row r="531" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C531" s="104"/>
       <c r="O531" s="7"/>
       <c r="P531" s="7"/>
       <c r="Q531" s="7"/>
     </row>
-    <row r="532" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C532" s="104"/>
       <c r="O532" s="7"/>
       <c r="P532" s="7"/>
       <c r="Q532" s="7"/>
     </row>
-    <row r="533" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C533" s="104"/>
       <c r="O533" s="7"/>
       <c r="P533" s="7"/>
       <c r="Q533" s="7"/>
     </row>
-    <row r="534" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C534" s="104"/>
       <c r="O534" s="7"/>
       <c r="P534" s="7"/>
       <c r="Q534" s="7"/>
     </row>
-    <row r="535" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C535" s="104"/>
       <c r="O535" s="7"/>
       <c r="P535" s="7"/>
       <c r="Q535" s="7"/>
     </row>
-    <row r="536" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C536" s="104"/>
       <c r="O536" s="7"/>
       <c r="P536" s="7"/>
       <c r="Q536" s="7"/>
     </row>
-    <row r="537" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C537" s="104"/>
       <c r="O537" s="7"/>
       <c r="P537" s="7"/>
       <c r="Q537" s="7"/>
     </row>
-    <row r="538" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C538" s="104"/>
       <c r="O538" s="7"/>
       <c r="P538" s="7"/>
       <c r="Q538" s="7"/>
     </row>
-    <row r="539" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C539" s="104"/>
       <c r="O539" s="7"/>
       <c r="P539" s="7"/>
       <c r="Q539" s="7"/>
     </row>
-    <row r="540" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C540" s="104"/>
       <c r="O540" s="7"/>
       <c r="P540" s="7"/>
       <c r="Q540" s="7"/>
     </row>
-    <row r="541" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C541" s="104"/>
       <c r="O541" s="7"/>
       <c r="P541" s="7"/>
       <c r="Q541" s="7"/>
     </row>
-    <row r="542" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C542" s="104"/>
       <c r="O542" s="7"/>
       <c r="P542" s="7"/>
       <c r="Q542" s="7"/>
     </row>
-    <row r="543" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C543" s="104"/>
       <c r="O543" s="7"/>
       <c r="P543" s="7"/>
       <c r="Q543" s="7"/>
     </row>
-    <row r="544" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C544" s="104"/>
       <c r="O544" s="7"/>
       <c r="P544" s="7"/>
       <c r="Q544" s="7"/>
     </row>
-    <row r="545" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C545" s="104"/>
       <c r="O545" s="7"/>
       <c r="P545" s="7"/>
       <c r="Q545" s="7"/>
     </row>
-    <row r="546" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C546" s="104"/>
       <c r="O546" s="7"/>
       <c r="P546" s="7"/>
       <c r="Q546" s="7"/>
     </row>
-    <row r="547" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C547" s="104"/>
       <c r="O547" s="7"/>
       <c r="P547" s="7"/>
       <c r="Q547" s="7"/>
     </row>
-    <row r="548" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C548" s="104"/>
       <c r="O548" s="7"/>
       <c r="P548" s="7"/>
       <c r="Q548" s="7"/>
     </row>
-    <row r="549" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C549" s="104"/>
       <c r="O549" s="7"/>
       <c r="P549" s="7"/>
       <c r="Q549" s="7"/>
     </row>
-    <row r="550" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C550" s="104"/>
       <c r="O550" s="7"/>
       <c r="P550" s="7"/>
       <c r="Q550" s="7"/>
     </row>
-    <row r="551" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C551" s="104"/>
       <c r="O551" s="7"/>
       <c r="P551" s="7"/>
       <c r="Q551" s="7"/>
     </row>
-    <row r="552" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C552" s="104"/>
       <c r="O552" s="7"/>
       <c r="P552" s="7"/>
       <c r="Q552" s="7"/>
     </row>
-    <row r="553" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C553" s="104"/>
       <c r="O553" s="7"/>
       <c r="P553" s="7"/>
       <c r="Q553" s="7"/>
     </row>
-    <row r="554" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C554" s="104"/>
       <c r="O554" s="7"/>
       <c r="P554" s="7"/>
       <c r="Q554" s="7"/>
     </row>
-    <row r="555" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C555" s="104"/>
       <c r="O555" s="7"/>
       <c r="P555" s="7"/>
       <c r="Q555" s="7"/>
     </row>
-    <row r="556" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C556" s="104"/>
       <c r="O556" s="7"/>
       <c r="P556" s="7"/>
       <c r="Q556" s="7"/>
     </row>
-    <row r="557" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C557" s="104"/>
       <c r="O557" s="7"/>
       <c r="P557" s="7"/>
       <c r="Q557" s="7"/>
     </row>
-    <row r="558" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C558" s="104"/>
       <c r="O558" s="7"/>
       <c r="P558" s="7"/>
       <c r="Q558" s="7"/>
     </row>
-    <row r="559" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C559" s="104"/>
       <c r="O559" s="7"/>
       <c r="P559" s="7"/>
       <c r="Q559" s="7"/>
     </row>
-    <row r="560" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C560" s="104"/>
       <c r="O560" s="7"/>
       <c r="P560" s="7"/>
       <c r="Q560" s="7"/>
     </row>
-    <row r="561" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C561" s="104"/>
       <c r="O561" s="7"/>
       <c r="P561" s="7"/>
       <c r="Q561" s="7"/>
     </row>
-    <row r="562" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C562" s="104"/>
       <c r="O562" s="7"/>
       <c r="P562" s="7"/>
       <c r="Q562" s="7"/>
     </row>
-    <row r="563" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C563" s="104"/>
       <c r="O563" s="7"/>
       <c r="P563" s="7"/>
       <c r="Q563" s="7"/>
     </row>
-    <row r="564" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C564" s="104"/>
       <c r="O564" s="7"/>
       <c r="P564" s="7"/>
       <c r="Q564" s="7"/>
     </row>
-    <row r="565" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C565" s="104"/>
       <c r="O565" s="7"/>
       <c r="P565" s="7"/>
       <c r="Q565" s="7"/>
     </row>
-    <row r="566" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C566" s="104"/>
       <c r="O566" s="7"/>
       <c r="P566" s="7"/>
       <c r="Q566" s="7"/>
     </row>
-    <row r="567" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C567" s="104"/>
       <c r="O567" s="7"/>
       <c r="P567" s="7"/>
       <c r="Q567" s="7"/>
     </row>
-    <row r="568" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C568" s="104"/>
       <c r="O568" s="7"/>
       <c r="P568" s="7"/>
       <c r="Q568" s="7"/>
     </row>
-    <row r="569" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C569" s="104"/>
       <c r="O569" s="7"/>
       <c r="P569" s="7"/>
       <c r="Q569" s="7"/>
     </row>
-    <row r="570" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C570" s="104"/>
       <c r="O570" s="7"/>
       <c r="P570" s="7"/>
       <c r="Q570" s="7"/>
     </row>
-    <row r="571" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C571" s="104"/>
       <c r="O571" s="7"/>
       <c r="P571" s="7"/>
       <c r="Q571" s="7"/>
     </row>
-    <row r="572" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C572" s="104"/>
       <c r="O572" s="7"/>
       <c r="P572" s="7"/>
       <c r="Q572" s="7"/>
     </row>
-    <row r="573" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C573" s="104"/>
       <c r="O573" s="7"/>
       <c r="P573" s="7"/>
       <c r="Q573" s="7"/>
     </row>
-    <row r="574" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C574" s="104"/>
       <c r="O574" s="7"/>
       <c r="P574" s="7"/>
       <c r="Q574" s="7"/>
     </row>
-    <row r="575" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C575" s="104"/>
       <c r="O575" s="7"/>
       <c r="P575" s="7"/>
       <c r="Q575" s="7"/>
     </row>
-    <row r="576" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C576" s="104"/>
       <c r="O576" s="7"/>
       <c r="P576" s="7"/>
       <c r="Q576" s="7"/>
     </row>
-    <row r="577" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C577" s="104"/>
       <c r="O577" s="7"/>
       <c r="P577" s="7"/>
       <c r="Q577" s="7"/>
     </row>
-    <row r="578" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C578" s="104"/>
       <c r="O578" s="7"/>
       <c r="P578" s="7"/>
       <c r="Q578" s="7"/>
     </row>
-    <row r="579" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C579" s="104"/>
       <c r="O579" s="7"/>
       <c r="P579" s="7"/>
       <c r="Q579" s="7"/>
     </row>
-    <row r="580" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C580" s="104"/>
       <c r="O580" s="7"/>
       <c r="P580" s="7"/>
       <c r="Q580" s="7"/>
     </row>
-    <row r="581" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C581" s="104"/>
       <c r="O581" s="7"/>
       <c r="P581" s="7"/>
       <c r="Q581" s="7"/>
     </row>
-    <row r="582" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C582" s="104"/>
       <c r="O582" s="7"/>
       <c r="P582" s="7"/>
       <c r="Q582" s="7"/>
     </row>
-    <row r="583" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C583" s="104"/>
       <c r="O583" s="7"/>
       <c r="P583" s="7"/>
       <c r="Q583" s="7"/>
     </row>
-    <row r="584" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C584" s="104"/>
       <c r="O584" s="7"/>
       <c r="P584" s="7"/>
       <c r="Q584" s="7"/>
     </row>
-    <row r="585" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C585" s="104"/>
       <c r="O585" s="7"/>
       <c r="P585" s="7"/>
       <c r="Q585" s="7"/>
     </row>
-    <row r="586" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C586" s="104"/>
       <c r="O586" s="7"/>
       <c r="P586" s="7"/>
       <c r="Q586" s="7"/>
     </row>
-    <row r="587" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C587" s="104"/>
       <c r="O587" s="7"/>
       <c r="P587" s="7"/>
       <c r="Q587" s="7"/>
     </row>
-    <row r="588" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C588" s="104"/>
       <c r="O588" s="7"/>
       <c r="P588" s="7"/>
       <c r="Q588" s="7"/>
     </row>
-    <row r="589" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C589" s="104"/>
       <c r="O589" s="7"/>
       <c r="P589" s="7"/>
       <c r="Q589" s="7"/>
     </row>
-    <row r="590" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C590" s="104"/>
       <c r="O590" s="7"/>
       <c r="P590" s="7"/>
       <c r="Q590" s="7"/>
     </row>
-    <row r="591" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C591" s="104"/>
       <c r="O591" s="7"/>
       <c r="P591" s="7"/>
       <c r="Q591" s="7"/>
     </row>
-    <row r="592" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C592" s="104"/>
       <c r="O592" s="7"/>
       <c r="P592" s="7"/>
       <c r="Q592" s="7"/>
     </row>
-    <row r="593" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C593" s="104"/>
       <c r="O593" s="7"/>
       <c r="P593" s="7"/>
       <c r="Q593" s="7"/>
     </row>
-    <row r="594" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C594" s="104"/>
       <c r="O594" s="7"/>
       <c r="P594" s="7"/>
       <c r="Q594" s="7"/>
     </row>
-    <row r="595" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C595" s="104"/>
       <c r="O595" s="7"/>
       <c r="P595" s="7"/>
       <c r="Q595" s="7"/>
     </row>
-    <row r="596" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C596" s="104"/>
       <c r="O596" s="7"/>
       <c r="P596" s="7"/>
       <c r="Q596" s="7"/>
     </row>
-    <row r="597" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C597" s="104"/>
       <c r="O597" s="7"/>
       <c r="P597" s="7"/>
       <c r="Q597" s="7"/>
     </row>
-    <row r="598" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C598" s="104"/>
       <c r="O598" s="7"/>
       <c r="P598" s="7"/>
       <c r="Q598" s="7"/>
     </row>
-    <row r="599" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C599" s="104"/>
       <c r="O599" s="7"/>
       <c r="P599" s="7"/>
       <c r="Q599" s="7"/>
     </row>
-    <row r="600" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C600" s="104"/>
       <c r="O600" s="7"/>
       <c r="P600" s="7"/>
       <c r="Q600" s="7"/>
     </row>
-    <row r="601" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C601" s="104"/>
       <c r="O601" s="7"/>
       <c r="P601" s="7"/>
       <c r="Q601" s="7"/>
     </row>
-    <row r="602" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C602" s="104"/>
       <c r="O602" s="7"/>
       <c r="P602" s="7"/>
       <c r="Q602" s="7"/>
     </row>
-    <row r="603" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C603" s="104"/>
       <c r="O603" s="7"/>
       <c r="P603" s="7"/>
       <c r="Q603" s="7"/>
     </row>
-    <row r="604" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C604" s="104"/>
       <c r="O604" s="7"/>
       <c r="P604" s="7"/>
       <c r="Q604" s="7"/>
     </row>
-    <row r="605" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C605" s="104"/>
       <c r="O605" s="7"/>
       <c r="P605" s="7"/>
       <c r="Q605" s="7"/>
     </row>
-    <row r="606" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C606" s="104"/>
       <c r="O606" s="7"/>
       <c r="P606" s="7"/>
       <c r="Q606" s="7"/>
     </row>
-    <row r="607" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C607" s="104"/>
       <c r="O607" s="7"/>
       <c r="P607" s="7"/>
       <c r="Q607" s="7"/>
     </row>
-    <row r="608" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C608" s="104"/>
       <c r="O608" s="7"/>
       <c r="P608" s="7"/>
       <c r="Q608" s="7"/>
     </row>
-    <row r="609" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C609" s="104"/>
       <c r="O609" s="7"/>
       <c r="P609" s="7"/>
       <c r="Q609" s="7"/>
     </row>
-    <row r="610" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C610" s="104"/>
       <c r="O610" s="7"/>
       <c r="P610" s="7"/>
       <c r="Q610" s="7"/>
     </row>
-    <row r="611" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C611" s="104"/>
       <c r="O611" s="7"/>
       <c r="P611" s="7"/>
       <c r="Q611" s="7"/>
     </row>
-    <row r="612" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C612" s="104"/>
       <c r="O612" s="7"/>
       <c r="P612" s="7"/>
       <c r="Q612" s="7"/>
     </row>
-    <row r="613" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C613" s="104"/>
       <c r="O613" s="7"/>
       <c r="P613" s="7"/>
       <c r="Q613" s="7"/>
     </row>
-    <row r="614" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C614" s="104"/>
       <c r="O614" s="7"/>
       <c r="P614" s="7"/>
       <c r="Q614" s="7"/>
     </row>
-    <row r="615" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C615" s="104"/>
       <c r="O615" s="7"/>
       <c r="P615" s="7"/>
       <c r="Q615" s="7"/>
     </row>
-    <row r="616" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C616" s="104"/>
       <c r="O616" s="7"/>
       <c r="P616" s="7"/>
       <c r="Q616" s="7"/>
     </row>
-    <row r="617" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C617" s="104"/>
       <c r="O617" s="7"/>
       <c r="P617" s="7"/>
       <c r="Q617" s="7"/>
     </row>
-    <row r="618" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C618" s="104"/>
       <c r="O618" s="7"/>
       <c r="P618" s="7"/>
       <c r="Q618" s="7"/>
     </row>
-    <row r="619" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C619" s="104"/>
       <c r="O619" s="7"/>
       <c r="P619" s="7"/>
       <c r="Q619" s="7"/>
     </row>
-    <row r="620" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C620" s="104"/>
       <c r="O620" s="7"/>
       <c r="P620" s="7"/>
       <c r="Q620" s="7"/>
     </row>
-    <row r="621" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C621" s="104"/>
       <c r="O621" s="7"/>
       <c r="P621" s="7"/>
       <c r="Q621" s="7"/>
     </row>
-    <row r="622" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C622" s="104"/>
       <c r="O622" s="7"/>
       <c r="P622" s="7"/>
       <c r="Q622" s="7"/>
     </row>
-    <row r="623" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C623" s="104"/>
       <c r="O623" s="7"/>
       <c r="P623" s="7"/>
       <c r="Q623" s="7"/>
     </row>
-    <row r="624" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C624" s="104"/>
       <c r="O624" s="7"/>
       <c r="P624" s="7"/>
       <c r="Q624" s="7"/>
     </row>
-    <row r="625" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C625" s="104"/>
       <c r="O625" s="7"/>
       <c r="P625" s="7"/>
       <c r="Q625" s="7"/>
     </row>
-    <row r="626" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C626" s="104"/>
       <c r="O626" s="7"/>
       <c r="P626" s="7"/>
       <c r="Q626" s="7"/>
     </row>
-    <row r="627" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C627" s="104"/>
       <c r="O627" s="7"/>
       <c r="P627" s="7"/>
       <c r="Q627" s="7"/>
     </row>
-    <row r="628" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C628" s="104"/>
       <c r="O628" s="7"/>
       <c r="P628" s="7"/>
       <c r="Q628" s="7"/>
     </row>
-    <row r="629" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C629" s="104"/>
       <c r="O629" s="7"/>
       <c r="P629" s="7"/>
       <c r="Q629" s="7"/>
     </row>
-    <row r="630" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C630" s="104"/>
       <c r="O630" s="7"/>
       <c r="P630" s="7"/>
       <c r="Q630" s="7"/>
     </row>
-    <row r="631" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C631" s="104"/>
       <c r="O631" s="7"/>
       <c r="P631" s="7"/>
       <c r="Q631" s="7"/>
     </row>
-    <row r="632" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C632" s="104"/>
       <c r="O632" s="7"/>
       <c r="P632" s="7"/>
       <c r="Q632" s="7"/>
     </row>
-    <row r="633" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C633" s="104"/>
       <c r="O633" s="7"/>
       <c r="P633" s="7"/>
       <c r="Q633" s="7"/>
     </row>
-    <row r="634" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C634" s="104"/>
       <c r="O634" s="7"/>
       <c r="P634" s="7"/>
       <c r="Q634" s="7"/>
     </row>
-    <row r="635" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C635" s="104"/>
       <c r="O635" s="7"/>
       <c r="P635" s="7"/>
       <c r="Q635" s="7"/>
     </row>
-    <row r="636" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C636" s="104"/>
       <c r="O636" s="7"/>
       <c r="P636" s="7"/>
       <c r="Q636" s="7"/>
     </row>
-    <row r="637" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C637" s="104"/>
       <c r="O637" s="7"/>
       <c r="P637" s="7"/>
       <c r="Q637" s="7"/>
     </row>
-    <row r="638" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C638" s="104"/>
       <c r="O638" s="7"/>
       <c r="P638" s="7"/>
       <c r="Q638" s="7"/>
     </row>
-    <row r="639" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C639" s="104"/>
       <c r="O639" s="7"/>
       <c r="P639" s="7"/>
       <c r="Q639" s="7"/>
     </row>
-    <row r="640" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C640" s="104"/>
       <c r="O640" s="7"/>
       <c r="P640" s="7"/>
       <c r="Q640" s="7"/>
     </row>
-    <row r="641" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C641" s="104"/>
       <c r="O641" s="7"/>
       <c r="P641" s="7"/>
       <c r="Q641" s="7"/>
     </row>
-    <row r="642" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C642" s="104"/>
       <c r="O642" s="7"/>
       <c r="P642" s="7"/>
       <c r="Q642" s="7"/>
     </row>
-    <row r="643" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C643" s="104"/>
       <c r="O643" s="7"/>
       <c r="P643" s="7"/>
       <c r="Q643" s="7"/>
     </row>
-    <row r="644" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C644" s="104"/>
       <c r="O644" s="7"/>
       <c r="P644" s="7"/>
       <c r="Q644" s="7"/>
     </row>
-    <row r="645" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C645" s="104"/>
       <c r="O645" s="7"/>
       <c r="P645" s="7"/>
       <c r="Q645" s="7"/>
     </row>
-    <row r="646" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C646" s="104"/>
       <c r="O646" s="7"/>
       <c r="P646" s="7"/>
       <c r="Q646" s="7"/>
     </row>
-    <row r="647" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C647" s="104"/>
       <c r="O647" s="7"/>
       <c r="P647" s="7"/>
       <c r="Q647" s="7"/>
     </row>
-    <row r="648" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C648" s="104"/>
       <c r="O648" s="7"/>
       <c r="P648" s="7"/>
       <c r="Q648" s="7"/>
     </row>
-    <row r="649" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C649" s="104"/>
       <c r="O649" s="7"/>
       <c r="P649" s="7"/>
       <c r="Q649" s="7"/>
     </row>
-    <row r="650" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C650" s="104"/>
       <c r="O650" s="7"/>
       <c r="P650" s="7"/>
       <c r="Q650" s="7"/>
     </row>
-    <row r="651" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C651" s="104"/>
       <c r="O651" s="7"/>
       <c r="P651" s="7"/>
       <c r="Q651" s="7"/>
     </row>
-    <row r="652" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C652" s="104"/>
       <c r="O652" s="7"/>
       <c r="P652" s="7"/>
       <c r="Q652" s="7"/>
     </row>
-    <row r="653" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C653" s="104"/>
       <c r="O653" s="7"/>
       <c r="P653" s="7"/>
       <c r="Q653" s="7"/>
     </row>
-    <row r="654" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C654" s="104"/>
       <c r="O654" s="7"/>
       <c r="P654" s="7"/>
       <c r="Q654" s="7"/>
     </row>
-    <row r="655" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C655" s="104"/>
       <c r="O655" s="7"/>
       <c r="P655" s="7"/>
       <c r="Q655" s="7"/>
     </row>
-    <row r="656" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C656" s="104"/>
       <c r="O656" s="7"/>
       <c r="P656" s="7"/>
       <c r="Q656" s="7"/>
     </row>
-    <row r="657" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C657" s="104"/>
       <c r="O657" s="7"/>
       <c r="P657" s="7"/>
       <c r="Q657" s="7"/>
     </row>
-    <row r="658" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C658" s="104"/>
       <c r="O658" s="7"/>
       <c r="P658" s="7"/>
       <c r="Q658" s="7"/>
     </row>
-    <row r="659" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C659" s="104"/>
       <c r="O659" s="7"/>
       <c r="P659" s="7"/>
       <c r="Q659" s="7"/>
     </row>
-    <row r="660" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C660" s="104"/>
       <c r="O660" s="7"/>
       <c r="P660" s="7"/>
       <c r="Q660" s="7"/>
     </row>
-    <row r="661" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C661" s="104"/>
       <c r="O661" s="7"/>
       <c r="P661" s="7"/>
       <c r="Q661" s="7"/>
     </row>
-    <row r="662" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C662" s="104"/>
       <c r="O662" s="7"/>
       <c r="P662" s="7"/>
       <c r="Q662" s="7"/>
     </row>
-    <row r="663" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C663" s="104"/>
       <c r="O663" s="7"/>
       <c r="P663" s="7"/>
       <c r="Q663" s="7"/>
     </row>
-    <row r="664" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C664" s="104"/>
       <c r="O664" s="7"/>
       <c r="P664" s="7"/>
       <c r="Q664" s="7"/>
     </row>
-    <row r="665" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C665" s="104"/>
       <c r="O665" s="7"/>
       <c r="P665" s="7"/>
       <c r="Q665" s="7"/>
     </row>
-    <row r="666" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C666" s="104"/>
       <c r="O666" s="7"/>
       <c r="P666" s="7"/>
       <c r="Q666" s="7"/>
     </row>
-    <row r="667" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C667" s="104"/>
       <c r="O667" s="7"/>
       <c r="P667" s="7"/>
       <c r="Q667" s="7"/>
     </row>
-    <row r="668" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C668" s="104"/>
       <c r="O668" s="7"/>
       <c r="P668" s="7"/>
       <c r="Q668" s="7"/>
     </row>
-    <row r="669" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C669" s="104"/>
       <c r="O669" s="7"/>
       <c r="P669" s="7"/>
       <c r="Q669" s="7"/>
     </row>
-    <row r="670" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C670" s="104"/>
       <c r="O670" s="7"/>
       <c r="P670" s="7"/>
       <c r="Q670" s="7"/>
     </row>
-    <row r="671" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C671" s="104"/>
       <c r="O671" s="7"/>
       <c r="P671" s="7"/>
       <c r="Q671" s="7"/>
     </row>
-    <row r="672" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C672" s="104"/>
       <c r="O672" s="7"/>
       <c r="P672" s="7"/>
       <c r="Q672" s="7"/>
     </row>
-    <row r="673" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C673" s="104"/>
       <c r="O673" s="7"/>
       <c r="P673" s="7"/>
       <c r="Q673" s="7"/>
     </row>
-    <row r="674" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C674" s="104"/>
       <c r="O674" s="7"/>
       <c r="P674" s="7"/>
       <c r="Q674" s="7"/>
     </row>
-    <row r="675" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C675" s="104"/>
       <c r="O675" s="7"/>
       <c r="P675" s="7"/>
       <c r="Q675" s="7"/>
     </row>
-    <row r="676" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C676" s="104"/>
       <c r="O676" s="7"/>
       <c r="P676" s="7"/>
       <c r="Q676" s="7"/>
     </row>
-    <row r="677" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C677" s="104"/>
       <c r="O677" s="7"/>
       <c r="P677" s="7"/>
       <c r="Q677" s="7"/>
     </row>
-    <row r="678" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C678" s="104"/>
       <c r="O678" s="7"/>
       <c r="P678" s="7"/>
       <c r="Q678" s="7"/>
     </row>
-    <row r="679" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C679" s="104"/>
       <c r="O679" s="7"/>
       <c r="P679" s="7"/>
       <c r="Q679" s="7"/>
     </row>
-    <row r="680" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C680" s="104"/>
       <c r="O680" s="7"/>
       <c r="P680" s="7"/>
       <c r="Q680" s="7"/>
     </row>
-    <row r="681" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C681" s="104"/>
       <c r="O681" s="7"/>
       <c r="P681" s="7"/>
       <c r="Q681" s="7"/>
     </row>
-    <row r="682" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C682" s="104"/>
       <c r="O682" s="7"/>
       <c r="P682" s="7"/>
       <c r="Q682" s="7"/>
     </row>
-    <row r="683" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C683" s="104"/>
       <c r="O683" s="7"/>
       <c r="P683" s="7"/>
       <c r="Q683" s="7"/>
     </row>
-    <row r="684" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C684" s="104"/>
       <c r="O684" s="7"/>
       <c r="P684" s="7"/>
       <c r="Q684" s="7"/>
     </row>
-    <row r="685" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C685" s="104"/>
       <c r="O685" s="7"/>
       <c r="P685" s="7"/>
       <c r="Q685" s="7"/>
     </row>
-    <row r="686" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C686" s="104"/>
       <c r="O686" s="7"/>
       <c r="P686" s="7"/>
       <c r="Q686" s="7"/>
     </row>
-    <row r="687" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C687" s="104"/>
       <c r="O687" s="7"/>
       <c r="P687" s="7"/>
       <c r="Q687" s="7"/>
     </row>
-    <row r="688" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C688" s="104"/>
       <c r="O688" s="7"/>
       <c r="P688" s="7"/>
       <c r="Q688" s="7"/>
     </row>
-    <row r="689" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C689" s="104"/>
       <c r="O689" s="7"/>
       <c r="P689" s="7"/>
       <c r="Q689" s="7"/>
     </row>
-    <row r="690" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C690" s="104"/>
       <c r="O690" s="7"/>
       <c r="P690" s="7"/>
       <c r="Q690" s="7"/>
     </row>
-    <row r="691" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C691" s="104"/>
       <c r="O691" s="7"/>
       <c r="P691" s="7"/>
       <c r="Q691" s="7"/>
     </row>
-    <row r="692" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C692" s="104"/>
       <c r="O692" s="7"/>
       <c r="P692" s="7"/>
       <c r="Q692" s="7"/>
     </row>
-    <row r="693" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C693" s="104"/>
       <c r="O693" s="7"/>
       <c r="P693" s="7"/>
       <c r="Q693" s="7"/>
     </row>
-    <row r="694" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C694" s="104"/>
       <c r="O694" s="7"/>
       <c r="P694" s="7"/>
       <c r="Q694" s="7"/>
     </row>
-    <row r="695" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C695" s="104"/>
       <c r="O695" s="7"/>
       <c r="P695" s="7"/>
       <c r="Q695" s="7"/>
     </row>
-    <row r="696" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C696" s="104"/>
       <c r="O696" s="7"/>
       <c r="P696" s="7"/>
       <c r="Q696" s="7"/>
     </row>
-    <row r="697" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C697" s="104"/>
       <c r="O697" s="7"/>
       <c r="P697" s="7"/>
       <c r="Q697" s="7"/>
     </row>
-    <row r="698" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C698" s="104"/>
       <c r="O698" s="7"/>
       <c r="P698" s="7"/>
       <c r="Q698" s="7"/>
     </row>
-    <row r="699" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C699" s="104"/>
       <c r="O699" s="7"/>
       <c r="P699" s="7"/>
       <c r="Q699" s="7"/>
     </row>
-    <row r="700" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C700" s="104"/>
       <c r="O700" s="7"/>
       <c r="P700" s="7"/>
       <c r="Q700" s="7"/>
     </row>
-    <row r="701" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C701" s="104"/>
       <c r="O701" s="7"/>
       <c r="P701" s="7"/>
       <c r="Q701" s="7"/>
     </row>
-    <row r="702" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C702" s="104"/>
       <c r="O702" s="7"/>
       <c r="P702" s="7"/>
       <c r="Q702" s="7"/>
     </row>
-    <row r="703" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C703" s="104"/>
       <c r="O703" s="7"/>
       <c r="P703" s="7"/>
       <c r="Q703" s="7"/>
     </row>
-    <row r="704" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C704" s="104"/>
       <c r="O704" s="7"/>
       <c r="P704" s="7"/>
       <c r="Q704" s="7"/>
     </row>
-    <row r="705" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C705" s="104"/>
       <c r="O705" s="7"/>
       <c r="P705" s="7"/>
       <c r="Q705" s="7"/>
     </row>
-    <row r="706" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C706" s="104"/>
       <c r="O706" s="7"/>
       <c r="P706" s="7"/>
       <c r="Q706" s="7"/>
     </row>
-    <row r="707" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C707" s="104"/>
       <c r="O707" s="7"/>
       <c r="P707" s="7"/>
       <c r="Q707" s="7"/>
     </row>
-    <row r="708" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C708" s="104"/>
       <c r="O708" s="7"/>
       <c r="P708" s="7"/>
       <c r="Q708" s="7"/>
     </row>
-    <row r="709" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C709" s="104"/>
       <c r="O709" s="7"/>
       <c r="P709" s="7"/>
       <c r="Q709" s="7"/>
     </row>
-    <row r="710" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C710" s="104"/>
       <c r="O710" s="7"/>
       <c r="P710" s="7"/>
       <c r="Q710" s="7"/>
     </row>
-    <row r="711" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C711" s="104"/>
       <c r="O711" s="7"/>
       <c r="P711" s="7"/>
       <c r="Q711" s="7"/>
     </row>
-    <row r="712" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C712" s="104"/>
       <c r="O712" s="7"/>
       <c r="P712" s="7"/>
       <c r="Q712" s="7"/>
     </row>
-    <row r="713" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C713" s="104"/>
       <c r="O713" s="7"/>
       <c r="P713" s="7"/>
       <c r="Q713" s="7"/>
     </row>
-    <row r="714" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C714" s="104"/>
       <c r="O714" s="7"/>
       <c r="P714" s="7"/>
       <c r="Q714" s="7"/>
     </row>
-    <row r="715" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C715" s="104"/>
       <c r="O715" s="7"/>
       <c r="P715" s="7"/>
       <c r="Q715" s="7"/>
     </row>
-    <row r="716" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C716" s="104"/>
       <c r="O716" s="7"/>
       <c r="P716" s="7"/>
       <c r="Q716" s="7"/>
     </row>
-    <row r="717" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C717" s="104"/>
       <c r="O717" s="7"/>
       <c r="P717" s="7"/>
       <c r="Q717" s="7"/>
     </row>
-    <row r="718" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C718" s="104"/>
       <c r="O718" s="7"/>
       <c r="P718" s="7"/>
       <c r="Q718" s="7"/>
     </row>
-    <row r="719" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C719" s="104"/>
       <c r="O719" s="7"/>
       <c r="P719" s="7"/>
       <c r="Q719" s="7"/>
     </row>
-    <row r="720" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C720" s="104"/>
       <c r="O720" s="7"/>
       <c r="P720" s="7"/>
       <c r="Q720" s="7"/>
     </row>
-    <row r="721" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C721" s="104"/>
       <c r="O721" s="7"/>
       <c r="P721" s="7"/>
       <c r="Q721" s="7"/>
     </row>
-    <row r="722" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C722" s="104"/>
       <c r="O722" s="7"/>
       <c r="P722" s="7"/>
       <c r="Q722" s="7"/>
     </row>
-    <row r="723" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C723" s="104"/>
       <c r="O723" s="7"/>
       <c r="P723" s="7"/>
       <c r="Q723" s="7"/>
     </row>
-    <row r="724" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C724" s="104"/>
       <c r="O724" s="7"/>
       <c r="P724" s="7"/>
       <c r="Q724" s="7"/>
     </row>
-    <row r="725" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C725" s="104"/>
       <c r="O725" s="7"/>
       <c r="P725" s="7"/>
       <c r="Q725" s="7"/>
     </row>
-    <row r="726" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C726" s="104"/>
       <c r="O726" s="7"/>
       <c r="P726" s="7"/>
       <c r="Q726" s="7"/>
     </row>
-    <row r="727" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C727" s="104"/>
       <c r="O727" s="7"/>
       <c r="P727" s="7"/>
       <c r="Q727" s="7"/>
     </row>
-    <row r="728" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C728" s="104"/>
       <c r="O728" s="7"/>
       <c r="P728" s="7"/>
       <c r="Q728" s="7"/>
     </row>
-    <row r="729" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C729" s="104"/>
       <c r="O729" s="7"/>
       <c r="P729" s="7"/>
       <c r="Q729" s="7"/>
     </row>
-    <row r="730" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C730" s="104"/>
       <c r="O730" s="7"/>
       <c r="P730" s="7"/>
       <c r="Q730" s="7"/>
     </row>
-    <row r="731" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C731" s="104"/>
       <c r="O731" s="7"/>
       <c r="P731" s="7"/>
       <c r="Q731" s="7"/>
     </row>
-    <row r="732" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C732" s="104"/>
       <c r="O732" s="7"/>
       <c r="P732" s="7"/>
       <c r="Q732" s="7"/>
     </row>
-    <row r="733" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C733" s="104"/>
       <c r="O733" s="7"/>
       <c r="P733" s="7"/>
       <c r="Q733" s="7"/>
     </row>
-    <row r="734" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C734" s="104"/>
       <c r="O734" s="7"/>
       <c r="P734" s="7"/>
       <c r="Q734" s="7"/>
     </row>
-    <row r="735" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C735" s="104"/>
       <c r="O735" s="7"/>
       <c r="P735" s="7"/>
       <c r="Q735" s="7"/>
     </row>
-    <row r="736" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C736" s="104"/>
       <c r="O736" s="7"/>
       <c r="P736" s="7"/>
       <c r="Q736" s="7"/>
     </row>
-    <row r="737" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C737" s="104"/>
       <c r="O737" s="7"/>
       <c r="P737" s="7"/>
       <c r="Q737" s="7"/>
     </row>
-    <row r="738" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C738" s="104"/>
       <c r="O738" s="7"/>
       <c r="P738" s="7"/>
       <c r="Q738" s="7"/>
     </row>
-    <row r="739" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C739" s="104"/>
       <c r="O739" s="7"/>
       <c r="P739" s="7"/>
       <c r="Q739" s="7"/>
     </row>
-    <row r="740" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C740" s="104"/>
       <c r="O740" s="7"/>
       <c r="P740" s="7"/>
       <c r="Q740" s="7"/>
     </row>
-    <row r="741" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C741" s="104"/>
       <c r="O741" s="7"/>
       <c r="P741" s="7"/>
       <c r="Q741" s="7"/>
     </row>
-    <row r="742" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C742" s="104"/>
       <c r="O742" s="7"/>
       <c r="P742" s="7"/>
       <c r="Q742" s="7"/>
     </row>
-    <row r="743" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C743" s="104"/>
       <c r="O743" s="7"/>
       <c r="P743" s="7"/>
       <c r="Q743" s="7"/>
     </row>
-    <row r="744" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C744" s="104"/>
       <c r="O744" s="7"/>
       <c r="P744" s="7"/>
       <c r="Q744" s="7"/>
     </row>
-    <row r="745" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C745" s="104"/>
       <c r="O745" s="7"/>
       <c r="P745" s="7"/>
       <c r="Q745" s="7"/>
     </row>
-    <row r="746" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C746" s="104"/>
       <c r="O746" s="7"/>
       <c r="P746" s="7"/>
       <c r="Q746" s="7"/>
     </row>
-    <row r="747" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C747" s="104"/>
       <c r="O747" s="7"/>
       <c r="P747" s="7"/>
       <c r="Q747" s="7"/>
     </row>
-    <row r="748" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C748" s="104"/>
       <c r="O748" s="7"/>
       <c r="P748" s="7"/>
       <c r="Q748" s="7"/>
     </row>
-    <row r="749" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C749" s="104"/>
       <c r="O749" s="7"/>
       <c r="P749" s="7"/>
       <c r="Q749" s="7"/>
     </row>
-    <row r="750" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C750" s="104"/>
       <c r="O750" s="7"/>
       <c r="P750" s="7"/>
       <c r="Q750" s="7"/>
     </row>
-    <row r="751" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C751" s="104"/>
       <c r="O751" s="7"/>
       <c r="P751" s="7"/>
       <c r="Q751" s="7"/>
     </row>
-    <row r="752" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C752" s="104"/>
       <c r="O752" s="7"/>
       <c r="P752" s="7"/>
       <c r="Q752" s="7"/>
     </row>
-    <row r="753" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C753" s="104"/>
       <c r="O753" s="7"/>
       <c r="P753" s="7"/>
       <c r="Q753" s="7"/>
     </row>
-    <row r="754" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C754" s="104"/>
       <c r="O754" s="7"/>
       <c r="P754" s="7"/>
       <c r="Q754" s="7"/>
     </row>
-    <row r="755" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C755" s="104"/>
       <c r="O755" s="7"/>
       <c r="P755" s="7"/>
       <c r="Q755" s="7"/>
     </row>
-    <row r="756" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C756" s="104"/>
       <c r="O756" s="7"/>
       <c r="P756" s="7"/>
       <c r="Q756" s="7"/>
     </row>
-    <row r="757" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C757" s="104"/>
       <c r="O757" s="7"/>
       <c r="P757" s="7"/>
       <c r="Q757" s="7"/>
     </row>
-    <row r="758" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C758" s="104"/>
       <c r="O758" s="7"/>
       <c r="P758" s="7"/>
       <c r="Q758" s="7"/>
     </row>
-    <row r="759" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C759" s="104"/>
       <c r="O759" s="7"/>
       <c r="P759" s="7"/>
       <c r="Q759" s="7"/>
     </row>
-    <row r="760" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C760" s="104"/>
       <c r="O760" s="7"/>
       <c r="P760" s="7"/>
       <c r="Q760" s="7"/>
     </row>
-    <row r="761" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C761" s="104"/>
       <c r="O761" s="7"/>
       <c r="P761" s="7"/>
       <c r="Q761" s="7"/>
     </row>
-    <row r="762" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C762" s="104"/>
       <c r="O762" s="7"/>
       <c r="P762" s="7"/>
       <c r="Q762" s="7"/>
     </row>
-    <row r="763" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C763" s="104"/>
       <c r="O763" s="7"/>
       <c r="P763" s="7"/>
       <c r="Q763" s="7"/>
     </row>
-    <row r="764" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C764" s="104"/>
       <c r="O764" s="7"/>
       <c r="P764" s="7"/>
       <c r="Q764" s="7"/>
     </row>
-    <row r="765" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C765" s="104"/>
       <c r="O765" s="7"/>
       <c r="P765" s="7"/>
       <c r="Q765" s="7"/>
     </row>
-    <row r="766" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C766" s="104"/>
       <c r="O766" s="7"/>
       <c r="P766" s="7"/>
       <c r="Q766" s="7"/>
     </row>
-    <row r="767" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C767" s="104"/>
       <c r="O767" s="7"/>
       <c r="P767" s="7"/>
       <c r="Q767" s="7"/>
     </row>
-    <row r="768" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C768" s="104"/>
       <c r="O768" s="7"/>
       <c r="P768" s="7"/>
       <c r="Q768" s="7"/>
     </row>
-    <row r="769" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C769" s="104"/>
       <c r="O769" s="7"/>
       <c r="P769" s="7"/>
       <c r="Q769" s="7"/>
     </row>
-    <row r="770" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C770" s="104"/>
       <c r="O770" s="7"/>
       <c r="P770" s="7"/>
       <c r="Q770" s="7"/>
     </row>
-    <row r="771" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C771" s="104"/>
       <c r="O771" s="7"/>
       <c r="P771" s="7"/>
       <c r="Q771" s="7"/>
     </row>
-    <row r="772" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C772" s="104"/>
       <c r="O772" s="7"/>
       <c r="P772" s="7"/>
       <c r="Q772" s="7"/>
     </row>
-    <row r="773" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C773" s="104"/>
       <c r="O773" s="7"/>
       <c r="P773" s="7"/>
       <c r="Q773" s="7"/>
     </row>
-    <row r="774" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C774" s="104"/>
       <c r="O774" s="7"/>
       <c r="P774" s="7"/>
       <c r="Q774" s="7"/>
     </row>
-    <row r="775" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C775" s="104"/>
       <c r="O775" s="7"/>
       <c r="P775" s="7"/>
       <c r="Q775" s="7"/>
     </row>
-    <row r="776" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C776" s="104"/>
       <c r="O776" s="7"/>
       <c r="P776" s="7"/>
       <c r="Q776" s="7"/>
     </row>
-    <row r="777" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C777" s="104"/>
       <c r="O777" s="7"/>
       <c r="P777" s="7"/>
       <c r="Q777" s="7"/>
     </row>
-    <row r="778" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C778" s="104"/>
       <c r="O778" s="7"/>
       <c r="P778" s="7"/>
       <c r="Q778" s="7"/>
     </row>
-    <row r="779" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C779" s="104"/>
       <c r="O779" s="7"/>
       <c r="P779" s="7"/>
       <c r="Q779" s="7"/>
     </row>
-    <row r="780" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C780" s="104"/>
       <c r="O780" s="7"/>
       <c r="P780" s="7"/>
       <c r="Q780" s="7"/>
     </row>
-    <row r="781" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C781" s="104"/>
       <c r="O781" s="7"/>
       <c r="P781" s="7"/>
       <c r="Q781" s="7"/>
     </row>
-    <row r="782" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C782" s="104"/>
       <c r="O782" s="7"/>
       <c r="P782" s="7"/>
       <c r="Q782" s="7"/>
     </row>
-    <row r="783" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C783" s="104"/>
       <c r="O783" s="7"/>
       <c r="P783" s="7"/>
       <c r="Q783" s="7"/>
     </row>
-    <row r="784" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C784" s="104"/>
       <c r="O784" s="7"/>
       <c r="P784" s="7"/>
       <c r="Q784" s="7"/>
     </row>
-    <row r="785" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C785" s="104"/>
       <c r="O785" s="7"/>
       <c r="P785" s="7"/>
       <c r="Q785" s="7"/>
     </row>
-    <row r="786" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C786" s="104"/>
       <c r="O786" s="7"/>
       <c r="P786" s="7"/>
       <c r="Q786" s="7"/>
     </row>
-    <row r="787" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C787" s="104"/>
       <c r="O787" s="7"/>
       <c r="P787" s="7"/>
       <c r="Q787" s="7"/>
     </row>
-    <row r="788" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C788" s="104"/>
       <c r="O788" s="7"/>
       <c r="P788" s="7"/>
       <c r="Q788" s="7"/>
     </row>
-    <row r="789" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C789" s="104"/>
       <c r="O789" s="7"/>
       <c r="P789" s="7"/>
       <c r="Q789" s="7"/>
     </row>
-    <row r="790" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C790" s="104"/>
       <c r="O790" s="7"/>
       <c r="P790" s="7"/>
       <c r="Q790" s="7"/>
     </row>
-    <row r="791" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C791" s="104"/>
       <c r="O791" s="7"/>
       <c r="P791" s="7"/>
       <c r="Q791" s="7"/>
     </row>
-    <row r="792" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C792" s="104"/>
       <c r="O792" s="7"/>
       <c r="P792" s="7"/>
       <c r="Q792" s="7"/>
     </row>
-    <row r="793" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C793" s="104"/>
       <c r="O793" s="7"/>
       <c r="P793" s="7"/>
       <c r="Q793" s="7"/>
     </row>
-    <row r="794" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C794" s="104"/>
       <c r="O794" s="7"/>
       <c r="P794" s="7"/>
       <c r="Q794" s="7"/>
     </row>
-    <row r="795" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C795" s="104"/>
       <c r="O795" s="7"/>
       <c r="P795" s="7"/>
       <c r="Q795" s="7"/>
     </row>
-    <row r="796" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C796" s="104"/>
       <c r="O796" s="7"/>
       <c r="P796" s="7"/>
       <c r="Q796" s="7"/>
     </row>
-    <row r="797" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C797" s="104"/>
       <c r="O797" s="7"/>
       <c r="P797" s="7"/>
       <c r="Q797" s="7"/>
     </row>
-    <row r="798" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C798" s="104"/>
       <c r="O798" s="7"/>
       <c r="P798" s="7"/>
       <c r="Q798" s="7"/>
     </row>
-    <row r="799" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C799" s="104"/>
       <c r="O799" s="7"/>
       <c r="P799" s="7"/>
       <c r="Q799" s="7"/>
     </row>
-    <row r="800" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C800" s="104"/>
       <c r="O800" s="7"/>
       <c r="P800" s="7"/>
       <c r="Q800" s="7"/>
     </row>
-    <row r="801" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C801" s="104"/>
       <c r="O801" s="7"/>
       <c r="P801" s="7"/>
       <c r="Q801" s="7"/>
     </row>
-    <row r="802" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C802" s="104"/>
       <c r="O802" s="7"/>
       <c r="P802" s="7"/>
       <c r="Q802" s="7"/>
     </row>
-    <row r="803" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C803" s="104"/>
       <c r="O803" s="7"/>
       <c r="P803" s="7"/>
       <c r="Q803" s="7"/>
     </row>
-    <row r="804" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C804" s="104"/>
       <c r="O804" s="7"/>
       <c r="P804" s="7"/>
       <c r="Q804" s="7"/>
     </row>
-    <row r="805" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C805" s="104"/>
       <c r="O805" s="7"/>
       <c r="P805" s="7"/>
       <c r="Q805" s="7"/>
     </row>
-    <row r="806" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C806" s="104"/>
       <c r="O806" s="7"/>
       <c r="P806" s="7"/>
       <c r="Q806" s="7"/>
     </row>
-    <row r="807" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C807" s="104"/>
       <c r="O807" s="7"/>
       <c r="P807" s="7"/>
       <c r="Q807" s="7"/>
     </row>
-    <row r="808" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C808" s="104"/>
       <c r="O808" s="7"/>
       <c r="P808" s="7"/>
       <c r="Q808" s="7"/>
     </row>
-    <row r="809" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C809" s="104"/>
       <c r="O809" s="7"/>
       <c r="P809" s="7"/>
       <c r="Q809" s="7"/>
     </row>
-    <row r="810" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C810" s="104"/>
       <c r="O810" s="7"/>
       <c r="P810" s="7"/>
       <c r="Q810" s="7"/>
     </row>
-    <row r="811" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C811" s="104"/>
       <c r="O811" s="7"/>
       <c r="P811" s="7"/>
       <c r="Q811" s="7"/>
     </row>
-    <row r="812" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C812" s="104"/>
       <c r="O812" s="7"/>
       <c r="P812" s="7"/>
       <c r="Q812" s="7"/>
     </row>
-    <row r="813" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C813" s="104"/>
       <c r="O813" s="7"/>
       <c r="P813" s="7"/>
       <c r="Q813" s="7"/>
     </row>
-    <row r="814" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C814" s="104"/>
       <c r="O814" s="7"/>
       <c r="P814" s="7"/>
       <c r="Q814" s="7"/>
     </row>
-    <row r="815" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C815" s="104"/>
       <c r="O815" s="7"/>
       <c r="P815" s="7"/>
       <c r="Q815" s="7"/>
     </row>
-    <row r="816" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C816" s="104"/>
       <c r="O816" s="7"/>
       <c r="P816" s="7"/>
       <c r="Q816" s="7"/>
     </row>
-    <row r="817" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C817" s="104"/>
       <c r="O817" s="7"/>
       <c r="P817" s="7"/>
       <c r="Q817" s="7"/>
     </row>
-    <row r="818" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C818" s="104"/>
       <c r="O818" s="7"/>
       <c r="P818" s="7"/>
       <c r="Q818" s="7"/>
     </row>
-    <row r="819" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C819" s="104"/>
       <c r="O819" s="7"/>
       <c r="P819" s="7"/>
       <c r="Q819" s="7"/>
     </row>
-    <row r="820" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C820" s="104"/>
       <c r="O820" s="7"/>
       <c r="P820" s="7"/>
       <c r="Q820" s="7"/>
     </row>
-    <row r="821" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C821" s="104"/>
       <c r="O821" s="7"/>
       <c r="P821" s="7"/>
       <c r="Q821" s="7"/>
     </row>
-    <row r="822" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C822" s="104"/>
       <c r="O822" s="7"/>
       <c r="P822" s="7"/>
       <c r="Q822" s="7"/>
     </row>
-    <row r="823" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C823" s="104"/>
       <c r="O823" s="7"/>
       <c r="P823" s="7"/>
       <c r="Q823" s="7"/>
     </row>
-    <row r="824" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C824" s="104"/>
       <c r="O824" s="7"/>
       <c r="P824" s="7"/>
       <c r="Q824" s="7"/>
     </row>
-    <row r="825" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C825" s="104"/>
       <c r="O825" s="7"/>
       <c r="P825" s="7"/>
       <c r="Q825" s="7"/>
     </row>
-    <row r="826" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C826" s="104"/>
       <c r="O826" s="7"/>
       <c r="P826" s="7"/>
       <c r="Q826" s="7"/>
     </row>
-    <row r="827" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C827" s="104"/>
       <c r="O827" s="7"/>
       <c r="P827" s="7"/>
       <c r="Q827" s="7"/>
     </row>
-    <row r="828" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C828" s="104"/>
       <c r="O828" s="7"/>
       <c r="P828" s="7"/>
       <c r="Q828" s="7"/>
     </row>
-    <row r="829" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C829" s="104"/>
       <c r="O829" s="7"/>
       <c r="P829" s="7"/>
       <c r="Q829" s="7"/>
     </row>
-    <row r="830" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C830" s="104"/>
       <c r="O830" s="7"/>
       <c r="P830" s="7"/>
       <c r="Q830" s="7"/>
     </row>
-    <row r="831" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C831" s="104"/>
       <c r="O831" s="7"/>
       <c r="P831" s="7"/>
       <c r="Q831" s="7"/>
     </row>
-    <row r="832" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C832" s="104"/>
       <c r="O832" s="7"/>
       <c r="P832" s="7"/>
       <c r="Q832" s="7"/>
     </row>
-    <row r="833" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C833" s="104"/>
       <c r="O833" s="7"/>
       <c r="P833" s="7"/>
       <c r="Q833" s="7"/>
     </row>
-    <row r="834" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C834" s="104"/>
       <c r="O834" s="7"/>
       <c r="P834" s="7"/>
       <c r="Q834" s="7"/>
     </row>
-    <row r="835" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C835" s="104"/>
       <c r="O835" s="7"/>
       <c r="P835" s="7"/>
       <c r="Q835" s="7"/>
     </row>
-    <row r="836" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C836" s="104"/>
       <c r="O836" s="7"/>
       <c r="P836" s="7"/>
       <c r="Q836" s="7"/>
     </row>
-    <row r="837" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C837" s="104"/>
       <c r="O837" s="7"/>
       <c r="P837" s="7"/>
       <c r="Q837" s="7"/>
     </row>
-    <row r="838" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C838" s="104"/>
       <c r="O838" s="7"/>
       <c r="P838" s="7"/>
       <c r="Q838" s="7"/>
     </row>
-    <row r="839" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C839" s="104"/>
       <c r="O839" s="7"/>
       <c r="P839" s="7"/>
       <c r="Q839" s="7"/>
     </row>
-    <row r="840" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C840" s="104"/>
       <c r="O840" s="7"/>
       <c r="P840" s="7"/>
       <c r="Q840" s="7"/>
     </row>
-    <row r="841" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C841" s="104"/>
       <c r="O841" s="7"/>
       <c r="P841" s="7"/>
       <c r="Q841" s="7"/>
     </row>
-    <row r="842" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C842" s="104"/>
       <c r="O842" s="7"/>
       <c r="P842" s="7"/>
       <c r="Q842" s="7"/>
     </row>
-    <row r="843" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C843" s="104"/>
       <c r="O843" s="7"/>
       <c r="P843" s="7"/>
       <c r="Q843" s="7"/>
     </row>
-    <row r="844" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C844" s="104"/>
       <c r="O844" s="7"/>
       <c r="P844" s="7"/>
       <c r="Q844" s="7"/>
     </row>
-    <row r="845" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C845" s="104"/>
       <c r="O845" s="7"/>
       <c r="P845" s="7"/>
       <c r="Q845" s="7"/>
     </row>
-    <row r="846" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C846" s="104"/>
       <c r="O846" s="7"/>
       <c r="P846" s="7"/>
       <c r="Q846" s="7"/>
     </row>
-    <row r="847" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C847" s="104"/>
       <c r="O847" s="7"/>
       <c r="P847" s="7"/>
       <c r="Q847" s="7"/>
     </row>
-    <row r="848" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C848" s="104"/>
       <c r="O848" s="7"/>
       <c r="P848" s="7"/>
       <c r="Q848" s="7"/>
     </row>
-    <row r="849" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C849" s="104"/>
       <c r="O849" s="7"/>
       <c r="P849" s="7"/>
       <c r="Q849" s="7"/>
     </row>
-    <row r="850" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C850" s="104"/>
       <c r="O850" s="7"/>
       <c r="P850" s="7"/>
       <c r="Q850" s="7"/>
     </row>
-    <row r="851" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C851" s="104"/>
       <c r="O851" s="7"/>
       <c r="P851" s="7"/>
       <c r="Q851" s="7"/>
     </row>
-    <row r="852" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C852" s="104"/>
       <c r="O852" s="7"/>
       <c r="P852" s="7"/>
       <c r="Q852" s="7"/>
     </row>
-    <row r="853" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C853" s="104"/>
       <c r="O853" s="7"/>
       <c r="P853" s="7"/>
       <c r="Q853" s="7"/>
     </row>
-    <row r="854" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C854" s="104"/>
       <c r="O854" s="7"/>
       <c r="P854" s="7"/>
       <c r="Q854" s="7"/>
     </row>
-    <row r="855" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C855" s="104"/>
       <c r="O855" s="7"/>
       <c r="P855" s="7"/>
       <c r="Q855" s="7"/>
     </row>
-    <row r="856" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C856" s="104"/>
       <c r="O856" s="7"/>
       <c r="P856" s="7"/>
       <c r="Q856" s="7"/>
     </row>
-    <row r="857" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C857" s="104"/>
       <c r="O857" s="7"/>
       <c r="P857" s="7"/>
       <c r="Q857" s="7"/>
     </row>
-    <row r="858" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C858" s="104"/>
       <c r="O858" s="7"/>
       <c r="P858" s="7"/>
       <c r="Q858" s="7"/>
     </row>
-    <row r="859" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C859" s="104"/>
       <c r="O859" s="7"/>
       <c r="P859" s="7"/>
       <c r="Q859" s="7"/>
     </row>
-    <row r="860" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C860" s="104"/>
       <c r="O860" s="7"/>
       <c r="P860" s="7"/>
       <c r="Q860" s="7"/>
     </row>
-    <row r="861" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C861" s="104"/>
       <c r="O861" s="7"/>
       <c r="P861" s="7"/>
       <c r="Q861" s="7"/>
     </row>
-    <row r="862" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C862" s="104"/>
       <c r="O862" s="7"/>
       <c r="P862" s="7"/>
       <c r="Q862" s="7"/>
     </row>
-    <row r="863" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C863" s="104"/>
       <c r="O863" s="7"/>
       <c r="P863" s="7"/>
       <c r="Q863" s="7"/>
     </row>
-    <row r="864" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C864" s="104"/>
       <c r="O864" s="7"/>
       <c r="P864" s="7"/>
       <c r="Q864" s="7"/>
     </row>
-    <row r="865" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C865" s="104"/>
       <c r="O865" s="7"/>
       <c r="P865" s="7"/>
       <c r="Q865" s="7"/>
     </row>
-    <row r="866" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C866" s="104"/>
       <c r="O866" s="7"/>
       <c r="P866" s="7"/>
       <c r="Q866" s="7"/>
     </row>
-    <row r="867" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C867" s="104"/>
       <c r="O867" s="7"/>
       <c r="P867" s="7"/>
       <c r="Q867" s="7"/>
     </row>
-    <row r="868" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C868" s="104"/>
       <c r="O868" s="7"/>
       <c r="P868" s="7"/>
       <c r="Q868" s="7"/>
     </row>
-    <row r="869" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C869" s="104"/>
       <c r="O869" s="7"/>
       <c r="P869" s="7"/>
       <c r="Q869" s="7"/>
     </row>
-    <row r="870" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C870" s="104"/>
       <c r="O870" s="7"/>
       <c r="P870" s="7"/>
       <c r="Q870" s="7"/>
     </row>
-    <row r="871" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C871" s="104"/>
       <c r="O871" s="7"/>
       <c r="P871" s="7"/>
       <c r="Q871" s="7"/>
     </row>
-    <row r="872" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C872" s="104"/>
       <c r="O872" s="7"/>
       <c r="P872" s="7"/>
       <c r="Q872" s="7"/>
     </row>
-    <row r="873" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C873" s="104"/>
       <c r="O873" s="7"/>
       <c r="P873" s="7"/>
       <c r="Q873" s="7"/>
     </row>
-    <row r="874" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C874" s="104"/>
       <c r="O874" s="7"/>
       <c r="P874" s="7"/>
       <c r="Q874" s="7"/>
     </row>
-    <row r="875" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C875" s="104"/>
       <c r="O875" s="7"/>
       <c r="P875" s="7"/>
       <c r="Q875" s="7"/>
     </row>
-    <row r="876" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C876" s="104"/>
       <c r="O876" s="7"/>
       <c r="P876" s="7"/>
       <c r="Q876" s="7"/>
     </row>
-    <row r="877" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C877" s="104"/>
       <c r="O877" s="7"/>
       <c r="P877" s="7"/>
       <c r="Q877" s="7"/>
     </row>
-    <row r="878" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C878" s="104"/>
       <c r="O878" s="7"/>
       <c r="P878" s="7"/>
       <c r="Q878" s="7"/>
     </row>
-    <row r="879" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C879" s="104"/>
       <c r="O879" s="7"/>
       <c r="P879" s="7"/>
       <c r="Q879" s="7"/>
     </row>
-    <row r="880" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C880" s="104"/>
       <c r="O880" s="7"/>
       <c r="P880" s="7"/>
       <c r="Q880" s="7"/>
     </row>
-    <row r="881" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C881" s="104"/>
       <c r="O881" s="7"/>
       <c r="P881" s="7"/>
       <c r="Q881" s="7"/>
     </row>
-    <row r="882" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C882" s="104"/>
       <c r="O882" s="7"/>
       <c r="P882" s="7"/>
       <c r="Q882" s="7"/>
     </row>
-    <row r="883" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C883" s="104"/>
       <c r="O883" s="7"/>
       <c r="P883" s="7"/>
       <c r="Q883" s="7"/>
     </row>
-    <row r="884" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C884" s="104"/>
       <c r="O884" s="7"/>
       <c r="P884" s="7"/>
       <c r="Q884" s="7"/>
     </row>
-    <row r="885" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C885" s="104"/>
       <c r="O885" s="7"/>
       <c r="P885" s="7"/>
       <c r="Q885" s="7"/>
     </row>
-    <row r="886" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C886" s="104"/>
       <c r="O886" s="7"/>
       <c r="P886" s="7"/>
       <c r="Q886" s="7"/>
     </row>
-    <row r="887" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C887" s="104"/>
       <c r="O887" s="7"/>
       <c r="P887" s="7"/>
       <c r="Q887" s="7"/>
     </row>
-    <row r="888" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C888" s="104"/>
       <c r="O888" s="7"/>
       <c r="P888" s="7"/>
       <c r="Q888" s="7"/>
     </row>
-    <row r="889" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C889" s="104"/>
       <c r="O889" s="7"/>
       <c r="P889" s="7"/>
       <c r="Q889" s="7"/>
     </row>
-    <row r="890" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C890" s="104"/>
       <c r="O890" s="7"/>
       <c r="P890" s="7"/>
       <c r="Q890" s="7"/>
     </row>
-    <row r="891" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C891" s="104"/>
       <c r="O891" s="7"/>
       <c r="P891" s="7"/>
       <c r="Q891" s="7"/>
     </row>
-    <row r="892" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C892" s="104"/>
       <c r="O892" s="7"/>
       <c r="P892" s="7"/>
       <c r="Q892" s="7"/>
     </row>
-    <row r="893" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C893" s="104"/>
       <c r="O893" s="7"/>
       <c r="P893" s="7"/>
       <c r="Q893" s="7"/>
     </row>
-    <row r="894" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C894" s="104"/>
       <c r="O894" s="7"/>
       <c r="P894" s="7"/>
       <c r="Q894" s="7"/>
     </row>
-    <row r="895" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C895" s="104"/>
       <c r="O895" s="7"/>
       <c r="P895" s="7"/>
       <c r="Q895" s="7"/>
     </row>
-    <row r="896" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C896" s="104"/>
       <c r="O896" s="7"/>
       <c r="P896" s="7"/>
       <c r="Q896" s="7"/>
     </row>
-    <row r="897" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C897" s="104"/>
       <c r="O897" s="7"/>
       <c r="P897" s="7"/>
       <c r="Q897" s="7"/>
     </row>
-    <row r="898" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C898" s="104"/>
       <c r="O898" s="7"/>
       <c r="P898" s="7"/>
       <c r="Q898" s="7"/>
     </row>
-    <row r="899" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C899" s="104"/>
       <c r="O899" s="7"/>
       <c r="P899" s="7"/>
       <c r="Q899" s="7"/>
     </row>
-    <row r="900" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C900" s="104"/>
       <c r="O900" s="7"/>
       <c r="P900" s="7"/>
       <c r="Q900" s="7"/>
     </row>
-    <row r="901" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C901" s="104"/>
       <c r="O901" s="7"/>
       <c r="P901" s="7"/>
       <c r="Q901" s="7"/>
     </row>
-    <row r="902" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C902" s="104"/>
       <c r="O902" s="7"/>
       <c r="P902" s="7"/>
       <c r="Q902" s="7"/>
     </row>
-    <row r="903" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C903" s="104"/>
       <c r="O903" s="7"/>
       <c r="P903" s="7"/>
       <c r="Q903" s="7"/>
     </row>
-    <row r="904" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C904" s="104"/>
       <c r="O904" s="7"/>
       <c r="P904" s="7"/>
       <c r="Q904" s="7"/>
     </row>
-    <row r="905" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C905" s="104"/>
       <c r="O905" s="7"/>
       <c r="P905" s="7"/>
       <c r="Q905" s="7"/>
     </row>
-    <row r="906" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C906" s="104"/>
       <c r="O906" s="7"/>
       <c r="P906" s="7"/>
       <c r="Q906" s="7"/>
     </row>
-    <row r="907" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C907" s="104"/>
       <c r="O907" s="7"/>
       <c r="P907" s="7"/>
       <c r="Q907" s="7"/>
     </row>
-    <row r="908" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C908" s="104"/>
       <c r="O908" s="7"/>
       <c r="P908" s="7"/>
       <c r="Q908" s="7"/>
     </row>
-    <row r="909" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C909" s="104"/>
       <c r="O909" s="7"/>
       <c r="P909" s="7"/>
       <c r="Q909" s="7"/>
     </row>
-    <row r="910" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C910" s="104"/>
       <c r="O910" s="7"/>
       <c r="P910" s="7"/>
       <c r="Q910" s="7"/>
     </row>
-    <row r="911" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C911" s="104"/>
       <c r="O911" s="7"/>
       <c r="P911" s="7"/>
       <c r="Q911" s="7"/>
     </row>
-    <row r="912" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C912" s="104"/>
       <c r="O912" s="7"/>
       <c r="P912" s="7"/>
       <c r="Q912" s="7"/>
     </row>
-    <row r="913" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C913" s="104"/>
       <c r="O913" s="7"/>
       <c r="P913" s="7"/>
       <c r="Q913" s="7"/>
     </row>
-    <row r="914" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C914" s="104"/>
       <c r="O914" s="7"/>
       <c r="P914" s="7"/>
       <c r="Q914" s="7"/>
     </row>
-    <row r="915" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C915" s="104"/>
       <c r="O915" s="7"/>
       <c r="P915" s="7"/>
       <c r="Q915" s="7"/>
     </row>
-    <row r="916" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C916" s="104"/>
       <c r="O916" s="7"/>
       <c r="P916" s="7"/>
       <c r="Q916" s="7"/>
     </row>
-    <row r="917" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C917" s="104"/>
       <c r="O917" s="7"/>
       <c r="P917" s="7"/>
       <c r="Q917" s="7"/>
     </row>
-    <row r="918" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C918" s="104"/>
       <c r="O918" s="7"/>
       <c r="P918" s="7"/>
       <c r="Q918" s="7"/>
     </row>
-    <row r="919" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C919" s="104"/>
       <c r="O919" s="7"/>
       <c r="P919" s="7"/>
       <c r="Q919" s="7"/>
     </row>
-    <row r="920" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C920" s="104"/>
       <c r="O920" s="7"/>
       <c r="P920" s="7"/>
       <c r="Q920" s="7"/>
     </row>
-    <row r="921" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C921" s="104"/>
       <c r="O921" s="7"/>
       <c r="P921" s="7"/>
       <c r="Q921" s="7"/>
     </row>
-    <row r="922" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C922" s="104"/>
       <c r="O922" s="7"/>
       <c r="P922" s="7"/>
       <c r="Q922" s="7"/>
     </row>
-    <row r="923" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C923" s="104"/>
       <c r="O923" s="7"/>
       <c r="P923" s="7"/>
       <c r="Q923" s="7"/>
     </row>
-    <row r="924" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C924" s="104"/>
       <c r="O924" s="7"/>
       <c r="P924" s="7"/>
       <c r="Q924" s="7"/>
     </row>
-    <row r="925" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C925" s="104"/>
       <c r="O925" s="7"/>
       <c r="P925" s="7"/>
       <c r="Q925" s="7"/>
     </row>
-    <row r="926" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C926" s="104"/>
       <c r="O926" s="7"/>
       <c r="P926" s="7"/>
       <c r="Q926" s="7"/>
     </row>
-    <row r="927" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C927" s="104"/>
       <c r="O927" s="7"/>
       <c r="P927" s="7"/>
       <c r="Q927" s="7"/>
     </row>
-    <row r="928" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C928" s="104"/>
       <c r="O928" s="7"/>
       <c r="P928" s="7"/>
       <c r="Q928" s="7"/>
     </row>
-    <row r="929" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C929" s="104"/>
       <c r="O929" s="7"/>
       <c r="P929" s="7"/>
       <c r="Q929" s="7"/>
     </row>
-    <row r="930" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C930" s="104"/>
       <c r="O930" s="7"/>
       <c r="P930" s="7"/>
       <c r="Q930" s="7"/>
     </row>
-    <row r="931" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C931" s="104"/>
       <c r="O931" s="7"/>
       <c r="P931" s="7"/>
       <c r="Q931" s="7"/>
     </row>
-    <row r="932" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C932" s="104"/>
       <c r="O932" s="7"/>
       <c r="P932" s="7"/>
       <c r="Q932" s="7"/>
     </row>
-    <row r="933" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C933" s="104"/>
       <c r="O933" s="7"/>
       <c r="P933" s="7"/>
       <c r="Q933" s="7"/>
     </row>
-    <row r="934" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C934" s="104"/>
       <c r="O934" s="7"/>
       <c r="P934" s="7"/>
       <c r="Q934" s="7"/>
     </row>
-    <row r="935" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C935" s="104"/>
       <c r="O935" s="7"/>
       <c r="P935" s="7"/>
       <c r="Q935" s="7"/>
     </row>
-    <row r="936" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C936" s="104"/>
       <c r="O936" s="7"/>
       <c r="P936" s="7"/>
       <c r="Q936" s="7"/>
     </row>
-    <row r="937" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C937" s="104"/>
       <c r="O937" s="7"/>
       <c r="P937" s="7"/>
       <c r="Q937" s="7"/>
     </row>
-    <row r="938" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C938" s="104"/>
       <c r="O938" s="7"/>
       <c r="P938" s="7"/>
       <c r="Q938" s="7"/>
     </row>
-    <row r="939" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C939" s="104"/>
       <c r="O939" s="7"/>
       <c r="P939" s="7"/>
       <c r="Q939" s="7"/>
     </row>
-    <row r="940" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C940" s="104"/>
       <c r="O940" s="7"/>
       <c r="P940" s="7"/>
       <c r="Q940" s="7"/>
     </row>
-    <row r="941" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C941" s="104"/>
       <c r="O941" s="7"/>
       <c r="P941" s="7"/>
       <c r="Q941" s="7"/>
     </row>
-    <row r="942" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C942" s="104"/>
       <c r="O942" s="7"/>
       <c r="P942" s="7"/>
       <c r="Q942" s="7"/>
     </row>
-    <row r="943" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C943" s="104"/>
       <c r="O943" s="7"/>
       <c r="P943" s="7"/>
       <c r="Q943" s="7"/>
     </row>
-    <row r="944" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C944" s="104"/>
       <c r="O944" s="7"/>
       <c r="P944" s="7"/>
       <c r="Q944" s="7"/>
     </row>
-    <row r="945" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C945" s="104"/>
       <c r="O945" s="7"/>
       <c r="P945" s="7"/>
       <c r="Q945" s="7"/>
     </row>
-    <row r="946" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C946" s="104"/>
       <c r="O946" s="7"/>
       <c r="P946" s="7"/>
       <c r="Q946" s="7"/>
     </row>
-    <row r="947" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C947" s="104"/>
       <c r="O947" s="7"/>
       <c r="P947" s="7"/>
       <c r="Q947" s="7"/>
     </row>
-    <row r="948" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C948" s="104"/>
       <c r="O948" s="7"/>
       <c r="P948" s="7"/>
       <c r="Q948" s="7"/>
     </row>
-    <row r="949" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C949" s="104"/>
       <c r="O949" s="7"/>
       <c r="P949" s="7"/>
       <c r="Q949" s="7"/>
     </row>
-    <row r="950" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C950" s="104"/>
       <c r="O950" s="7"/>
       <c r="P950" s="7"/>
       <c r="Q950" s="7"/>
     </row>
-    <row r="951" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C951" s="104"/>
       <c r="O951" s="7"/>
       <c r="P951" s="7"/>
       <c r="Q951" s="7"/>
     </row>
-    <row r="952" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C952" s="104"/>
       <c r="O952" s="7"/>
       <c r="P952" s="7"/>
       <c r="Q952" s="7"/>
     </row>
-    <row r="953" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C953" s="104"/>
       <c r="O953" s="7"/>
       <c r="P953" s="7"/>
       <c r="Q953" s="7"/>
     </row>
-    <row r="954" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C954" s="104"/>
       <c r="O954" s="7"/>
       <c r="P954" s="7"/>
       <c r="Q954" s="7"/>
     </row>
-    <row r="955" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C955" s="104"/>
       <c r="O955" s="7"/>
       <c r="P955" s="7"/>
       <c r="Q955" s="7"/>
     </row>
-    <row r="956" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C956" s="104"/>
       <c r="O956" s="7"/>
       <c r="P956" s="7"/>
       <c r="Q956" s="7"/>
     </row>
-    <row r="957" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C957" s="104"/>
       <c r="O957" s="7"/>
       <c r="P957" s="7"/>
       <c r="Q957" s="7"/>
     </row>
-    <row r="958" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C958" s="104"/>
       <c r="O958" s="7"/>
       <c r="P958" s="7"/>
       <c r="Q958" s="7"/>
     </row>
-    <row r="959" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C959" s="104"/>
       <c r="O959" s="7"/>
       <c r="P959" s="7"/>
       <c r="Q959" s="7"/>
     </row>
-    <row r="960" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C960" s="104"/>
       <c r="O960" s="7"/>
       <c r="P960" s="7"/>
       <c r="Q960" s="7"/>
     </row>
-    <row r="961" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C961" s="104"/>
       <c r="O961" s="7"/>
       <c r="P961" s="7"/>
       <c r="Q961" s="7"/>
     </row>
-    <row r="962" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C962" s="104"/>
       <c r="O962" s="7"/>
       <c r="P962" s="7"/>
       <c r="Q962" s="7"/>
     </row>
-    <row r="963" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C963" s="104"/>
       <c r="O963" s="7"/>
       <c r="P963" s="7"/>
       <c r="Q963" s="7"/>
     </row>
-    <row r="964" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C964" s="104"/>
       <c r="O964" s="7"/>
       <c r="P964" s="7"/>
       <c r="Q964" s="7"/>
     </row>
-    <row r="965" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C965" s="104"/>
       <c r="O965" s="7"/>
       <c r="P965" s="7"/>
       <c r="Q965" s="7"/>
     </row>
-    <row r="966" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C966" s="104"/>
       <c r="O966" s="7"/>
       <c r="P966" s="7"/>
       <c r="Q966" s="7"/>
     </row>
-    <row r="967" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C967" s="104"/>
       <c r="O967" s="7"/>
       <c r="P967" s="7"/>
       <c r="Q967" s="7"/>
     </row>
-    <row r="968" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C968" s="104"/>
       <c r="O968" s="7"/>
       <c r="P968" s="7"/>
       <c r="Q968" s="7"/>
     </row>
-    <row r="969" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C969" s="104"/>
       <c r="O969" s="7"/>
       <c r="P969" s="7"/>
       <c r="Q969" s="7"/>
     </row>
-    <row r="970" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C970" s="104"/>
       <c r="O970" s="7"/>
       <c r="P970" s="7"/>
       <c r="Q970" s="7"/>
     </row>
-    <row r="971" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C971" s="104"/>
       <c r="O971" s="7"/>
       <c r="P971" s="7"/>
       <c r="Q971" s="7"/>
     </row>
-    <row r="972" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C972" s="104"/>
       <c r="O972" s="7"/>
       <c r="P972" s="7"/>
       <c r="Q972" s="7"/>
     </row>
-    <row r="973" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C973" s="104"/>
       <c r="O973" s="7"/>
       <c r="P973" s="7"/>
       <c r="Q973" s="7"/>
     </row>
-    <row r="974" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C974" s="104"/>
       <c r="O974" s="7"/>
       <c r="P974" s="7"/>
       <c r="Q974" s="7"/>
     </row>
-    <row r="975" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C975" s="104"/>
       <c r="O975" s="7"/>
       <c r="P975" s="7"/>
       <c r="Q975" s="7"/>
     </row>
-    <row r="976" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C976" s="104"/>
       <c r="O976" s="7"/>
       <c r="P976" s="7"/>
       <c r="Q976" s="7"/>
     </row>
-    <row r="977" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C977" s="104"/>
       <c r="O977" s="7"/>
       <c r="P977" s="7"/>
       <c r="Q977" s="7"/>
     </row>
-    <row r="978" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C978" s="104"/>
       <c r="O978" s="7"/>
       <c r="P978" s="7"/>
       <c r="Q978" s="7"/>
     </row>
-    <row r="979" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C979" s="104"/>
       <c r="O979" s="7"/>
       <c r="P979" s="7"/>
       <c r="Q979" s="7"/>
     </row>
-    <row r="980" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C980" s="104"/>
       <c r="O980" s="7"/>
       <c r="P980" s="7"/>
       <c r="Q980" s="7"/>
     </row>
-    <row r="981" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C981" s="104"/>
       <c r="O981" s="7"/>
       <c r="P981" s="7"/>
       <c r="Q981" s="7"/>
     </row>
-    <row r="982" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C982" s="104"/>
       <c r="O982" s="7"/>
       <c r="P982" s="7"/>
       <c r="Q982" s="7"/>
     </row>
-    <row r="983" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C983" s="104"/>
       <c r="O983" s="7"/>
       <c r="P983" s="7"/>
       <c r="Q983" s="7"/>
     </row>
-    <row r="984" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C984" s="104"/>
       <c r="O984" s="7"/>
       <c r="P984" s="7"/>
       <c r="Q984" s="7"/>
     </row>
-    <row r="985" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C985" s="104"/>
       <c r="O985" s="7"/>
       <c r="P985" s="7"/>
       <c r="Q985" s="7"/>
     </row>
-    <row r="986" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C986" s="104"/>
       <c r="O986" s="7"/>
       <c r="P986" s="7"/>
       <c r="Q986" s="7"/>
     </row>
-    <row r="987" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C987" s="104"/>
       <c r="O987" s="7"/>
       <c r="P987" s="7"/>
       <c r="Q987" s="7"/>
     </row>
-    <row r="988" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C988" s="104"/>
       <c r="O988" s="7"/>
       <c r="P988" s="7"/>
       <c r="Q988" s="7"/>
     </row>
-    <row r="989" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C989" s="104"/>
       <c r="O989" s="7"/>
       <c r="P989" s="7"/>
       <c r="Q989" s="7"/>
     </row>
-    <row r="990" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C990" s="104"/>
       <c r="O990" s="7"/>
       <c r="P990" s="7"/>
       <c r="Q990" s="7"/>
     </row>
-    <row r="991" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C991" s="104"/>
       <c r="O991" s="7"/>
       <c r="P991" s="7"/>
       <c r="Q991" s="7"/>
     </row>
-    <row r="992" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C992" s="104"/>
       <c r="O992" s="7"/>
       <c r="P992" s="7"/>
       <c r="Q992" s="7"/>
     </row>
-    <row r="993" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C993" s="104"/>
       <c r="O993" s="7"/>
       <c r="P993" s="7"/>
       <c r="Q993" s="7"/>
     </row>
-    <row r="994" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C994" s="104"/>
       <c r="O994" s="7"/>
       <c r="P994" s="7"/>
       <c r="Q994" s="7"/>
     </row>
-    <row r="995" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C995" s="104"/>
       <c r="O995" s="7"/>
       <c r="P995" s="7"/>
       <c r="Q995" s="7"/>
     </row>
-    <row r="996" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C996" s="104"/>
       <c r="O996" s="7"/>
       <c r="P996" s="7"/>
       <c r="Q996" s="7"/>
     </row>
-    <row r="997" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C997" s="104"/>
       <c r="O997" s="7"/>
       <c r="P997" s="7"/>
       <c r="Q997" s="7"/>
     </row>
-    <row r="998" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C998" s="104"/>
       <c r="O998" s="7"/>
       <c r="P998" s="7"/>
       <c r="Q998" s="7"/>
     </row>
-    <row r="999" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C999" s="104"/>
       <c r="O999" s="7"/>
       <c r="P999" s="7"/>
       <c r="Q999" s="7"/>
     </row>
-    <row r="1000" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="3:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1000" s="104"/>
       <c r="O1000" s="7"/>
       <c r="P1000" s="7"/>
       <c r="Q1000" s="7"/>
+    </row>
+    <row r="1001" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1001" s="104"/>
+    </row>
+    <row r="1002" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1002" s="104"/>
+    </row>
+    <row r="1003" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1003" s="104"/>
+    </row>
+    <row r="1004" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1004" s="104"/>
+    </row>
+    <row r="1005" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1005" s="104"/>
+    </row>
+    <row r="1006" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1006" s="104"/>
+    </row>
+    <row r="1007" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1007" s="104"/>
+    </row>
+    <row r="1008" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1008" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -20679,17 +21421,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="36965efa-5a39-45c9-9312-a4f852bee1e3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20698,7 +21429,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E28E13ACBC000A4C890C7EF62115DE09" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="38c6947b388da27d619d5996577e48bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6" xmlns:ns3="36965efa-5a39-45c9-9312-a4f852bee1e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b0d313870efd85b4f0f8b7717aad82c" ns2:_="" ns3:_="">
     <xsd:import namespace="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6"/>
@@ -20923,18 +21654,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DB5410-E43E-4D6B-9D4B-0D20C22EAA49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6"/>
-    <ds:schemaRef ds:uri="36965efa-5a39-45c9-9312-a4f852bee1e3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="36965efa-5a39-45c9-9312-a4f852bee1e3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc8ea9bb-7be6-4347-bbbd-43ecd0226ab6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58C276EC-8B43-4EAA-A021-9BC92ECAD964}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -20942,7 +21673,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B11B4B9-AC4D-4EFF-93A4-3432A3A2D0CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20959,4 +21690,8 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA6A4AF4-786F-462F-994B-CF32182D99E8}"/>
 </file>